--- a/CNH.xlsx
+++ b/CNH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200DE102-594F-4752-9A5D-7384C1DEAE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8FC9F1-7BD6-4A66-BCCA-5CDF92FF6AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{E5487C0C-F82D-4D52-957B-79826F76E07B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{E5487C0C-F82D-4D52-957B-79826F76E07B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
   <si>
     <t xml:space="preserve">CNH Industrial </t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>Noncontrolling Interest</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
   </si>
 </sst>
 </file>
@@ -839,8 +851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BDC5672-DC16-4BFE-AEDB-9316442846DB}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>13.08</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>1248.9829999999999</v>
+        <v>1249.4316329999999</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -893,7 +905,7 @@
       </c>
       <c r="H4" s="2">
         <f>+H2*H3</f>
-        <v>16336.697639999999</v>
+        <v>17217.167902739999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,11 +918,11 @@
         <v>5</v>
       </c>
       <c r="H5" s="2">
-        <f>1801+649</f>
-        <v>2450</v>
+        <f>1695+703</f>
+        <v>2398</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -922,10 +934,11 @@
         <v>6</v>
       </c>
       <c r="H6" s="2">
-        <v>27300</v>
+        <f>26010+60</f>
+        <v>26070</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -938,7 +951,7 @@
       </c>
       <c r="H7" s="2">
         <f>+H4-H5+H6</f>
-        <v>41186.697639999999</v>
+        <v>40889.167902739995</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,13 +986,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B10C1D-43D1-4321-B299-044D15C10725}">
-  <dimension ref="A1:AW494"/>
+  <dimension ref="A1:BA494"/>
   <sheetViews>
-    <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,12 +1001,12 @@
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1018,59 +1031,71 @@
       <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="19">
+      <c r="K2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="19">
         <v>11</v>
       </c>
-      <c r="M2" s="19">
-        <f>+L2+1</f>
+      <c r="Q2" s="19">
+        <f>+P2+1</f>
         <v>12</v>
       </c>
-      <c r="N2" s="19">
-        <f t="shared" ref="N2:X2" si="0">+M2+1</f>
+      <c r="R2" s="19">
+        <f t="shared" ref="R2:AB2" si="0">+Q2+1</f>
         <v>13</v>
       </c>
-      <c r="O2" s="19">
+      <c r="S2" s="19">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="P2" s="19">
+      <c r="T2" s="19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="U2" s="19">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="R2" s="19">
+      <c r="V2" s="19">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="S2" s="19">
+      <c r="W2" s="19">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="T2" s="19">
+      <c r="X2" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="U2" s="19">
+      <c r="Y2" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="V2" s="19">
+      <c r="Z2" s="19">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="W2" s="19">
+      <c r="AA2" s="19">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="X2" s="19">
+      <c r="AB2" s="19">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -1080,15 +1105,23 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2">
+        <v>3373</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
         <v>3310</v>
       </c>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="K3" s="2">
+        <v>2581</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>35</v>
       </c>
@@ -1098,15 +1131,23 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>758</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2">
         <v>687</v>
       </c>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <v>591</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>37</v>
       </c>
@@ -1116,15 +1157,23 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2">
+        <v>685</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2">
         <v>659</v>
       </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <v>651</v>
+      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1134,13 +1183,17 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="2">
+        <v>4131</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2">
         <v>3997</v>
       </c>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>3172</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1178,8 +1231,12 @@
       <c r="AT6" s="2"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1189,13 +1246,17 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>687</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2">
         <v>657</v>
       </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>656</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1233,8 +1294,12 @@
       <c r="AT7" s="2"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1256,7 +1321,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4818</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
@@ -1270,50 +1335,52 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="21"/>
-      <c r="L8" s="6">
+      <c r="K8" s="6">
+        <v>3828</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="6">
         <v>33480</v>
       </c>
-      <c r="M8" s="6">
+      <c r="Q8" s="6">
         <v>32801</v>
       </c>
-      <c r="N8" s="6">
+      <c r="R8" s="6">
         <v>33836</v>
       </c>
-      <c r="O8" s="6">
+      <c r="S8" s="6">
         <v>32555</v>
       </c>
-      <c r="P8" s="6">
+      <c r="T8" s="6">
         <v>25912</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="U8" s="6">
         <v>25095</v>
       </c>
-      <c r="R8" s="6">
+      <c r="V8" s="6">
         <v>27701</v>
       </c>
-      <c r="S8" s="6">
+      <c r="W8" s="6">
         <v>29706</v>
       </c>
-      <c r="T8" s="6">
+      <c r="X8" s="6">
         <v>28079</v>
       </c>
-      <c r="U8" s="6">
+      <c r="Y8" s="6">
         <v>14779</v>
       </c>
-      <c r="V8" s="6">
+      <c r="Z8" s="6">
         <v>19496</v>
       </c>
-      <c r="W8" s="6">
+      <c r="AA8" s="6">
         <v>23551</v>
       </c>
-      <c r="X8" s="6">
+      <c r="AB8" s="6">
         <v>24687</v>
       </c>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
@@ -1334,8 +1401,12 @@
       <c r="AT8" s="2"/>
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
       </c>
@@ -1345,56 +1416,60 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>3195</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2">
         <v>3130</v>
       </c>
       <c r="J9" s="2"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="2">
+      <c r="K9" s="2">
+        <v>2569</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="2">
         <v>26270</v>
       </c>
-      <c r="M9" s="2">
+      <c r="Q9" s="2">
         <v>25569</v>
       </c>
-      <c r="N9" s="2">
+      <c r="R9" s="2">
         <v>26551</v>
       </c>
-      <c r="O9" s="2">
+      <c r="S9" s="2">
         <v>25534</v>
       </c>
-      <c r="P9" s="2">
+      <c r="T9" s="2">
         <v>20357</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="U9" s="2">
         <v>19420</v>
       </c>
-      <c r="R9" s="2">
+      <c r="V9" s="2">
         <v>21572</v>
       </c>
-      <c r="S9" s="2">
+      <c r="W9" s="2">
         <v>22958</v>
       </c>
-      <c r="T9" s="2">
+      <c r="X9" s="2">
         <v>21832</v>
       </c>
-      <c r="U9" s="2">
+      <c r="Y9" s="2">
         <v>11902</v>
       </c>
-      <c r="V9" s="2">
+      <c r="Z9" s="2">
         <v>14877</v>
       </c>
-      <c r="W9" s="2">
+      <c r="AA9" s="2">
         <v>17486</v>
       </c>
-      <c r="X9" s="2">
+      <c r="AB9" s="2">
         <v>16838</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
@@ -1415,8 +1490,12 @@
       <c r="AT9" s="2"/>
       <c r="AU9" s="2"/>
       <c r="AV9" s="2"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>21</v>
       </c>
@@ -1438,7 +1517,7 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1623</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="2"/>
@@ -1449,53 +1528,56 @@
         <v>1524</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" ref="J10" si="3">+J8-J9</f>
+        <f t="shared" ref="J10:K10" si="3">+J8-J9</f>
         <v>0</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="2">
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
+        <v>1259</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="2">
         <v>7210</v>
       </c>
-      <c r="M10" s="2">
+      <c r="Q10" s="2">
         <v>7232</v>
       </c>
-      <c r="N10" s="2">
+      <c r="R10" s="2">
         <v>7285</v>
       </c>
-      <c r="O10" s="2">
+      <c r="S10" s="2">
         <v>7021</v>
       </c>
-      <c r="P10" s="2">
+      <c r="T10" s="2">
         <v>5555</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="U10" s="2">
         <v>5675</v>
       </c>
-      <c r="R10" s="2">
+      <c r="V10" s="2">
         <v>6129</v>
       </c>
-      <c r="S10" s="2">
+      <c r="W10" s="2">
         <v>6748</v>
       </c>
-      <c r="T10" s="2">
+      <c r="X10" s="2">
         <v>6247</v>
       </c>
-      <c r="U10" s="2">
+      <c r="Y10" s="2">
         <v>2877</v>
       </c>
-      <c r="V10" s="2">
+      <c r="Z10" s="2">
         <v>4619</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AA10" s="2">
         <v>6065</v>
       </c>
-      <c r="X10" s="2">
+      <c r="AB10" s="2">
         <v>7849</v>
       </c>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1516,8 +1598,12 @@
       <c r="AT10" s="2"/>
       <c r="AU10" s="2"/>
       <c r="AV10" s="2"/>
-    </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
@@ -1527,56 +1613,60 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2">
+        <v>411</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>426</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="2">
+      <c r="K11" s="2">
+        <v>386</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="2">
         <v>3214</v>
       </c>
-      <c r="M11" s="2">
+      <c r="Q11" s="2">
         <v>3036</v>
       </c>
-      <c r="N11" s="2">
+      <c r="R11" s="2">
         <v>3094</v>
       </c>
-      <c r="O11" s="2">
+      <c r="S11" s="2">
         <v>2925</v>
       </c>
-      <c r="P11" s="2">
+      <c r="T11" s="2">
         <v>2317</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="U11" s="2">
         <v>2246</v>
       </c>
-      <c r="R11" s="2">
+      <c r="V11" s="2">
         <v>2315</v>
       </c>
-      <c r="S11" s="2">
+      <c r="W11" s="2">
         <v>2351</v>
       </c>
-      <c r="T11" s="2">
+      <c r="X11" s="2">
         <v>2216</v>
       </c>
-      <c r="U11" s="2">
+      <c r="Y11" s="2">
         <v>1296</v>
       </c>
-      <c r="V11" s="2">
+      <c r="Z11" s="2">
         <v>1454</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AA11" s="2">
         <v>1752</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AB11" s="2">
         <v>1863</v>
       </c>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
@@ -1597,8 +1687,12 @@
       <c r="AT11" s="2"/>
       <c r="AU11" s="2"/>
       <c r="AV11" s="2"/>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>23</v>
       </c>
@@ -1608,56 +1702,60 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>228</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2">
         <v>221</v>
       </c>
       <c r="J12" s="2"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="2">
+      <c r="K12" s="2">
+        <v>184</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="2">
         <v>1026</v>
       </c>
-      <c r="M12" s="2">
+      <c r="Q12" s="2">
         <v>1129</v>
       </c>
-      <c r="N12" s="2">
+      <c r="R12" s="2">
         <v>1222</v>
       </c>
-      <c r="O12" s="2">
+      <c r="S12" s="2">
         <v>1106</v>
       </c>
-      <c r="P12" s="2">
+      <c r="T12" s="2">
         <v>856</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="U12" s="2">
         <v>860</v>
       </c>
-      <c r="R12" s="2">
+      <c r="V12" s="2">
         <v>957</v>
       </c>
-      <c r="S12" s="2">
+      <c r="W12" s="2">
         <v>1061</v>
       </c>
-      <c r="T12" s="2">
+      <c r="X12" s="2">
         <v>1030</v>
       </c>
-      <c r="U12" s="2">
+      <c r="Y12" s="2">
         <v>493</v>
       </c>
-      <c r="V12" s="2">
+      <c r="Z12" s="2">
         <v>642</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AA12" s="2">
         <v>866</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AB12" s="2">
         <v>1041</v>
       </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -1678,8 +1776,12 @@
       <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>24</v>
       </c>
@@ -1689,56 +1791,60 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" s="2">
+        <v>31</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>12</v>
       </c>
       <c r="J13" s="2"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="2">
+      <c r="K13" s="2">
+        <v>6</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="2">
         <v>6030</v>
       </c>
-      <c r="M13" s="2">
+      <c r="Q13" s="2">
         <v>5885</v>
       </c>
-      <c r="N13" s="2">
+      <c r="R13" s="2">
         <v>5911</v>
       </c>
-      <c r="O13" s="2">
+      <c r="S13" s="2">
         <v>5932</v>
       </c>
-      <c r="P13" s="2">
+      <c r="T13" s="2">
         <v>4988</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="U13" s="2">
         <v>5697</v>
       </c>
-      <c r="R13" s="2">
+      <c r="V13" s="2">
         <v>5470</v>
       </c>
-      <c r="S13" s="2">
+      <c r="W13" s="2">
         <v>5282</v>
       </c>
-      <c r="T13" s="2">
+      <c r="X13" s="2">
         <v>5077</v>
       </c>
-      <c r="U13" s="2">
+      <c r="Y13" s="2">
         <v>2396</v>
       </c>
-      <c r="V13" s="2">
+      <c r="Z13" s="2">
         <v>2131</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AA13" s="2">
         <v>2649</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AB13" s="2">
         <v>5146</v>
       </c>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
@@ -1759,8 +1865,12 @@
       <c r="AT13" s="2"/>
       <c r="AU13" s="2"/>
       <c r="AV13" s="2"/>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1782,7 +1892,7 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>953</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="4"/>
@@ -1793,53 +1903,56 @@
         <v>865</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" ref="J14" si="5">+J10-SUM(J11:J13)</f>
+        <f>+J10-SUM(J11:J13)</f>
         <v>0</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="2">
+      <c r="K14" s="2">
+        <f>+K10-SUM(K11:K13)</f>
+        <v>683</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="2">
         <v>1180</v>
       </c>
-      <c r="M14" s="2">
+      <c r="Q14" s="2">
         <v>1347</v>
       </c>
-      <c r="N14" s="2">
+      <c r="R14" s="2">
         <v>1374</v>
       </c>
-      <c r="O14" s="2">
+      <c r="S14" s="2">
         <v>1089</v>
       </c>
-      <c r="P14" s="2">
+      <c r="T14" s="2">
         <v>567</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="U14" s="2">
         <v>-22</v>
       </c>
-      <c r="R14" s="2">
+      <c r="V14" s="2">
         <v>659</v>
       </c>
-      <c r="S14" s="2">
+      <c r="W14" s="2">
         <v>1466</v>
       </c>
-      <c r="T14" s="2">
+      <c r="X14" s="2">
         <v>1170</v>
       </c>
-      <c r="U14" s="2">
+      <c r="Y14" s="2">
         <v>481</v>
       </c>
-      <c r="V14" s="2">
+      <c r="Z14" s="2">
         <v>2488</v>
       </c>
-      <c r="W14" s="2">
+      <c r="AA14" s="2">
         <v>3416</v>
       </c>
-      <c r="X14" s="2">
+      <c r="AB14" s="2">
         <v>2703</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1860,8 +1973,12 @@
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
       <c r="AV14" s="2"/>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1871,25 +1988,21 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2">
+        <v>394</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
         <v>378</v>
       </c>
       <c r="J15" s="2"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="2">
-        <v>0</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2">
-        <v>0</v>
-      </c>
+      <c r="K15" s="2">
+        <v>362</v>
+      </c>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="2">
         <v>0</v>
       </c>
@@ -1917,10 +2030,18 @@
       <c r="X15" s="2">
         <v>0</v>
       </c>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
@@ -1941,8 +2062,12 @@
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
       <c r="AV15" s="2"/>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1952,25 +2077,21 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="2">
+        <v>157</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2">
         <v>127</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
+      <c r="K16" s="2">
+        <v>159</v>
+      </c>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="2">
         <v>0</v>
       </c>
@@ -1987,21 +2108,29 @@
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <v>-660</v>
+        <v>0</v>
       </c>
       <c r="V16" s="2">
-        <v>-549</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2">
-        <v>-734</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2">
         <v>0</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
+      <c r="Y16" s="2">
+        <v>-660</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>-549</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>-734</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
@@ -2022,33 +2151,37 @@
       <c r="AT16" s="2"/>
       <c r="AU16" s="2"/>
       <c r="AV16" s="2"/>
-    </row>
-    <row r="17" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:H17" si="6">+C14-SUM(C15:C16)</f>
+        <f t="shared" ref="C17:H17" si="5">+C14-SUM(C15:C16)</f>
         <v>0</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>662</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>402</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I17" s="2">
@@ -2056,53 +2189,56 @@
         <v>360</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" ref="J17" si="7">+J14-SUM(J15:J16)</f>
+        <f>+J14-SUM(J15:J16)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="2">
+      <c r="K17" s="2">
+        <f>+K14-SUM(K15:K16)</f>
+        <v>162</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="2">
         <v>1180</v>
       </c>
-      <c r="M17" s="2">
+      <c r="Q17" s="2">
         <v>1347</v>
       </c>
-      <c r="N17" s="2">
+      <c r="R17" s="2">
         <v>1374</v>
       </c>
-      <c r="O17" s="2">
+      <c r="S17" s="2">
         <v>1089</v>
       </c>
-      <c r="P17" s="2">
+      <c r="T17" s="2">
         <v>567</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="U17" s="2">
         <v>-22</v>
       </c>
-      <c r="R17" s="2">
+      <c r="V17" s="2">
         <v>659</v>
       </c>
-      <c r="S17" s="2">
+      <c r="W17" s="2">
         <v>1466</v>
       </c>
-      <c r="T17" s="2">
+      <c r="X17" s="2">
         <v>1170</v>
       </c>
-      <c r="U17" s="2">
+      <c r="Y17" s="2">
         <v>-179</v>
       </c>
-      <c r="V17" s="2">
+      <c r="Z17" s="2">
         <v>1939</v>
       </c>
-      <c r="W17" s="2">
+      <c r="AA17" s="2">
         <v>2682</v>
       </c>
-      <c r="X17" s="2">
+      <c r="AB17" s="2">
         <v>2703</v>
       </c>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
@@ -2123,8 +2259,12 @@
       <c r="AT17" s="2"/>
       <c r="AU17" s="2"/>
       <c r="AV17" s="2"/>
-    </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -2134,56 +2274,60 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="2">
+        <v>77</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2">
         <v>75</v>
       </c>
       <c r="J18" s="2"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="2">
+      <c r="K18" s="2">
+        <v>47</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="2">
         <v>652</v>
       </c>
-      <c r="M18" s="2">
+      <c r="Q18" s="2">
         <v>564</v>
       </c>
-      <c r="N18" s="2">
+      <c r="R18" s="2">
         <v>671</v>
       </c>
-      <c r="O18" s="2">
+      <c r="S18" s="2">
         <v>467</v>
       </c>
-      <c r="P18" s="2">
+      <c r="T18" s="2">
         <v>360</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="U18" s="2">
         <v>297</v>
       </c>
-      <c r="R18" s="2">
+      <c r="V18" s="2">
         <v>457</v>
       </c>
-      <c r="S18" s="2">
+      <c r="W18" s="2">
         <v>417</v>
       </c>
-      <c r="T18" s="2">
+      <c r="X18" s="2">
         <v>-271</v>
       </c>
-      <c r="U18" s="2">
+      <c r="Y18" s="2">
         <v>85</v>
       </c>
-      <c r="V18" s="2">
+      <c r="Z18" s="2">
         <v>229</v>
       </c>
-      <c r="W18" s="2">
+      <c r="AA18" s="2">
         <v>747</v>
       </c>
-      <c r="X18" s="2">
+      <c r="AB18" s="2">
         <v>594</v>
       </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
@@ -2204,8 +2348,12 @@
       <c r="AT18" s="2"/>
       <c r="AU18" s="2"/>
       <c r="AV18" s="2"/>
-    </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -2215,56 +2363,60 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>44</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>25</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
+      <c r="K19" s="2">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2">
         <v>639</v>
       </c>
-      <c r="M19" s="2">
+      <c r="Q19" s="2">
         <v>876</v>
       </c>
-      <c r="N19" s="2">
+      <c r="R19" s="2">
         <v>828</v>
       </c>
-      <c r="O19" s="2">
+      <c r="S19" s="2">
         <v>708</v>
       </c>
-      <c r="P19" s="2">
+      <c r="T19" s="2">
         <v>248</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="U19" s="2">
         <v>-261</v>
       </c>
-      <c r="R19" s="2">
+      <c r="V19" s="2">
         <v>290</v>
       </c>
-      <c r="S19" s="2">
+      <c r="W19" s="2">
         <v>1099</v>
       </c>
-      <c r="T19" s="2">
+      <c r="X19" s="2">
         <v>1454</v>
       </c>
-      <c r="U19" s="2">
+      <c r="Y19" s="2">
         <v>-438</v>
       </c>
-      <c r="V19" s="2">
+      <c r="Z19" s="2">
         <v>1760</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AA19" s="2">
         <v>2039</v>
       </c>
-      <c r="X19" s="2">
+      <c r="AB19" s="2">
         <v>2383</v>
       </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
@@ -2285,33 +2437,37 @@
       <c r="AT19" s="2"/>
       <c r="AU19" s="2"/>
       <c r="AV19" s="2"/>
-    </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" ref="C20:H20" si="8">+C17-C18+C19</f>
+        <f t="shared" ref="C20:H20" si="6">+C17-C18+C19</f>
         <v>0</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>369</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I20" s="2">
@@ -2319,14 +2475,17 @@
         <v>310</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" ref="J20" si="9">+J17-J18+J19</f>
+        <f t="shared" ref="J20:K20" si="7">+J17-J18+J19</f>
         <v>0</v>
       </c>
-      <c r="K20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
+      <c r="K20" s="2">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
@@ -2347,8 +2506,12 @@
       <c r="AT20" s="2"/>
       <c r="AU20" s="2"/>
       <c r="AV20" s="2"/>
-    </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -2358,17 +2521,21 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
         <v>4</v>
       </c>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
@@ -2389,33 +2556,37 @@
       <c r="AT21" s="2"/>
       <c r="AU21" s="2"/>
       <c r="AV21" s="2"/>
-    </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:H22" si="10">+C20-C21</f>
+        <f t="shared" ref="C22:H22" si="8">+C20-C21</f>
         <v>0</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>537</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>368</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I22" s="2">
@@ -2423,14 +2594,17 @@
         <v>306</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" ref="J22" si="11">+J20-J21</f>
+        <f t="shared" ref="J22:K22" si="9">+J20-J21</f>
         <v>0</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="K22" s="2">
+        <f t="shared" si="9"/>
+        <v>131</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -2451,8 +2625,12 @@
       <c r="AT22" s="2"/>
       <c r="AU22" s="2"/>
       <c r="AV22" s="2"/>
-    </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -2462,10 +2640,10 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -2486,33 +2664,37 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-    </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="5" t="e">
-        <f t="shared" ref="C24:H24" si="12">+C22/C25</f>
+        <f t="shared" ref="C24:H24" si="10">+C22/C25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.40315315315315314</v>
       </c>
       <c r="E24" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="5" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+      <c r="G24" s="5">
+        <f t="shared" si="10"/>
+        <v>0.29206349206349208</v>
       </c>
       <c r="H24" s="5" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I24" s="5">
@@ -2520,13 +2702,16 @@
         <v>0.2446043165467626</v>
       </c>
       <c r="J24" s="5" t="e">
-        <f t="shared" ref="J24" si="13">+J22/J25</f>
+        <f t="shared" ref="J24:K24" si="11">+J22/J25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="K24" s="5">
+        <f t="shared" si="11"/>
+        <v>0.10496794871794872</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2561,8 +2746,12 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-    </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>3</v>
       </c>
@@ -2572,13 +2761,17 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="2">
+        <v>1260</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2">
         <v>1251</v>
       </c>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>1248</v>
+      </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2616,8 +2809,12 @@
       <c r="AT25" s="2"/>
       <c r="AU25" s="2"/>
       <c r="AV25" s="2"/>
-    </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -2664,8 +2861,12 @@
       <c r="AT26" s="2"/>
       <c r="AU26" s="2"/>
       <c r="AV26" s="2"/>
-    </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>38</v>
       </c>
@@ -2674,11 +2875,11 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="7" t="e">
-        <f t="shared" ref="G27:H27" si="14">+G8/B8-1</f>
+        <f t="shared" ref="G27:H27" si="12">+G8/B8-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="H27" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I27" s="7">
@@ -2686,13 +2887,13 @@
         <v>-0.22251921149348475</v>
       </c>
       <c r="J27" s="7" t="e">
-        <f t="shared" ref="J27" si="15">+J8/E8-1</f>
+        <f t="shared" ref="J27" si="13">+J8/E8-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2728,33 +2929,37 @@
       <c r="AU27" s="2"/>
       <c r="AV27" s="2"/>
       <c r="AW27" s="2"/>
-    </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="7" t="e">
-        <f t="shared" ref="C28:H28" si="16">+C10/C8</f>
+        <f t="shared" ref="C28:H28" si="14">+C10/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>0.32191780821917809</v>
       </c>
       <c r="E28" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="7">
+        <f t="shared" si="14"/>
+        <v>0.3368617683686177</v>
       </c>
       <c r="H28" s="7" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="7">
@@ -2762,13 +2967,13 @@
         <v>0.32746024924795875</v>
       </c>
       <c r="J28" s="7" t="e">
-        <f t="shared" ref="J28" si="17">+J10/J8</f>
+        <f t="shared" ref="J28" si="15">+J10/J8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2803,33 +3008,37 @@
       <c r="AT28" s="2"/>
       <c r="AU28" s="2"/>
       <c r="AV28" s="2"/>
-    </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+    </row>
+    <row r="29" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:H29" si="18">+C14/C8</f>
+        <f t="shared" ref="C29:H29" si="16">+C14/C8</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.19946541931172737</v>
       </c>
       <c r="E29" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="18"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="7">
+        <f t="shared" si="16"/>
+        <v>0.19779991697799917</v>
       </c>
       <c r="H29" s="7" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="7">
@@ -2837,13 +3046,13 @@
         <v>0.18586162440911044</v>
       </c>
       <c r="J29" s="7" t="e">
-        <f t="shared" ref="J29" si="19">+J14/J8</f>
+        <f>+J14/J8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -2878,33 +3087,37 @@
       <c r="AT29" s="2"/>
       <c r="AU29" s="2"/>
       <c r="AV29" s="2"/>
-    </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+    </row>
+    <row r="30" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>41</v>
       </c>
       <c r="C30" s="7" t="e">
-        <f t="shared" ref="C30:H30" si="20">+C18/C17</f>
+        <f t="shared" ref="C30:H30" si="17">+C18/C17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D30" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>0.2583081570996979</v>
       </c>
       <c r="E30" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="7" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
+      <c r="G30" s="7">
+        <f t="shared" si="17"/>
+        <v>0.19154228855721392</v>
       </c>
       <c r="H30" s="7" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I30" s="7">
@@ -2912,13 +3125,13 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="J30" s="7" t="e">
-        <f t="shared" ref="J30" si="21">+J18/J17</f>
+        <f t="shared" ref="J30" si="18">+J18/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -2953,8 +3166,12 @@
       <c r="AT30" s="2"/>
       <c r="AU30" s="2"/>
       <c r="AV30" s="2"/>
-    </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+    </row>
+    <row r="31" spans="2:53" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -3001,8 +3218,12 @@
       <c r="AT31" s="2"/>
       <c r="AU31" s="2"/>
       <c r="AV31" s="2"/>
-    </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>52</v>
       </c>
@@ -3052,8 +3273,12 @@
       <c r="AT32" s="2"/>
       <c r="AU32" s="2"/>
       <c r="AV32" s="2"/>
-    </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="2"/>
+    </row>
+    <row r="33" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -3107,8 +3332,12 @@
       <c r="AT33" s="2"/>
       <c r="AU33" s="2"/>
       <c r="AV33" s="2"/>
-    </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="2"/>
+    </row>
+    <row r="34" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>53</v>
       </c>
@@ -3162,8 +3391,12 @@
       <c r="AT34" s="2"/>
       <c r="AU34" s="2"/>
       <c r="AV34" s="2"/>
-    </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+    </row>
+    <row r="35" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>54</v>
       </c>
@@ -3217,8 +3450,12 @@
       <c r="AT35" s="2"/>
       <c r="AU35" s="2"/>
       <c r="AV35" s="2"/>
-    </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+    </row>
+    <row r="36" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>55</v>
       </c>
@@ -3272,8 +3509,12 @@
       <c r="AT36" s="2"/>
       <c r="AU36" s="2"/>
       <c r="AV36" s="2"/>
-    </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+    </row>
+    <row r="37" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>69</v>
       </c>
@@ -3327,8 +3568,12 @@
       <c r="AT37" s="2"/>
       <c r="AU37" s="2"/>
       <c r="AV37" s="2"/>
-    </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+    </row>
+    <row r="38" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>56</v>
       </c>
@@ -3382,27 +3627,31 @@
       <c r="AT38" s="2"/>
       <c r="AU38" s="2"/>
       <c r="AV38" s="2"/>
-    </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+    </row>
+    <row r="39" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2">
-        <f t="shared" ref="E39:H39" si="22">+SUM(E33:E38)</f>
+        <f t="shared" ref="E39:H39" si="19">+SUM(E33:E38)</f>
         <v>0</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>35352</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="I39" s="2">
@@ -3451,8 +3700,12 @@
       <c r="AT39" s="2"/>
       <c r="AU39" s="2"/>
       <c r="AV39" s="2"/>
-    </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+    </row>
+    <row r="40" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>58</v>
       </c>
@@ -3506,8 +3759,12 @@
       <c r="AT40" s="2"/>
       <c r="AU40" s="2"/>
       <c r="AV40" s="2"/>
-    </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+    </row>
+    <row r="41" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3818,12 @@
       <c r="AT41" s="2"/>
       <c r="AU41" s="2"/>
       <c r="AV41" s="2"/>
-    </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+    </row>
+    <row r="42" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3877,12 @@
       <c r="AT42" s="2"/>
       <c r="AU42" s="2"/>
       <c r="AV42" s="2"/>
-    </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+    </row>
+    <row r="43" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>61</v>
       </c>
@@ -3671,8 +3936,12 @@
       <c r="AT43" s="2"/>
       <c r="AU43" s="2"/>
       <c r="AV43" s="2"/>
-    </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW43" s="2"/>
+      <c r="AX43" s="2"/>
+      <c r="AY43" s="2"/>
+      <c r="AZ43" s="2"/>
+    </row>
+    <row r="44" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>62</v>
       </c>
@@ -3726,8 +3995,12 @@
       <c r="AT44" s="2"/>
       <c r="AU44" s="2"/>
       <c r="AV44" s="2"/>
-    </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW44" s="2"/>
+      <c r="AX44" s="2"/>
+      <c r="AY44" s="2"/>
+      <c r="AZ44" s="2"/>
+    </row>
+    <row r="45" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>63</v>
       </c>
@@ -3781,8 +4054,12 @@
       <c r="AT45" s="2"/>
       <c r="AU45" s="2"/>
       <c r="AV45" s="2"/>
-    </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW45" s="2"/>
+      <c r="AX45" s="2"/>
+      <c r="AY45" s="2"/>
+      <c r="AZ45" s="2"/>
+    </row>
+    <row r="46" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>64</v>
       </c>
@@ -3836,8 +4113,12 @@
       <c r="AT46" s="2"/>
       <c r="AU46" s="2"/>
       <c r="AV46" s="2"/>
-    </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+    </row>
+    <row r="47" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>65</v>
       </c>
@@ -3891,27 +4172,31 @@
       <c r="AT47" s="2"/>
       <c r="AU47" s="2"/>
       <c r="AV47" s="2"/>
-    </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW47" s="2"/>
+      <c r="AX47" s="2"/>
+      <c r="AY47" s="2"/>
+      <c r="AZ47" s="2"/>
+    </row>
+    <row r="48" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
-        <f t="shared" ref="E48:H48" si="23">+SUM(E40:E47)</f>
+        <f t="shared" ref="E48:H48" si="20">+SUM(E40:E47)</f>
         <v>0</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>10915</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H48" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I48" s="2">
@@ -3919,7 +4204,7 @@
         <v>11105</v>
       </c>
       <c r="J48" s="2">
-        <f t="shared" ref="J48" si="24">+SUM(J40:J47)</f>
+        <f t="shared" ref="J48" si="21">+SUM(J40:J47)</f>
         <v>0</v>
       </c>
       <c r="K48" s="2"/>
@@ -3960,8 +4245,12 @@
       <c r="AT48" s="2"/>
       <c r="AU48" s="2"/>
       <c r="AV48" s="2"/>
-    </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW48" s="2"/>
+      <c r="AX48" s="2"/>
+      <c r="AY48" s="2"/>
+      <c r="AZ48" s="2"/>
+    </row>
+    <row r="49" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -3973,10 +4262,10 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
       <c r="U49" s="2"/>
@@ -4007,25 +4296,29 @@
       <c r="AT49" s="2"/>
       <c r="AU49" s="2"/>
       <c r="AV49" s="2"/>
-    </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW49" s="2"/>
+      <c r="AX49" s="2"/>
+      <c r="AY49" s="2"/>
+      <c r="AZ49" s="2"/>
+    </row>
+    <row r="50" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>67</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ref="E50:H50" si="25">+E48+E39</f>
+        <f t="shared" ref="E50:H50" si="22">+E48+E39</f>
         <v>0</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>46267</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="H50" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="I50" s="2">
@@ -4033,11 +4326,15 @@
         <v>44033</v>
       </c>
       <c r="J50" s="2">
-        <f t="shared" ref="J50" si="26">+J48+J39</f>
+        <f t="shared" ref="J50" si="23">+J48+J39</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+    </row>
+    <row r="51" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -4084,8 +4381,12 @@
       <c r="AT51" s="2"/>
       <c r="AU51" s="2"/>
       <c r="AV51" s="2"/>
-    </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW51" s="2"/>
+      <c r="AX51" s="2"/>
+      <c r="AY51" s="2"/>
+      <c r="AZ51" s="2"/>
+    </row>
+    <row r="52" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>6</v>
       </c>
@@ -4139,8 +4440,12 @@
       <c r="AT52" s="2"/>
       <c r="AU52" s="2"/>
       <c r="AV52" s="2"/>
-    </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW52" s="2"/>
+      <c r="AX52" s="2"/>
+      <c r="AY52" s="2"/>
+      <c r="AZ52" s="2"/>
+    </row>
+    <row r="53" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>68</v>
       </c>
@@ -4194,8 +4499,12 @@
       <c r="AT53" s="2"/>
       <c r="AU53" s="2"/>
       <c r="AV53" s="2"/>
-    </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+    </row>
+    <row r="54" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>77</v>
       </c>
@@ -4249,8 +4558,12 @@
       <c r="AT54" s="2"/>
       <c r="AU54" s="2"/>
       <c r="AV54" s="2"/>
-    </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW54" s="2"/>
+      <c r="AX54" s="2"/>
+      <c r="AY54" s="2"/>
+      <c r="AZ54" s="2"/>
+    </row>
+    <row r="55" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>70</v>
       </c>
@@ -4304,8 +4617,12 @@
       <c r="AT55" s="2"/>
       <c r="AU55" s="2"/>
       <c r="AV55" s="2"/>
-    </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW55" s="2"/>
+      <c r="AX55" s="2"/>
+      <c r="AY55" s="2"/>
+      <c r="AZ55" s="2"/>
+    </row>
+    <row r="56" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>71</v>
       </c>
@@ -4359,8 +4676,12 @@
       <c r="AT56" s="2"/>
       <c r="AU56" s="2"/>
       <c r="AV56" s="2"/>
-    </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW56" s="2"/>
+      <c r="AX56" s="2"/>
+      <c r="AY56" s="2"/>
+      <c r="AZ56" s="2"/>
+    </row>
+    <row r="57" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>72</v>
       </c>
@@ -4414,8 +4735,12 @@
       <c r="AT57" s="2"/>
       <c r="AU57" s="2"/>
       <c r="AV57" s="2"/>
-    </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW57" s="2"/>
+      <c r="AX57" s="2"/>
+      <c r="AY57" s="2"/>
+      <c r="AZ57" s="2"/>
+    </row>
+    <row r="58" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>73</v>
       </c>
@@ -4469,33 +4794,37 @@
       <c r="AT58" s="2"/>
       <c r="AU58" s="2"/>
       <c r="AV58" s="2"/>
-    </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW58" s="2"/>
+      <c r="AX58" s="2"/>
+      <c r="AY58" s="2"/>
+      <c r="AZ58" s="2"/>
+    </row>
+    <row r="59" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>74</v>
       </c>
       <c r="C59" s="2">
-        <f t="shared" ref="C59:H59" si="27">+SUM(C52:C58)</f>
+        <f t="shared" ref="C59:H59" si="24">+SUM(C52:C58)</f>
         <v>0</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>38117</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H59" s="2">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I59" s="2">
@@ -4503,7 +4832,7 @@
         <v>36264</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" ref="J59" si="28">+SUM(J52:J58)</f>
+        <f t="shared" ref="J59" si="25">+SUM(J52:J58)</f>
         <v>0</v>
       </c>
       <c r="K59" s="2"/>
@@ -4544,8 +4873,12 @@
       <c r="AT59" s="2"/>
       <c r="AU59" s="2"/>
       <c r="AV59" s="2"/>
-    </row>
-    <row r="60" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW59" s="2"/>
+      <c r="AX59" s="2"/>
+      <c r="AY59" s="2"/>
+      <c r="AZ59" s="2"/>
+    </row>
+    <row r="60" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>78</v>
       </c>
@@ -4599,8 +4932,12 @@
       <c r="AT60" s="2"/>
       <c r="AU60" s="2"/>
       <c r="AV60" s="2"/>
-    </row>
-    <row r="61" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW60" s="2"/>
+      <c r="AX60" s="2"/>
+      <c r="AY60" s="2"/>
+      <c r="AZ60" s="2"/>
+    </row>
+    <row r="61" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>75</v>
       </c>
@@ -4654,8 +4991,12 @@
       <c r="AT61" s="2"/>
       <c r="AU61" s="2"/>
       <c r="AV61" s="2"/>
-    </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW61" s="2"/>
+      <c r="AX61" s="2"/>
+      <c r="AY61" s="2"/>
+      <c r="AZ61" s="2"/>
+    </row>
+    <row r="62" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -4702,33 +5043,37 @@
       <c r="AT62" s="2"/>
       <c r="AU62" s="2"/>
       <c r="AV62" s="2"/>
-    </row>
-    <row r="63" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW62" s="2"/>
+      <c r="AX62" s="2"/>
+      <c r="AY62" s="2"/>
+      <c r="AZ62" s="2"/>
+    </row>
+    <row r="63" spans="2:52" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>76</v>
       </c>
       <c r="C63" s="2">
-        <f t="shared" ref="C63:H63" si="29">+SUM(C59:C61)</f>
+        <f t="shared" ref="C63:H63" si="26">+SUM(C59:C61)</f>
         <v>0</v>
       </c>
       <c r="D63" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>46267</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="H63" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I63" s="2">
@@ -4736,7 +5081,7 @@
         <v>44033</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" ref="J63" si="30">+SUM(J59:J61)</f>
+        <f t="shared" ref="J63" si="27">+SUM(J59:J61)</f>
         <v>0</v>
       </c>
       <c r="K63" s="2"/>
@@ -4777,8 +5122,12 @@
       <c r="AT63" s="2"/>
       <c r="AU63" s="2"/>
       <c r="AV63" s="2"/>
-    </row>
-    <row r="64" spans="2:48" x14ac:dyDescent="0.25">
+      <c r="AW63" s="2"/>
+      <c r="AX63" s="2"/>
+      <c r="AY63" s="2"/>
+      <c r="AZ63" s="2"/>
+    </row>
+    <row r="64" spans="2:52" x14ac:dyDescent="0.25">
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -4825,8 +5174,12 @@
       <c r="AT64" s="2"/>
       <c r="AU64" s="2"/>
       <c r="AV64" s="2"/>
-    </row>
-    <row r="65" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW64" s="2"/>
+      <c r="AX64" s="2"/>
+      <c r="AY64" s="2"/>
+      <c r="AZ64" s="2"/>
+    </row>
+    <row r="65" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -4873,8 +5226,12 @@
       <c r="AT65" s="2"/>
       <c r="AU65" s="2"/>
       <c r="AV65" s="2"/>
-    </row>
-    <row r="66" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW65" s="2"/>
+      <c r="AX65" s="2"/>
+      <c r="AY65" s="2"/>
+      <c r="AZ65" s="2"/>
+    </row>
+    <row r="66" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -4921,8 +5278,12 @@
       <c r="AT66" s="2"/>
       <c r="AU66" s="2"/>
       <c r="AV66" s="2"/>
-    </row>
-    <row r="67" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW66" s="2"/>
+      <c r="AX66" s="2"/>
+      <c r="AY66" s="2"/>
+      <c r="AZ66" s="2"/>
+    </row>
+    <row r="67" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -4969,8 +5330,12 @@
       <c r="AT67" s="2"/>
       <c r="AU67" s="2"/>
       <c r="AV67" s="2"/>
-    </row>
-    <row r="68" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW67" s="2"/>
+      <c r="AX67" s="2"/>
+      <c r="AY67" s="2"/>
+      <c r="AZ67" s="2"/>
+    </row>
+    <row r="68" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -5017,8 +5382,12 @@
       <c r="AT68" s="2"/>
       <c r="AU68" s="2"/>
       <c r="AV68" s="2"/>
-    </row>
-    <row r="69" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW68" s="2"/>
+      <c r="AX68" s="2"/>
+      <c r="AY68" s="2"/>
+      <c r="AZ68" s="2"/>
+    </row>
+    <row r="69" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -5065,8 +5434,12 @@
       <c r="AT69" s="2"/>
       <c r="AU69" s="2"/>
       <c r="AV69" s="2"/>
-    </row>
-    <row r="70" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW69" s="2"/>
+      <c r="AX69" s="2"/>
+      <c r="AY69" s="2"/>
+      <c r="AZ69" s="2"/>
+    </row>
+    <row r="70" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -5113,8 +5486,12 @@
       <c r="AT70" s="2"/>
       <c r="AU70" s="2"/>
       <c r="AV70" s="2"/>
-    </row>
-    <row r="71" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW70" s="2"/>
+      <c r="AX70" s="2"/>
+      <c r="AY70" s="2"/>
+      <c r="AZ70" s="2"/>
+    </row>
+    <row r="71" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5161,8 +5538,12 @@
       <c r="AT71" s="2"/>
       <c r="AU71" s="2"/>
       <c r="AV71" s="2"/>
-    </row>
-    <row r="72" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW71" s="2"/>
+      <c r="AX71" s="2"/>
+      <c r="AY71" s="2"/>
+      <c r="AZ71" s="2"/>
+    </row>
+    <row r="72" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -5209,8 +5590,12 @@
       <c r="AT72" s="2"/>
       <c r="AU72" s="2"/>
       <c r="AV72" s="2"/>
-    </row>
-    <row r="73" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW72" s="2"/>
+      <c r="AX72" s="2"/>
+      <c r="AY72" s="2"/>
+      <c r="AZ72" s="2"/>
+    </row>
+    <row r="73" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -5257,8 +5642,12 @@
       <c r="AT73" s="2"/>
       <c r="AU73" s="2"/>
       <c r="AV73" s="2"/>
-    </row>
-    <row r="74" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW73" s="2"/>
+      <c r="AX73" s="2"/>
+      <c r="AY73" s="2"/>
+      <c r="AZ73" s="2"/>
+    </row>
+    <row r="74" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -5305,8 +5694,12 @@
       <c r="AT74" s="2"/>
       <c r="AU74" s="2"/>
       <c r="AV74" s="2"/>
-    </row>
-    <row r="75" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW74" s="2"/>
+      <c r="AX74" s="2"/>
+      <c r="AY74" s="2"/>
+      <c r="AZ74" s="2"/>
+    </row>
+    <row r="75" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -5353,8 +5746,12 @@
       <c r="AT75" s="2"/>
       <c r="AU75" s="2"/>
       <c r="AV75" s="2"/>
-    </row>
-    <row r="76" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW75" s="2"/>
+      <c r="AX75" s="2"/>
+      <c r="AY75" s="2"/>
+      <c r="AZ75" s="2"/>
+    </row>
+    <row r="76" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -5401,8 +5798,12 @@
       <c r="AT76" s="2"/>
       <c r="AU76" s="2"/>
       <c r="AV76" s="2"/>
-    </row>
-    <row r="77" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW76" s="2"/>
+      <c r="AX76" s="2"/>
+      <c r="AY76" s="2"/>
+      <c r="AZ76" s="2"/>
+    </row>
+    <row r="77" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -5449,8 +5850,12 @@
       <c r="AT77" s="2"/>
       <c r="AU77" s="2"/>
       <c r="AV77" s="2"/>
-    </row>
-    <row r="78" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW77" s="2"/>
+      <c r="AX77" s="2"/>
+      <c r="AY77" s="2"/>
+      <c r="AZ77" s="2"/>
+    </row>
+    <row r="78" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -5497,8 +5902,12 @@
       <c r="AT78" s="2"/>
       <c r="AU78" s="2"/>
       <c r="AV78" s="2"/>
-    </row>
-    <row r="79" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW78" s="2"/>
+      <c r="AX78" s="2"/>
+      <c r="AY78" s="2"/>
+      <c r="AZ78" s="2"/>
+    </row>
+    <row r="79" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
@@ -5545,8 +5954,12 @@
       <c r="AT79" s="2"/>
       <c r="AU79" s="2"/>
       <c r="AV79" s="2"/>
-    </row>
-    <row r="80" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW79" s="2"/>
+      <c r="AX79" s="2"/>
+      <c r="AY79" s="2"/>
+      <c r="AZ79" s="2"/>
+    </row>
+    <row r="80" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -5593,8 +6006,12 @@
       <c r="AT80" s="2"/>
       <c r="AU80" s="2"/>
       <c r="AV80" s="2"/>
-    </row>
-    <row r="81" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW80" s="2"/>
+      <c r="AX80" s="2"/>
+      <c r="AY80" s="2"/>
+      <c r="AZ80" s="2"/>
+    </row>
+    <row r="81" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -5641,8 +6058,12 @@
       <c r="AT81" s="2"/>
       <c r="AU81" s="2"/>
       <c r="AV81" s="2"/>
-    </row>
-    <row r="82" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW81" s="2"/>
+      <c r="AX81" s="2"/>
+      <c r="AY81" s="2"/>
+      <c r="AZ81" s="2"/>
+    </row>
+    <row r="82" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5689,8 +6110,12 @@
       <c r="AT82" s="2"/>
       <c r="AU82" s="2"/>
       <c r="AV82" s="2"/>
-    </row>
-    <row r="83" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW82" s="2"/>
+      <c r="AX82" s="2"/>
+      <c r="AY82" s="2"/>
+      <c r="AZ82" s="2"/>
+    </row>
+    <row r="83" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -5737,8 +6162,12 @@
       <c r="AT83" s="2"/>
       <c r="AU83" s="2"/>
       <c r="AV83" s="2"/>
-    </row>
-    <row r="84" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW83" s="2"/>
+      <c r="AX83" s="2"/>
+      <c r="AY83" s="2"/>
+      <c r="AZ83" s="2"/>
+    </row>
+    <row r="84" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -5785,8 +6214,12 @@
       <c r="AT84" s="2"/>
       <c r="AU84" s="2"/>
       <c r="AV84" s="2"/>
-    </row>
-    <row r="85" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW84" s="2"/>
+      <c r="AX84" s="2"/>
+      <c r="AY84" s="2"/>
+      <c r="AZ84" s="2"/>
+    </row>
+    <row r="85" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -5833,8 +6266,12 @@
       <c r="AT85" s="2"/>
       <c r="AU85" s="2"/>
       <c r="AV85" s="2"/>
-    </row>
-    <row r="86" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW85" s="2"/>
+      <c r="AX85" s="2"/>
+      <c r="AY85" s="2"/>
+      <c r="AZ85" s="2"/>
+    </row>
+    <row r="86" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -5881,8 +6318,12 @@
       <c r="AT86" s="2"/>
       <c r="AU86" s="2"/>
       <c r="AV86" s="2"/>
-    </row>
-    <row r="87" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW86" s="2"/>
+      <c r="AX86" s="2"/>
+      <c r="AY86" s="2"/>
+      <c r="AZ86" s="2"/>
+    </row>
+    <row r="87" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -5929,8 +6370,12 @@
       <c r="AT87" s="2"/>
       <c r="AU87" s="2"/>
       <c r="AV87" s="2"/>
-    </row>
-    <row r="88" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW87" s="2"/>
+      <c r="AX87" s="2"/>
+      <c r="AY87" s="2"/>
+      <c r="AZ87" s="2"/>
+    </row>
+    <row r="88" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -5977,8 +6422,12 @@
       <c r="AT88" s="2"/>
       <c r="AU88" s="2"/>
       <c r="AV88" s="2"/>
-    </row>
-    <row r="89" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW88" s="2"/>
+      <c r="AX88" s="2"/>
+      <c r="AY88" s="2"/>
+      <c r="AZ88" s="2"/>
+    </row>
+    <row r="89" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -6025,8 +6474,12 @@
       <c r="AT89" s="2"/>
       <c r="AU89" s="2"/>
       <c r="AV89" s="2"/>
-    </row>
-    <row r="90" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW89" s="2"/>
+      <c r="AX89" s="2"/>
+      <c r="AY89" s="2"/>
+      <c r="AZ89" s="2"/>
+    </row>
+    <row r="90" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -6073,8 +6526,12 @@
       <c r="AT90" s="2"/>
       <c r="AU90" s="2"/>
       <c r="AV90" s="2"/>
-    </row>
-    <row r="91" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW90" s="2"/>
+      <c r="AX90" s="2"/>
+      <c r="AY90" s="2"/>
+      <c r="AZ90" s="2"/>
+    </row>
+    <row r="91" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -6121,8 +6578,12 @@
       <c r="AT91" s="2"/>
       <c r="AU91" s="2"/>
       <c r="AV91" s="2"/>
-    </row>
-    <row r="92" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW91" s="2"/>
+      <c r="AX91" s="2"/>
+      <c r="AY91" s="2"/>
+      <c r="AZ91" s="2"/>
+    </row>
+    <row r="92" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -6169,8 +6630,12 @@
       <c r="AT92" s="2"/>
       <c r="AU92" s="2"/>
       <c r="AV92" s="2"/>
-    </row>
-    <row r="93" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW92" s="2"/>
+      <c r="AX92" s="2"/>
+      <c r="AY92" s="2"/>
+      <c r="AZ92" s="2"/>
+    </row>
+    <row r="93" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -6217,8 +6682,12 @@
       <c r="AT93" s="2"/>
       <c r="AU93" s="2"/>
       <c r="AV93" s="2"/>
-    </row>
-    <row r="94" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW93" s="2"/>
+      <c r="AX93" s="2"/>
+      <c r="AY93" s="2"/>
+      <c r="AZ93" s="2"/>
+    </row>
+    <row r="94" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -6265,8 +6734,12 @@
       <c r="AT94" s="2"/>
       <c r="AU94" s="2"/>
       <c r="AV94" s="2"/>
-    </row>
-    <row r="95" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW94" s="2"/>
+      <c r="AX94" s="2"/>
+      <c r="AY94" s="2"/>
+      <c r="AZ94" s="2"/>
+    </row>
+    <row r="95" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -6313,8 +6786,12 @@
       <c r="AT95" s="2"/>
       <c r="AU95" s="2"/>
       <c r="AV95" s="2"/>
-    </row>
-    <row r="96" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW95" s="2"/>
+      <c r="AX95" s="2"/>
+      <c r="AY95" s="2"/>
+      <c r="AZ95" s="2"/>
+    </row>
+    <row r="96" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -6361,8 +6838,12 @@
       <c r="AT96" s="2"/>
       <c r="AU96" s="2"/>
       <c r="AV96" s="2"/>
-    </row>
-    <row r="97" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW96" s="2"/>
+      <c r="AX96" s="2"/>
+      <c r="AY96" s="2"/>
+      <c r="AZ96" s="2"/>
+    </row>
+    <row r="97" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -6409,8 +6890,12 @@
       <c r="AT97" s="2"/>
       <c r="AU97" s="2"/>
       <c r="AV97" s="2"/>
-    </row>
-    <row r="98" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW97" s="2"/>
+      <c r="AX97" s="2"/>
+      <c r="AY97" s="2"/>
+      <c r="AZ97" s="2"/>
+    </row>
+    <row r="98" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -6457,8 +6942,12 @@
       <c r="AT98" s="2"/>
       <c r="AU98" s="2"/>
       <c r="AV98" s="2"/>
-    </row>
-    <row r="99" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW98" s="2"/>
+      <c r="AX98" s="2"/>
+      <c r="AY98" s="2"/>
+      <c r="AZ98" s="2"/>
+    </row>
+    <row r="99" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -6505,8 +6994,12 @@
       <c r="AT99" s="2"/>
       <c r="AU99" s="2"/>
       <c r="AV99" s="2"/>
-    </row>
-    <row r="100" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW99" s="2"/>
+      <c r="AX99" s="2"/>
+      <c r="AY99" s="2"/>
+      <c r="AZ99" s="2"/>
+    </row>
+    <row r="100" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -6553,8 +7046,12 @@
       <c r="AT100" s="2"/>
       <c r="AU100" s="2"/>
       <c r="AV100" s="2"/>
-    </row>
-    <row r="101" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW100" s="2"/>
+      <c r="AX100" s="2"/>
+      <c r="AY100" s="2"/>
+      <c r="AZ100" s="2"/>
+    </row>
+    <row r="101" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -6601,8 +7098,12 @@
       <c r="AT101" s="2"/>
       <c r="AU101" s="2"/>
       <c r="AV101" s="2"/>
-    </row>
-    <row r="102" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW101" s="2"/>
+      <c r="AX101" s="2"/>
+      <c r="AY101" s="2"/>
+      <c r="AZ101" s="2"/>
+    </row>
+    <row r="102" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -6649,8 +7150,12 @@
       <c r="AT102" s="2"/>
       <c r="AU102" s="2"/>
       <c r="AV102" s="2"/>
-    </row>
-    <row r="103" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW102" s="2"/>
+      <c r="AX102" s="2"/>
+      <c r="AY102" s="2"/>
+      <c r="AZ102" s="2"/>
+    </row>
+    <row r="103" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -6697,8 +7202,12 @@
       <c r="AT103" s="2"/>
       <c r="AU103" s="2"/>
       <c r="AV103" s="2"/>
-    </row>
-    <row r="104" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW103" s="2"/>
+      <c r="AX103" s="2"/>
+      <c r="AY103" s="2"/>
+      <c r="AZ103" s="2"/>
+    </row>
+    <row r="104" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -6745,8 +7254,12 @@
       <c r="AT104" s="2"/>
       <c r="AU104" s="2"/>
       <c r="AV104" s="2"/>
-    </row>
-    <row r="105" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW104" s="2"/>
+      <c r="AX104" s="2"/>
+      <c r="AY104" s="2"/>
+      <c r="AZ104" s="2"/>
+    </row>
+    <row r="105" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -6793,8 +7306,12 @@
       <c r="AT105" s="2"/>
       <c r="AU105" s="2"/>
       <c r="AV105" s="2"/>
-    </row>
-    <row r="106" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW105" s="2"/>
+      <c r="AX105" s="2"/>
+      <c r="AY105" s="2"/>
+      <c r="AZ105" s="2"/>
+    </row>
+    <row r="106" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -6841,8 +7358,12 @@
       <c r="AT106" s="2"/>
       <c r="AU106" s="2"/>
       <c r="AV106" s="2"/>
-    </row>
-    <row r="107" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW106" s="2"/>
+      <c r="AX106" s="2"/>
+      <c r="AY106" s="2"/>
+      <c r="AZ106" s="2"/>
+    </row>
+    <row r="107" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -6889,8 +7410,12 @@
       <c r="AT107" s="2"/>
       <c r="AU107" s="2"/>
       <c r="AV107" s="2"/>
-    </row>
-    <row r="108" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW107" s="2"/>
+      <c r="AX107" s="2"/>
+      <c r="AY107" s="2"/>
+      <c r="AZ107" s="2"/>
+    </row>
+    <row r="108" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -6937,8 +7462,12 @@
       <c r="AT108" s="2"/>
       <c r="AU108" s="2"/>
       <c r="AV108" s="2"/>
-    </row>
-    <row r="109" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW108" s="2"/>
+      <c r="AX108" s="2"/>
+      <c r="AY108" s="2"/>
+      <c r="AZ108" s="2"/>
+    </row>
+    <row r="109" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -6985,8 +7514,12 @@
       <c r="AT109" s="2"/>
       <c r="AU109" s="2"/>
       <c r="AV109" s="2"/>
-    </row>
-    <row r="110" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW109" s="2"/>
+      <c r="AX109" s="2"/>
+      <c r="AY109" s="2"/>
+      <c r="AZ109" s="2"/>
+    </row>
+    <row r="110" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -7033,8 +7566,12 @@
       <c r="AT110" s="2"/>
       <c r="AU110" s="2"/>
       <c r="AV110" s="2"/>
-    </row>
-    <row r="111" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW110" s="2"/>
+      <c r="AX110" s="2"/>
+      <c r="AY110" s="2"/>
+      <c r="AZ110" s="2"/>
+    </row>
+    <row r="111" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -7081,8 +7618,12 @@
       <c r="AT111" s="2"/>
       <c r="AU111" s="2"/>
       <c r="AV111" s="2"/>
-    </row>
-    <row r="112" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW111" s="2"/>
+      <c r="AX111" s="2"/>
+      <c r="AY111" s="2"/>
+      <c r="AZ111" s="2"/>
+    </row>
+    <row r="112" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -7129,8 +7670,12 @@
       <c r="AT112" s="2"/>
       <c r="AU112" s="2"/>
       <c r="AV112" s="2"/>
-    </row>
-    <row r="113" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW112" s="2"/>
+      <c r="AX112" s="2"/>
+      <c r="AY112" s="2"/>
+      <c r="AZ112" s="2"/>
+    </row>
+    <row r="113" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -7177,8 +7722,12 @@
       <c r="AT113" s="2"/>
       <c r="AU113" s="2"/>
       <c r="AV113" s="2"/>
-    </row>
-    <row r="114" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW113" s="2"/>
+      <c r="AX113" s="2"/>
+      <c r="AY113" s="2"/>
+      <c r="AZ113" s="2"/>
+    </row>
+    <row r="114" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -7225,8 +7774,12 @@
       <c r="AT114" s="2"/>
       <c r="AU114" s="2"/>
       <c r="AV114" s="2"/>
-    </row>
-    <row r="115" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW114" s="2"/>
+      <c r="AX114" s="2"/>
+      <c r="AY114" s="2"/>
+      <c r="AZ114" s="2"/>
+    </row>
+    <row r="115" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -7273,8 +7826,12 @@
       <c r="AT115" s="2"/>
       <c r="AU115" s="2"/>
       <c r="AV115" s="2"/>
-    </row>
-    <row r="116" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW115" s="2"/>
+      <c r="AX115" s="2"/>
+      <c r="AY115" s="2"/>
+      <c r="AZ115" s="2"/>
+    </row>
+    <row r="116" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -7321,8 +7878,12 @@
       <c r="AT116" s="2"/>
       <c r="AU116" s="2"/>
       <c r="AV116" s="2"/>
-    </row>
-    <row r="117" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW116" s="2"/>
+      <c r="AX116" s="2"/>
+      <c r="AY116" s="2"/>
+      <c r="AZ116" s="2"/>
+    </row>
+    <row r="117" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -7369,8 +7930,12 @@
       <c r="AT117" s="2"/>
       <c r="AU117" s="2"/>
       <c r="AV117" s="2"/>
-    </row>
-    <row r="118" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW117" s="2"/>
+      <c r="AX117" s="2"/>
+      <c r="AY117" s="2"/>
+      <c r="AZ117" s="2"/>
+    </row>
+    <row r="118" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -7417,8 +7982,12 @@
       <c r="AT118" s="2"/>
       <c r="AU118" s="2"/>
       <c r="AV118" s="2"/>
-    </row>
-    <row r="119" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW118" s="2"/>
+      <c r="AX118" s="2"/>
+      <c r="AY118" s="2"/>
+      <c r="AZ118" s="2"/>
+    </row>
+    <row r="119" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -7465,8 +8034,12 @@
       <c r="AT119" s="2"/>
       <c r="AU119" s="2"/>
       <c r="AV119" s="2"/>
-    </row>
-    <row r="120" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW119" s="2"/>
+      <c r="AX119" s="2"/>
+      <c r="AY119" s="2"/>
+      <c r="AZ119" s="2"/>
+    </row>
+    <row r="120" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -7513,8 +8086,12 @@
       <c r="AT120" s="2"/>
       <c r="AU120" s="2"/>
       <c r="AV120" s="2"/>
-    </row>
-    <row r="121" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW120" s="2"/>
+      <c r="AX120" s="2"/>
+      <c r="AY120" s="2"/>
+      <c r="AZ120" s="2"/>
+    </row>
+    <row r="121" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -7561,8 +8138,12 @@
       <c r="AT121" s="2"/>
       <c r="AU121" s="2"/>
       <c r="AV121" s="2"/>
-    </row>
-    <row r="122" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW121" s="2"/>
+      <c r="AX121" s="2"/>
+      <c r="AY121" s="2"/>
+      <c r="AZ121" s="2"/>
+    </row>
+    <row r="122" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -7609,8 +8190,12 @@
       <c r="AT122" s="2"/>
       <c r="AU122" s="2"/>
       <c r="AV122" s="2"/>
-    </row>
-    <row r="123" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW122" s="2"/>
+      <c r="AX122" s="2"/>
+      <c r="AY122" s="2"/>
+      <c r="AZ122" s="2"/>
+    </row>
+    <row r="123" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -7657,8 +8242,12 @@
       <c r="AT123" s="2"/>
       <c r="AU123" s="2"/>
       <c r="AV123" s="2"/>
-    </row>
-    <row r="124" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW123" s="2"/>
+      <c r="AX123" s="2"/>
+      <c r="AY123" s="2"/>
+      <c r="AZ123" s="2"/>
+    </row>
+    <row r="124" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -7705,8 +8294,12 @@
       <c r="AT124" s="2"/>
       <c r="AU124" s="2"/>
       <c r="AV124" s="2"/>
-    </row>
-    <row r="125" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW124" s="2"/>
+      <c r="AX124" s="2"/>
+      <c r="AY124" s="2"/>
+      <c r="AZ124" s="2"/>
+    </row>
+    <row r="125" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -7753,8 +8346,12 @@
       <c r="AT125" s="2"/>
       <c r="AU125" s="2"/>
       <c r="AV125" s="2"/>
-    </row>
-    <row r="126" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW125" s="2"/>
+      <c r="AX125" s="2"/>
+      <c r="AY125" s="2"/>
+      <c r="AZ125" s="2"/>
+    </row>
+    <row r="126" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -7801,8 +8398,12 @@
       <c r="AT126" s="2"/>
       <c r="AU126" s="2"/>
       <c r="AV126" s="2"/>
-    </row>
-    <row r="127" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW126" s="2"/>
+      <c r="AX126" s="2"/>
+      <c r="AY126" s="2"/>
+      <c r="AZ126" s="2"/>
+    </row>
+    <row r="127" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -7849,8 +8450,12 @@
       <c r="AT127" s="2"/>
       <c r="AU127" s="2"/>
       <c r="AV127" s="2"/>
-    </row>
-    <row r="128" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW127" s="2"/>
+      <c r="AX127" s="2"/>
+      <c r="AY127" s="2"/>
+      <c r="AZ127" s="2"/>
+    </row>
+    <row r="128" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -7897,8 +8502,12 @@
       <c r="AT128" s="2"/>
       <c r="AU128" s="2"/>
       <c r="AV128" s="2"/>
-    </row>
-    <row r="129" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW128" s="2"/>
+      <c r="AX128" s="2"/>
+      <c r="AY128" s="2"/>
+      <c r="AZ128" s="2"/>
+    </row>
+    <row r="129" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
@@ -7945,8 +8554,12 @@
       <c r="AT129" s="2"/>
       <c r="AU129" s="2"/>
       <c r="AV129" s="2"/>
-    </row>
-    <row r="130" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW129" s="2"/>
+      <c r="AX129" s="2"/>
+      <c r="AY129" s="2"/>
+      <c r="AZ129" s="2"/>
+    </row>
+    <row r="130" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -7993,8 +8606,12 @@
       <c r="AT130" s="2"/>
       <c r="AU130" s="2"/>
       <c r="AV130" s="2"/>
-    </row>
-    <row r="131" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW130" s="2"/>
+      <c r="AX130" s="2"/>
+      <c r="AY130" s="2"/>
+      <c r="AZ130" s="2"/>
+    </row>
+    <row r="131" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -8041,8 +8658,12 @@
       <c r="AT131" s="2"/>
       <c r="AU131" s="2"/>
       <c r="AV131" s="2"/>
-    </row>
-    <row r="132" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW131" s="2"/>
+      <c r="AX131" s="2"/>
+      <c r="AY131" s="2"/>
+      <c r="AZ131" s="2"/>
+    </row>
+    <row r="132" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -8089,8 +8710,12 @@
       <c r="AT132" s="2"/>
       <c r="AU132" s="2"/>
       <c r="AV132" s="2"/>
-    </row>
-    <row r="133" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW132" s="2"/>
+      <c r="AX132" s="2"/>
+      <c r="AY132" s="2"/>
+      <c r="AZ132" s="2"/>
+    </row>
+    <row r="133" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -8137,8 +8762,12 @@
       <c r="AT133" s="2"/>
       <c r="AU133" s="2"/>
       <c r="AV133" s="2"/>
-    </row>
-    <row r="134" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW133" s="2"/>
+      <c r="AX133" s="2"/>
+      <c r="AY133" s="2"/>
+      <c r="AZ133" s="2"/>
+    </row>
+    <row r="134" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -8185,8 +8814,12 @@
       <c r="AT134" s="2"/>
       <c r="AU134" s="2"/>
       <c r="AV134" s="2"/>
-    </row>
-    <row r="135" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW134" s="2"/>
+      <c r="AX134" s="2"/>
+      <c r="AY134" s="2"/>
+      <c r="AZ134" s="2"/>
+    </row>
+    <row r="135" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -8233,8 +8866,12 @@
       <c r="AT135" s="2"/>
       <c r="AU135" s="2"/>
       <c r="AV135" s="2"/>
-    </row>
-    <row r="136" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW135" s="2"/>
+      <c r="AX135" s="2"/>
+      <c r="AY135" s="2"/>
+      <c r="AZ135" s="2"/>
+    </row>
+    <row r="136" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -8281,8 +8918,12 @@
       <c r="AT136" s="2"/>
       <c r="AU136" s="2"/>
       <c r="AV136" s="2"/>
-    </row>
-    <row r="137" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW136" s="2"/>
+      <c r="AX136" s="2"/>
+      <c r="AY136" s="2"/>
+      <c r="AZ136" s="2"/>
+    </row>
+    <row r="137" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -8329,8 +8970,12 @@
       <c r="AT137" s="2"/>
       <c r="AU137" s="2"/>
       <c r="AV137" s="2"/>
-    </row>
-    <row r="138" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW137" s="2"/>
+      <c r="AX137" s="2"/>
+      <c r="AY137" s="2"/>
+      <c r="AZ137" s="2"/>
+    </row>
+    <row r="138" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -8377,8 +9022,12 @@
       <c r="AT138" s="2"/>
       <c r="AU138" s="2"/>
       <c r="AV138" s="2"/>
-    </row>
-    <row r="139" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW138" s="2"/>
+      <c r="AX138" s="2"/>
+      <c r="AY138" s="2"/>
+      <c r="AZ138" s="2"/>
+    </row>
+    <row r="139" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -8425,8 +9074,12 @@
       <c r="AT139" s="2"/>
       <c r="AU139" s="2"/>
       <c r="AV139" s="2"/>
-    </row>
-    <row r="140" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW139" s="2"/>
+      <c r="AX139" s="2"/>
+      <c r="AY139" s="2"/>
+      <c r="AZ139" s="2"/>
+    </row>
+    <row r="140" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -8473,8 +9126,12 @@
       <c r="AT140" s="2"/>
       <c r="AU140" s="2"/>
       <c r="AV140" s="2"/>
-    </row>
-    <row r="141" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW140" s="2"/>
+      <c r="AX140" s="2"/>
+      <c r="AY140" s="2"/>
+      <c r="AZ140" s="2"/>
+    </row>
+    <row r="141" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -8521,8 +9178,12 @@
       <c r="AT141" s="2"/>
       <c r="AU141" s="2"/>
       <c r="AV141" s="2"/>
-    </row>
-    <row r="142" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW141" s="2"/>
+      <c r="AX141" s="2"/>
+      <c r="AY141" s="2"/>
+      <c r="AZ141" s="2"/>
+    </row>
+    <row r="142" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
@@ -8569,8 +9230,12 @@
       <c r="AT142" s="2"/>
       <c r="AU142" s="2"/>
       <c r="AV142" s="2"/>
-    </row>
-    <row r="143" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW142" s="2"/>
+      <c r="AX142" s="2"/>
+      <c r="AY142" s="2"/>
+      <c r="AZ142" s="2"/>
+    </row>
+    <row r="143" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
@@ -8617,8 +9282,12 @@
       <c r="AT143" s="2"/>
       <c r="AU143" s="2"/>
       <c r="AV143" s="2"/>
-    </row>
-    <row r="144" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW143" s="2"/>
+      <c r="AX143" s="2"/>
+      <c r="AY143" s="2"/>
+      <c r="AZ143" s="2"/>
+    </row>
+    <row r="144" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -8665,8 +9334,12 @@
       <c r="AT144" s="2"/>
       <c r="AU144" s="2"/>
       <c r="AV144" s="2"/>
-    </row>
-    <row r="145" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW144" s="2"/>
+      <c r="AX144" s="2"/>
+      <c r="AY144" s="2"/>
+      <c r="AZ144" s="2"/>
+    </row>
+    <row r="145" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -8713,8 +9386,12 @@
       <c r="AT145" s="2"/>
       <c r="AU145" s="2"/>
       <c r="AV145" s="2"/>
-    </row>
-    <row r="146" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW145" s="2"/>
+      <c r="AX145" s="2"/>
+      <c r="AY145" s="2"/>
+      <c r="AZ145" s="2"/>
+    </row>
+    <row r="146" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
@@ -8761,8 +9438,12 @@
       <c r="AT146" s="2"/>
       <c r="AU146" s="2"/>
       <c r="AV146" s="2"/>
-    </row>
-    <row r="147" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW146" s="2"/>
+      <c r="AX146" s="2"/>
+      <c r="AY146" s="2"/>
+      <c r="AZ146" s="2"/>
+    </row>
+    <row r="147" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
@@ -8809,8 +9490,12 @@
       <c r="AT147" s="2"/>
       <c r="AU147" s="2"/>
       <c r="AV147" s="2"/>
-    </row>
-    <row r="148" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW147" s="2"/>
+      <c r="AX147" s="2"/>
+      <c r="AY147" s="2"/>
+      <c r="AZ147" s="2"/>
+    </row>
+    <row r="148" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
@@ -8857,8 +9542,12 @@
       <c r="AT148" s="2"/>
       <c r="AU148" s="2"/>
       <c r="AV148" s="2"/>
-    </row>
-    <row r="149" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW148" s="2"/>
+      <c r="AX148" s="2"/>
+      <c r="AY148" s="2"/>
+      <c r="AZ148" s="2"/>
+    </row>
+    <row r="149" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -8905,8 +9594,12 @@
       <c r="AT149" s="2"/>
       <c r="AU149" s="2"/>
       <c r="AV149" s="2"/>
-    </row>
-    <row r="150" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW149" s="2"/>
+      <c r="AX149" s="2"/>
+      <c r="AY149" s="2"/>
+      <c r="AZ149" s="2"/>
+    </row>
+    <row r="150" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -8953,8 +9646,12 @@
       <c r="AT150" s="2"/>
       <c r="AU150" s="2"/>
       <c r="AV150" s="2"/>
-    </row>
-    <row r="151" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW150" s="2"/>
+      <c r="AX150" s="2"/>
+      <c r="AY150" s="2"/>
+      <c r="AZ150" s="2"/>
+    </row>
+    <row r="151" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -9001,8 +9698,12 @@
       <c r="AT151" s="2"/>
       <c r="AU151" s="2"/>
       <c r="AV151" s="2"/>
-    </row>
-    <row r="152" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW151" s="2"/>
+      <c r="AX151" s="2"/>
+      <c r="AY151" s="2"/>
+      <c r="AZ151" s="2"/>
+    </row>
+    <row r="152" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -9049,8 +9750,12 @@
       <c r="AT152" s="2"/>
       <c r="AU152" s="2"/>
       <c r="AV152" s="2"/>
-    </row>
-    <row r="153" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW152" s="2"/>
+      <c r="AX152" s="2"/>
+      <c r="AY152" s="2"/>
+      <c r="AZ152" s="2"/>
+    </row>
+    <row r="153" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
@@ -9097,8 +9802,12 @@
       <c r="AT153" s="2"/>
       <c r="AU153" s="2"/>
       <c r="AV153" s="2"/>
-    </row>
-    <row r="154" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW153" s="2"/>
+      <c r="AX153" s="2"/>
+      <c r="AY153" s="2"/>
+      <c r="AZ153" s="2"/>
+    </row>
+    <row r="154" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -9145,8 +9854,12 @@
       <c r="AT154" s="2"/>
       <c r="AU154" s="2"/>
       <c r="AV154" s="2"/>
-    </row>
-    <row r="155" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW154" s="2"/>
+      <c r="AX154" s="2"/>
+      <c r="AY154" s="2"/>
+      <c r="AZ154" s="2"/>
+    </row>
+    <row r="155" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -9193,8 +9906,12 @@
       <c r="AT155" s="2"/>
       <c r="AU155" s="2"/>
       <c r="AV155" s="2"/>
-    </row>
-    <row r="156" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW155" s="2"/>
+      <c r="AX155" s="2"/>
+      <c r="AY155" s="2"/>
+      <c r="AZ155" s="2"/>
+    </row>
+    <row r="156" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
@@ -9241,8 +9958,12 @@
       <c r="AT156" s="2"/>
       <c r="AU156" s="2"/>
       <c r="AV156" s="2"/>
-    </row>
-    <row r="157" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW156" s="2"/>
+      <c r="AX156" s="2"/>
+      <c r="AY156" s="2"/>
+      <c r="AZ156" s="2"/>
+    </row>
+    <row r="157" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -9289,8 +10010,12 @@
       <c r="AT157" s="2"/>
       <c r="AU157" s="2"/>
       <c r="AV157" s="2"/>
-    </row>
-    <row r="158" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW157" s="2"/>
+      <c r="AX157" s="2"/>
+      <c r="AY157" s="2"/>
+      <c r="AZ157" s="2"/>
+    </row>
+    <row r="158" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
@@ -9337,8 +10062,12 @@
       <c r="AT158" s="2"/>
       <c r="AU158" s="2"/>
       <c r="AV158" s="2"/>
-    </row>
-    <row r="159" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW158" s="2"/>
+      <c r="AX158" s="2"/>
+      <c r="AY158" s="2"/>
+      <c r="AZ158" s="2"/>
+    </row>
+    <row r="159" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -9385,8 +10114,12 @@
       <c r="AT159" s="2"/>
       <c r="AU159" s="2"/>
       <c r="AV159" s="2"/>
-    </row>
-    <row r="160" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW159" s="2"/>
+      <c r="AX159" s="2"/>
+      <c r="AY159" s="2"/>
+      <c r="AZ159" s="2"/>
+    </row>
+    <row r="160" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -9433,8 +10166,12 @@
       <c r="AT160" s="2"/>
       <c r="AU160" s="2"/>
       <c r="AV160" s="2"/>
-    </row>
-    <row r="161" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW160" s="2"/>
+      <c r="AX160" s="2"/>
+      <c r="AY160" s="2"/>
+      <c r="AZ160" s="2"/>
+    </row>
+    <row r="161" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -9481,8 +10218,12 @@
       <c r="AT161" s="2"/>
       <c r="AU161" s="2"/>
       <c r="AV161" s="2"/>
-    </row>
-    <row r="162" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW161" s="2"/>
+      <c r="AX161" s="2"/>
+      <c r="AY161" s="2"/>
+      <c r="AZ161" s="2"/>
+    </row>
+    <row r="162" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
@@ -9529,8 +10270,12 @@
       <c r="AT162" s="2"/>
       <c r="AU162" s="2"/>
       <c r="AV162" s="2"/>
-    </row>
-    <row r="163" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW162" s="2"/>
+      <c r="AX162" s="2"/>
+      <c r="AY162" s="2"/>
+      <c r="AZ162" s="2"/>
+    </row>
+    <row r="163" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -9577,8 +10322,12 @@
       <c r="AT163" s="2"/>
       <c r="AU163" s="2"/>
       <c r="AV163" s="2"/>
-    </row>
-    <row r="164" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW163" s="2"/>
+      <c r="AX163" s="2"/>
+      <c r="AY163" s="2"/>
+      <c r="AZ163" s="2"/>
+    </row>
+    <row r="164" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -9625,8 +10374,12 @@
       <c r="AT164" s="2"/>
       <c r="AU164" s="2"/>
       <c r="AV164" s="2"/>
-    </row>
-    <row r="165" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW164" s="2"/>
+      <c r="AX164" s="2"/>
+      <c r="AY164" s="2"/>
+      <c r="AZ164" s="2"/>
+    </row>
+    <row r="165" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -9673,8 +10426,12 @@
       <c r="AT165" s="2"/>
       <c r="AU165" s="2"/>
       <c r="AV165" s="2"/>
-    </row>
-    <row r="166" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW165" s="2"/>
+      <c r="AX165" s="2"/>
+      <c r="AY165" s="2"/>
+      <c r="AZ165" s="2"/>
+    </row>
+    <row r="166" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -9721,8 +10478,12 @@
       <c r="AT166" s="2"/>
       <c r="AU166" s="2"/>
       <c r="AV166" s="2"/>
-    </row>
-    <row r="167" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW166" s="2"/>
+      <c r="AX166" s="2"/>
+      <c r="AY166" s="2"/>
+      <c r="AZ166" s="2"/>
+    </row>
+    <row r="167" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -9769,8 +10530,12 @@
       <c r="AT167" s="2"/>
       <c r="AU167" s="2"/>
       <c r="AV167" s="2"/>
-    </row>
-    <row r="168" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW167" s="2"/>
+      <c r="AX167" s="2"/>
+      <c r="AY167" s="2"/>
+      <c r="AZ167" s="2"/>
+    </row>
+    <row r="168" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -9817,8 +10582,12 @@
       <c r="AT168" s="2"/>
       <c r="AU168" s="2"/>
       <c r="AV168" s="2"/>
-    </row>
-    <row r="169" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW168" s="2"/>
+      <c r="AX168" s="2"/>
+      <c r="AY168" s="2"/>
+      <c r="AZ168" s="2"/>
+    </row>
+    <row r="169" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -9865,8 +10634,12 @@
       <c r="AT169" s="2"/>
       <c r="AU169" s="2"/>
       <c r="AV169" s="2"/>
-    </row>
-    <row r="170" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW169" s="2"/>
+      <c r="AX169" s="2"/>
+      <c r="AY169" s="2"/>
+      <c r="AZ169" s="2"/>
+    </row>
+    <row r="170" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -9913,8 +10686,12 @@
       <c r="AT170" s="2"/>
       <c r="AU170" s="2"/>
       <c r="AV170" s="2"/>
-    </row>
-    <row r="171" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW170" s="2"/>
+      <c r="AX170" s="2"/>
+      <c r="AY170" s="2"/>
+      <c r="AZ170" s="2"/>
+    </row>
+    <row r="171" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -9961,8 +10738,12 @@
       <c r="AT171" s="2"/>
       <c r="AU171" s="2"/>
       <c r="AV171" s="2"/>
-    </row>
-    <row r="172" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW171" s="2"/>
+      <c r="AX171" s="2"/>
+      <c r="AY171" s="2"/>
+      <c r="AZ171" s="2"/>
+    </row>
+    <row r="172" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -10009,8 +10790,12 @@
       <c r="AT172" s="2"/>
       <c r="AU172" s="2"/>
       <c r="AV172" s="2"/>
-    </row>
-    <row r="173" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW172" s="2"/>
+      <c r="AX172" s="2"/>
+      <c r="AY172" s="2"/>
+      <c r="AZ172" s="2"/>
+    </row>
+    <row r="173" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -10057,8 +10842,12 @@
       <c r="AT173" s="2"/>
       <c r="AU173" s="2"/>
       <c r="AV173" s="2"/>
-    </row>
-    <row r="174" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW173" s="2"/>
+      <c r="AX173" s="2"/>
+      <c r="AY173" s="2"/>
+      <c r="AZ173" s="2"/>
+    </row>
+    <row r="174" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -10105,8 +10894,12 @@
       <c r="AT174" s="2"/>
       <c r="AU174" s="2"/>
       <c r="AV174" s="2"/>
-    </row>
-    <row r="175" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW174" s="2"/>
+      <c r="AX174" s="2"/>
+      <c r="AY174" s="2"/>
+      <c r="AZ174" s="2"/>
+    </row>
+    <row r="175" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -10153,8 +10946,12 @@
       <c r="AT175" s="2"/>
       <c r="AU175" s="2"/>
       <c r="AV175" s="2"/>
-    </row>
-    <row r="176" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW175" s="2"/>
+      <c r="AX175" s="2"/>
+      <c r="AY175" s="2"/>
+      <c r="AZ175" s="2"/>
+    </row>
+    <row r="176" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -10201,8 +10998,12 @@
       <c r="AT176" s="2"/>
       <c r="AU176" s="2"/>
       <c r="AV176" s="2"/>
-    </row>
-    <row r="177" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW176" s="2"/>
+      <c r="AX176" s="2"/>
+      <c r="AY176" s="2"/>
+      <c r="AZ176" s="2"/>
+    </row>
+    <row r="177" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -10249,8 +11050,12 @@
       <c r="AT177" s="2"/>
       <c r="AU177" s="2"/>
       <c r="AV177" s="2"/>
-    </row>
-    <row r="178" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW177" s="2"/>
+      <c r="AX177" s="2"/>
+      <c r="AY177" s="2"/>
+      <c r="AZ177" s="2"/>
+    </row>
+    <row r="178" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -10297,8 +11102,12 @@
       <c r="AT178" s="2"/>
       <c r="AU178" s="2"/>
       <c r="AV178" s="2"/>
-    </row>
-    <row r="179" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW178" s="2"/>
+      <c r="AX178" s="2"/>
+      <c r="AY178" s="2"/>
+      <c r="AZ178" s="2"/>
+    </row>
+    <row r="179" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -10345,8 +11154,12 @@
       <c r="AT179" s="2"/>
       <c r="AU179" s="2"/>
       <c r="AV179" s="2"/>
-    </row>
-    <row r="180" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW179" s="2"/>
+      <c r="AX179" s="2"/>
+      <c r="AY179" s="2"/>
+      <c r="AZ179" s="2"/>
+    </row>
+    <row r="180" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -10393,8 +11206,12 @@
       <c r="AT180" s="2"/>
       <c r="AU180" s="2"/>
       <c r="AV180" s="2"/>
-    </row>
-    <row r="181" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW180" s="2"/>
+      <c r="AX180" s="2"/>
+      <c r="AY180" s="2"/>
+      <c r="AZ180" s="2"/>
+    </row>
+    <row r="181" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -10441,8 +11258,12 @@
       <c r="AT181" s="2"/>
       <c r="AU181" s="2"/>
       <c r="AV181" s="2"/>
-    </row>
-    <row r="182" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW181" s="2"/>
+      <c r="AX181" s="2"/>
+      <c r="AY181" s="2"/>
+      <c r="AZ181" s="2"/>
+    </row>
+    <row r="182" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -10489,8 +11310,12 @@
       <c r="AT182" s="2"/>
       <c r="AU182" s="2"/>
       <c r="AV182" s="2"/>
-    </row>
-    <row r="183" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW182" s="2"/>
+      <c r="AX182" s="2"/>
+      <c r="AY182" s="2"/>
+      <c r="AZ182" s="2"/>
+    </row>
+    <row r="183" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -10537,8 +11362,12 @@
       <c r="AT183" s="2"/>
       <c r="AU183" s="2"/>
       <c r="AV183" s="2"/>
-    </row>
-    <row r="184" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW183" s="2"/>
+      <c r="AX183" s="2"/>
+      <c r="AY183" s="2"/>
+      <c r="AZ183" s="2"/>
+    </row>
+    <row r="184" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -10585,8 +11414,12 @@
       <c r="AT184" s="2"/>
       <c r="AU184" s="2"/>
       <c r="AV184" s="2"/>
-    </row>
-    <row r="185" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW184" s="2"/>
+      <c r="AX184" s="2"/>
+      <c r="AY184" s="2"/>
+      <c r="AZ184" s="2"/>
+    </row>
+    <row r="185" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -10633,8 +11466,12 @@
       <c r="AT185" s="2"/>
       <c r="AU185" s="2"/>
       <c r="AV185" s="2"/>
-    </row>
-    <row r="186" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW185" s="2"/>
+      <c r="AX185" s="2"/>
+      <c r="AY185" s="2"/>
+      <c r="AZ185" s="2"/>
+    </row>
+    <row r="186" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -10681,8 +11518,12 @@
       <c r="AT186" s="2"/>
       <c r="AU186" s="2"/>
       <c r="AV186" s="2"/>
-    </row>
-    <row r="187" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW186" s="2"/>
+      <c r="AX186" s="2"/>
+      <c r="AY186" s="2"/>
+      <c r="AZ186" s="2"/>
+    </row>
+    <row r="187" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -10729,8 +11570,12 @@
       <c r="AT187" s="2"/>
       <c r="AU187" s="2"/>
       <c r="AV187" s="2"/>
-    </row>
-    <row r="188" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW187" s="2"/>
+      <c r="AX187" s="2"/>
+      <c r="AY187" s="2"/>
+      <c r="AZ187" s="2"/>
+    </row>
+    <row r="188" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -10777,8 +11622,12 @@
       <c r="AT188" s="2"/>
       <c r="AU188" s="2"/>
       <c r="AV188" s="2"/>
-    </row>
-    <row r="189" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW188" s="2"/>
+      <c r="AX188" s="2"/>
+      <c r="AY188" s="2"/>
+      <c r="AZ188" s="2"/>
+    </row>
+    <row r="189" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -10825,8 +11674,12 @@
       <c r="AT189" s="2"/>
       <c r="AU189" s="2"/>
       <c r="AV189" s="2"/>
-    </row>
-    <row r="190" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW189" s="2"/>
+      <c r="AX189" s="2"/>
+      <c r="AY189" s="2"/>
+      <c r="AZ189" s="2"/>
+    </row>
+    <row r="190" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -10873,8 +11726,12 @@
       <c r="AT190" s="2"/>
       <c r="AU190" s="2"/>
       <c r="AV190" s="2"/>
-    </row>
-    <row r="191" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW190" s="2"/>
+      <c r="AX190" s="2"/>
+      <c r="AY190" s="2"/>
+      <c r="AZ190" s="2"/>
+    </row>
+    <row r="191" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -10921,8 +11778,12 @@
       <c r="AT191" s="2"/>
       <c r="AU191" s="2"/>
       <c r="AV191" s="2"/>
-    </row>
-    <row r="192" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW191" s="2"/>
+      <c r="AX191" s="2"/>
+      <c r="AY191" s="2"/>
+      <c r="AZ191" s="2"/>
+    </row>
+    <row r="192" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -10969,8 +11830,12 @@
       <c r="AT192" s="2"/>
       <c r="AU192" s="2"/>
       <c r="AV192" s="2"/>
-    </row>
-    <row r="193" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW192" s="2"/>
+      <c r="AX192" s="2"/>
+      <c r="AY192" s="2"/>
+      <c r="AZ192" s="2"/>
+    </row>
+    <row r="193" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
@@ -11017,8 +11882,12 @@
       <c r="AT193" s="2"/>
       <c r="AU193" s="2"/>
       <c r="AV193" s="2"/>
-    </row>
-    <row r="194" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW193" s="2"/>
+      <c r="AX193" s="2"/>
+      <c r="AY193" s="2"/>
+      <c r="AZ193" s="2"/>
+    </row>
+    <row r="194" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
@@ -11065,8 +11934,12 @@
       <c r="AT194" s="2"/>
       <c r="AU194" s="2"/>
       <c r="AV194" s="2"/>
-    </row>
-    <row r="195" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW194" s="2"/>
+      <c r="AX194" s="2"/>
+      <c r="AY194" s="2"/>
+      <c r="AZ194" s="2"/>
+    </row>
+    <row r="195" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
@@ -11113,8 +11986,12 @@
       <c r="AT195" s="2"/>
       <c r="AU195" s="2"/>
       <c r="AV195" s="2"/>
-    </row>
-    <row r="196" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW195" s="2"/>
+      <c r="AX195" s="2"/>
+      <c r="AY195" s="2"/>
+      <c r="AZ195" s="2"/>
+    </row>
+    <row r="196" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
@@ -11161,8 +12038,12 @@
       <c r="AT196" s="2"/>
       <c r="AU196" s="2"/>
       <c r="AV196" s="2"/>
-    </row>
-    <row r="197" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW196" s="2"/>
+      <c r="AX196" s="2"/>
+      <c r="AY196" s="2"/>
+      <c r="AZ196" s="2"/>
+    </row>
+    <row r="197" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
@@ -11209,8 +12090,12 @@
       <c r="AT197" s="2"/>
       <c r="AU197" s="2"/>
       <c r="AV197" s="2"/>
-    </row>
-    <row r="198" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW197" s="2"/>
+      <c r="AX197" s="2"/>
+      <c r="AY197" s="2"/>
+      <c r="AZ197" s="2"/>
+    </row>
+    <row r="198" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
@@ -11257,8 +12142,12 @@
       <c r="AT198" s="2"/>
       <c r="AU198" s="2"/>
       <c r="AV198" s="2"/>
-    </row>
-    <row r="199" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW198" s="2"/>
+      <c r="AX198" s="2"/>
+      <c r="AY198" s="2"/>
+      <c r="AZ198" s="2"/>
+    </row>
+    <row r="199" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
@@ -11305,8 +12194,12 @@
       <c r="AT199" s="2"/>
       <c r="AU199" s="2"/>
       <c r="AV199" s="2"/>
-    </row>
-    <row r="200" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW199" s="2"/>
+      <c r="AX199" s="2"/>
+      <c r="AY199" s="2"/>
+      <c r="AZ199" s="2"/>
+    </row>
+    <row r="200" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
@@ -11353,8 +12246,12 @@
       <c r="AT200" s="2"/>
       <c r="AU200" s="2"/>
       <c r="AV200" s="2"/>
-    </row>
-    <row r="201" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW200" s="2"/>
+      <c r="AX200" s="2"/>
+      <c r="AY200" s="2"/>
+      <c r="AZ200" s="2"/>
+    </row>
+    <row r="201" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
@@ -11401,8 +12298,12 @@
       <c r="AT201" s="2"/>
       <c r="AU201" s="2"/>
       <c r="AV201" s="2"/>
-    </row>
-    <row r="202" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW201" s="2"/>
+      <c r="AX201" s="2"/>
+      <c r="AY201" s="2"/>
+      <c r="AZ201" s="2"/>
+    </row>
+    <row r="202" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -11449,8 +12350,12 @@
       <c r="AT202" s="2"/>
       <c r="AU202" s="2"/>
       <c r="AV202" s="2"/>
-    </row>
-    <row r="203" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW202" s="2"/>
+      <c r="AX202" s="2"/>
+      <c r="AY202" s="2"/>
+      <c r="AZ202" s="2"/>
+    </row>
+    <row r="203" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
@@ -11497,8 +12402,12 @@
       <c r="AT203" s="2"/>
       <c r="AU203" s="2"/>
       <c r="AV203" s="2"/>
-    </row>
-    <row r="204" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW203" s="2"/>
+      <c r="AX203" s="2"/>
+      <c r="AY203" s="2"/>
+      <c r="AZ203" s="2"/>
+    </row>
+    <row r="204" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
@@ -11545,8 +12454,12 @@
       <c r="AT204" s="2"/>
       <c r="AU204" s="2"/>
       <c r="AV204" s="2"/>
-    </row>
-    <row r="205" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW204" s="2"/>
+      <c r="AX204" s="2"/>
+      <c r="AY204" s="2"/>
+      <c r="AZ204" s="2"/>
+    </row>
+    <row r="205" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
@@ -11593,8 +12506,12 @@
       <c r="AT205" s="2"/>
       <c r="AU205" s="2"/>
       <c r="AV205" s="2"/>
-    </row>
-    <row r="206" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW205" s="2"/>
+      <c r="AX205" s="2"/>
+      <c r="AY205" s="2"/>
+      <c r="AZ205" s="2"/>
+    </row>
+    <row r="206" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
@@ -11641,8 +12558,12 @@
       <c r="AT206" s="2"/>
       <c r="AU206" s="2"/>
       <c r="AV206" s="2"/>
-    </row>
-    <row r="207" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW206" s="2"/>
+      <c r="AX206" s="2"/>
+      <c r="AY206" s="2"/>
+      <c r="AZ206" s="2"/>
+    </row>
+    <row r="207" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
@@ -11689,8 +12610,12 @@
       <c r="AT207" s="2"/>
       <c r="AU207" s="2"/>
       <c r="AV207" s="2"/>
-    </row>
-    <row r="208" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW207" s="2"/>
+      <c r="AX207" s="2"/>
+      <c r="AY207" s="2"/>
+      <c r="AZ207" s="2"/>
+    </row>
+    <row r="208" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
@@ -11737,8 +12662,12 @@
       <c r="AT208" s="2"/>
       <c r="AU208" s="2"/>
       <c r="AV208" s="2"/>
-    </row>
-    <row r="209" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW208" s="2"/>
+      <c r="AX208" s="2"/>
+      <c r="AY208" s="2"/>
+      <c r="AZ208" s="2"/>
+    </row>
+    <row r="209" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -11785,8 +12714,12 @@
       <c r="AT209" s="2"/>
       <c r="AU209" s="2"/>
       <c r="AV209" s="2"/>
-    </row>
-    <row r="210" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW209" s="2"/>
+      <c r="AX209" s="2"/>
+      <c r="AY209" s="2"/>
+      <c r="AZ209" s="2"/>
+    </row>
+    <row r="210" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
@@ -11833,8 +12766,12 @@
       <c r="AT210" s="2"/>
       <c r="AU210" s="2"/>
       <c r="AV210" s="2"/>
-    </row>
-    <row r="211" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW210" s="2"/>
+      <c r="AX210" s="2"/>
+      <c r="AY210" s="2"/>
+      <c r="AZ210" s="2"/>
+    </row>
+    <row r="211" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
@@ -11881,8 +12818,12 @@
       <c r="AT211" s="2"/>
       <c r="AU211" s="2"/>
       <c r="AV211" s="2"/>
-    </row>
-    <row r="212" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW211" s="2"/>
+      <c r="AX211" s="2"/>
+      <c r="AY211" s="2"/>
+      <c r="AZ211" s="2"/>
+    </row>
+    <row r="212" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
@@ -11929,8 +12870,12 @@
       <c r="AT212" s="2"/>
       <c r="AU212" s="2"/>
       <c r="AV212" s="2"/>
-    </row>
-    <row r="213" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW212" s="2"/>
+      <c r="AX212" s="2"/>
+      <c r="AY212" s="2"/>
+      <c r="AZ212" s="2"/>
+    </row>
+    <row r="213" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
@@ -11977,8 +12922,12 @@
       <c r="AT213" s="2"/>
       <c r="AU213" s="2"/>
       <c r="AV213" s="2"/>
-    </row>
-    <row r="214" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW213" s="2"/>
+      <c r="AX213" s="2"/>
+      <c r="AY213" s="2"/>
+      <c r="AZ213" s="2"/>
+    </row>
+    <row r="214" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
@@ -12025,8 +12974,12 @@
       <c r="AT214" s="2"/>
       <c r="AU214" s="2"/>
       <c r="AV214" s="2"/>
-    </row>
-    <row r="215" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW214" s="2"/>
+      <c r="AX214" s="2"/>
+      <c r="AY214" s="2"/>
+      <c r="AZ214" s="2"/>
+    </row>
+    <row r="215" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
@@ -12073,8 +13026,12 @@
       <c r="AT215" s="2"/>
       <c r="AU215" s="2"/>
       <c r="AV215" s="2"/>
-    </row>
-    <row r="216" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW215" s="2"/>
+      <c r="AX215" s="2"/>
+      <c r="AY215" s="2"/>
+      <c r="AZ215" s="2"/>
+    </row>
+    <row r="216" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
@@ -12121,8 +13078,12 @@
       <c r="AT216" s="2"/>
       <c r="AU216" s="2"/>
       <c r="AV216" s="2"/>
-    </row>
-    <row r="217" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW216" s="2"/>
+      <c r="AX216" s="2"/>
+      <c r="AY216" s="2"/>
+      <c r="AZ216" s="2"/>
+    </row>
+    <row r="217" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
@@ -12169,8 +13130,12 @@
       <c r="AT217" s="2"/>
       <c r="AU217" s="2"/>
       <c r="AV217" s="2"/>
-    </row>
-    <row r="218" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW217" s="2"/>
+      <c r="AX217" s="2"/>
+      <c r="AY217" s="2"/>
+      <c r="AZ217" s="2"/>
+    </row>
+    <row r="218" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
@@ -12217,8 +13182,12 @@
       <c r="AT218" s="2"/>
       <c r="AU218" s="2"/>
       <c r="AV218" s="2"/>
-    </row>
-    <row r="219" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW218" s="2"/>
+      <c r="AX218" s="2"/>
+      <c r="AY218" s="2"/>
+      <c r="AZ218" s="2"/>
+    </row>
+    <row r="219" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
@@ -12265,8 +13234,12 @@
       <c r="AT219" s="2"/>
       <c r="AU219" s="2"/>
       <c r="AV219" s="2"/>
-    </row>
-    <row r="220" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW219" s="2"/>
+      <c r="AX219" s="2"/>
+      <c r="AY219" s="2"/>
+      <c r="AZ219" s="2"/>
+    </row>
+    <row r="220" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
@@ -12313,8 +13286,12 @@
       <c r="AT220" s="2"/>
       <c r="AU220" s="2"/>
       <c r="AV220" s="2"/>
-    </row>
-    <row r="221" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW220" s="2"/>
+      <c r="AX220" s="2"/>
+      <c r="AY220" s="2"/>
+      <c r="AZ220" s="2"/>
+    </row>
+    <row r="221" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
@@ -12361,8 +13338,12 @@
       <c r="AT221" s="2"/>
       <c r="AU221" s="2"/>
       <c r="AV221" s="2"/>
-    </row>
-    <row r="222" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW221" s="2"/>
+      <c r="AX221" s="2"/>
+      <c r="AY221" s="2"/>
+      <c r="AZ221" s="2"/>
+    </row>
+    <row r="222" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
@@ -12409,8 +13390,12 @@
       <c r="AT222" s="2"/>
       <c r="AU222" s="2"/>
       <c r="AV222" s="2"/>
-    </row>
-    <row r="223" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW222" s="2"/>
+      <c r="AX222" s="2"/>
+      <c r="AY222" s="2"/>
+      <c r="AZ222" s="2"/>
+    </row>
+    <row r="223" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
@@ -12457,8 +13442,12 @@
       <c r="AT223" s="2"/>
       <c r="AU223" s="2"/>
       <c r="AV223" s="2"/>
-    </row>
-    <row r="224" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW223" s="2"/>
+      <c r="AX223" s="2"/>
+      <c r="AY223" s="2"/>
+      <c r="AZ223" s="2"/>
+    </row>
+    <row r="224" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
@@ -12505,8 +13494,12 @@
       <c r="AT224" s="2"/>
       <c r="AU224" s="2"/>
       <c r="AV224" s="2"/>
-    </row>
-    <row r="225" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW224" s="2"/>
+      <c r="AX224" s="2"/>
+      <c r="AY224" s="2"/>
+      <c r="AZ224" s="2"/>
+    </row>
+    <row r="225" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
@@ -12553,8 +13546,12 @@
       <c r="AT225" s="2"/>
       <c r="AU225" s="2"/>
       <c r="AV225" s="2"/>
-    </row>
-    <row r="226" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW225" s="2"/>
+      <c r="AX225" s="2"/>
+      <c r="AY225" s="2"/>
+      <c r="AZ225" s="2"/>
+    </row>
+    <row r="226" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
@@ -12601,8 +13598,12 @@
       <c r="AT226" s="2"/>
       <c r="AU226" s="2"/>
       <c r="AV226" s="2"/>
-    </row>
-    <row r="227" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW226" s="2"/>
+      <c r="AX226" s="2"/>
+      <c r="AY226" s="2"/>
+      <c r="AZ226" s="2"/>
+    </row>
+    <row r="227" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
@@ -12649,8 +13650,12 @@
       <c r="AT227" s="2"/>
       <c r="AU227" s="2"/>
       <c r="AV227" s="2"/>
-    </row>
-    <row r="228" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW227" s="2"/>
+      <c r="AX227" s="2"/>
+      <c r="AY227" s="2"/>
+      <c r="AZ227" s="2"/>
+    </row>
+    <row r="228" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
@@ -12697,8 +13702,12 @@
       <c r="AT228" s="2"/>
       <c r="AU228" s="2"/>
       <c r="AV228" s="2"/>
-    </row>
-    <row r="229" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW228" s="2"/>
+      <c r="AX228" s="2"/>
+      <c r="AY228" s="2"/>
+      <c r="AZ228" s="2"/>
+    </row>
+    <row r="229" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
@@ -12745,8 +13754,12 @@
       <c r="AT229" s="2"/>
       <c r="AU229" s="2"/>
       <c r="AV229" s="2"/>
-    </row>
-    <row r="230" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW229" s="2"/>
+      <c r="AX229" s="2"/>
+      <c r="AY229" s="2"/>
+      <c r="AZ229" s="2"/>
+    </row>
+    <row r="230" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
@@ -12793,8 +13806,12 @@
       <c r="AT230" s="2"/>
       <c r="AU230" s="2"/>
       <c r="AV230" s="2"/>
-    </row>
-    <row r="231" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW230" s="2"/>
+      <c r="AX230" s="2"/>
+      <c r="AY230" s="2"/>
+      <c r="AZ230" s="2"/>
+    </row>
+    <row r="231" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
@@ -12841,8 +13858,12 @@
       <c r="AT231" s="2"/>
       <c r="AU231" s="2"/>
       <c r="AV231" s="2"/>
-    </row>
-    <row r="232" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW231" s="2"/>
+      <c r="AX231" s="2"/>
+      <c r="AY231" s="2"/>
+      <c r="AZ231" s="2"/>
+    </row>
+    <row r="232" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
@@ -12889,8 +13910,12 @@
       <c r="AT232" s="2"/>
       <c r="AU232" s="2"/>
       <c r="AV232" s="2"/>
-    </row>
-    <row r="233" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW232" s="2"/>
+      <c r="AX232" s="2"/>
+      <c r="AY232" s="2"/>
+      <c r="AZ232" s="2"/>
+    </row>
+    <row r="233" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
@@ -12937,8 +13962,12 @@
       <c r="AT233" s="2"/>
       <c r="AU233" s="2"/>
       <c r="AV233" s="2"/>
-    </row>
-    <row r="234" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW233" s="2"/>
+      <c r="AX233" s="2"/>
+      <c r="AY233" s="2"/>
+      <c r="AZ233" s="2"/>
+    </row>
+    <row r="234" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
@@ -12985,8 +14014,12 @@
       <c r="AT234" s="2"/>
       <c r="AU234" s="2"/>
       <c r="AV234" s="2"/>
-    </row>
-    <row r="235" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW234" s="2"/>
+      <c r="AX234" s="2"/>
+      <c r="AY234" s="2"/>
+      <c r="AZ234" s="2"/>
+    </row>
+    <row r="235" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
@@ -13033,8 +14066,12 @@
       <c r="AT235" s="2"/>
       <c r="AU235" s="2"/>
       <c r="AV235" s="2"/>
-    </row>
-    <row r="236" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW235" s="2"/>
+      <c r="AX235" s="2"/>
+      <c r="AY235" s="2"/>
+      <c r="AZ235" s="2"/>
+    </row>
+    <row r="236" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
@@ -13081,8 +14118,12 @@
       <c r="AT236" s="2"/>
       <c r="AU236" s="2"/>
       <c r="AV236" s="2"/>
-    </row>
-    <row r="237" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW236" s="2"/>
+      <c r="AX236" s="2"/>
+      <c r="AY236" s="2"/>
+      <c r="AZ236" s="2"/>
+    </row>
+    <row r="237" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
@@ -13129,8 +14170,12 @@
       <c r="AT237" s="2"/>
       <c r="AU237" s="2"/>
       <c r="AV237" s="2"/>
-    </row>
-    <row r="238" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW237" s="2"/>
+      <c r="AX237" s="2"/>
+      <c r="AY237" s="2"/>
+      <c r="AZ237" s="2"/>
+    </row>
+    <row r="238" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
@@ -13177,8 +14222,12 @@
       <c r="AT238" s="2"/>
       <c r="AU238" s="2"/>
       <c r="AV238" s="2"/>
-    </row>
-    <row r="239" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW238" s="2"/>
+      <c r="AX238" s="2"/>
+      <c r="AY238" s="2"/>
+      <c r="AZ238" s="2"/>
+    </row>
+    <row r="239" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -13225,8 +14274,12 @@
       <c r="AT239" s="2"/>
       <c r="AU239" s="2"/>
       <c r="AV239" s="2"/>
-    </row>
-    <row r="240" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW239" s="2"/>
+      <c r="AX239" s="2"/>
+      <c r="AY239" s="2"/>
+      <c r="AZ239" s="2"/>
+    </row>
+    <row r="240" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
@@ -13273,8 +14326,12 @@
       <c r="AT240" s="2"/>
       <c r="AU240" s="2"/>
       <c r="AV240" s="2"/>
-    </row>
-    <row r="241" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW240" s="2"/>
+      <c r="AX240" s="2"/>
+      <c r="AY240" s="2"/>
+      <c r="AZ240" s="2"/>
+    </row>
+    <row r="241" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -13321,8 +14378,12 @@
       <c r="AT241" s="2"/>
       <c r="AU241" s="2"/>
       <c r="AV241" s="2"/>
-    </row>
-    <row r="242" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW241" s="2"/>
+      <c r="AX241" s="2"/>
+      <c r="AY241" s="2"/>
+      <c r="AZ241" s="2"/>
+    </row>
+    <row r="242" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -13369,8 +14430,12 @@
       <c r="AT242" s="2"/>
       <c r="AU242" s="2"/>
       <c r="AV242" s="2"/>
-    </row>
-    <row r="243" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW242" s="2"/>
+      <c r="AX242" s="2"/>
+      <c r="AY242" s="2"/>
+      <c r="AZ242" s="2"/>
+    </row>
+    <row r="243" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -13417,8 +14482,12 @@
       <c r="AT243" s="2"/>
       <c r="AU243" s="2"/>
       <c r="AV243" s="2"/>
-    </row>
-    <row r="244" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW243" s="2"/>
+      <c r="AX243" s="2"/>
+      <c r="AY243" s="2"/>
+      <c r="AZ243" s="2"/>
+    </row>
+    <row r="244" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
@@ -13465,8 +14534,12 @@
       <c r="AT244" s="2"/>
       <c r="AU244" s="2"/>
       <c r="AV244" s="2"/>
-    </row>
-    <row r="245" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW244" s="2"/>
+      <c r="AX244" s="2"/>
+      <c r="AY244" s="2"/>
+      <c r="AZ244" s="2"/>
+    </row>
+    <row r="245" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
@@ -13513,8 +14586,12 @@
       <c r="AT245" s="2"/>
       <c r="AU245" s="2"/>
       <c r="AV245" s="2"/>
-    </row>
-    <row r="246" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW245" s="2"/>
+      <c r="AX245" s="2"/>
+      <c r="AY245" s="2"/>
+      <c r="AZ245" s="2"/>
+    </row>
+    <row r="246" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -13561,8 +14638,12 @@
       <c r="AT246" s="2"/>
       <c r="AU246" s="2"/>
       <c r="AV246" s="2"/>
-    </row>
-    <row r="247" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW246" s="2"/>
+      <c r="AX246" s="2"/>
+      <c r="AY246" s="2"/>
+      <c r="AZ246" s="2"/>
+    </row>
+    <row r="247" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
@@ -13609,8 +14690,12 @@
       <c r="AT247" s="2"/>
       <c r="AU247" s="2"/>
       <c r="AV247" s="2"/>
-    </row>
-    <row r="248" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW247" s="2"/>
+      <c r="AX247" s="2"/>
+      <c r="AY247" s="2"/>
+      <c r="AZ247" s="2"/>
+    </row>
+    <row r="248" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
@@ -13657,8 +14742,12 @@
       <c r="AT248" s="2"/>
       <c r="AU248" s="2"/>
       <c r="AV248" s="2"/>
-    </row>
-    <row r="249" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW248" s="2"/>
+      <c r="AX248" s="2"/>
+      <c r="AY248" s="2"/>
+      <c r="AZ248" s="2"/>
+    </row>
+    <row r="249" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
@@ -13705,8 +14794,12 @@
       <c r="AT249" s="2"/>
       <c r="AU249" s="2"/>
       <c r="AV249" s="2"/>
-    </row>
-    <row r="250" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW249" s="2"/>
+      <c r="AX249" s="2"/>
+      <c r="AY249" s="2"/>
+      <c r="AZ249" s="2"/>
+    </row>
+    <row r="250" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
@@ -13753,8 +14846,12 @@
       <c r="AT250" s="2"/>
       <c r="AU250" s="2"/>
       <c r="AV250" s="2"/>
-    </row>
-    <row r="251" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW250" s="2"/>
+      <c r="AX250" s="2"/>
+      <c r="AY250" s="2"/>
+      <c r="AZ250" s="2"/>
+    </row>
+    <row r="251" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
@@ -13801,8 +14898,12 @@
       <c r="AT251" s="2"/>
       <c r="AU251" s="2"/>
       <c r="AV251" s="2"/>
-    </row>
-    <row r="252" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW251" s="2"/>
+      <c r="AX251" s="2"/>
+      <c r="AY251" s="2"/>
+      <c r="AZ251" s="2"/>
+    </row>
+    <row r="252" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
@@ -13849,8 +14950,12 @@
       <c r="AT252" s="2"/>
       <c r="AU252" s="2"/>
       <c r="AV252" s="2"/>
-    </row>
-    <row r="253" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW252" s="2"/>
+      <c r="AX252" s="2"/>
+      <c r="AY252" s="2"/>
+      <c r="AZ252" s="2"/>
+    </row>
+    <row r="253" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
@@ -13897,8 +15002,12 @@
       <c r="AT253" s="2"/>
       <c r="AU253" s="2"/>
       <c r="AV253" s="2"/>
-    </row>
-    <row r="254" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW253" s="2"/>
+      <c r="AX253" s="2"/>
+      <c r="AY253" s="2"/>
+      <c r="AZ253" s="2"/>
+    </row>
+    <row r="254" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
@@ -13945,8 +15054,12 @@
       <c r="AT254" s="2"/>
       <c r="AU254" s="2"/>
       <c r="AV254" s="2"/>
-    </row>
-    <row r="255" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW254" s="2"/>
+      <c r="AX254" s="2"/>
+      <c r="AY254" s="2"/>
+      <c r="AZ254" s="2"/>
+    </row>
+    <row r="255" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
@@ -13993,8 +15106,12 @@
       <c r="AT255" s="2"/>
       <c r="AU255" s="2"/>
       <c r="AV255" s="2"/>
-    </row>
-    <row r="256" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW255" s="2"/>
+      <c r="AX255" s="2"/>
+      <c r="AY255" s="2"/>
+      <c r="AZ255" s="2"/>
+    </row>
+    <row r="256" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
@@ -14041,8 +15158,12 @@
       <c r="AT256" s="2"/>
       <c r="AU256" s="2"/>
       <c r="AV256" s="2"/>
-    </row>
-    <row r="257" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW256" s="2"/>
+      <c r="AX256" s="2"/>
+      <c r="AY256" s="2"/>
+      <c r="AZ256" s="2"/>
+    </row>
+    <row r="257" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
@@ -14089,8 +15210,12 @@
       <c r="AT257" s="2"/>
       <c r="AU257" s="2"/>
       <c r="AV257" s="2"/>
-    </row>
-    <row r="258" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW257" s="2"/>
+      <c r="AX257" s="2"/>
+      <c r="AY257" s="2"/>
+      <c r="AZ257" s="2"/>
+    </row>
+    <row r="258" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
@@ -14137,8 +15262,12 @@
       <c r="AT258" s="2"/>
       <c r="AU258" s="2"/>
       <c r="AV258" s="2"/>
-    </row>
-    <row r="259" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW258" s="2"/>
+      <c r="AX258" s="2"/>
+      <c r="AY258" s="2"/>
+      <c r="AZ258" s="2"/>
+    </row>
+    <row r="259" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
@@ -14185,8 +15314,12 @@
       <c r="AT259" s="2"/>
       <c r="AU259" s="2"/>
       <c r="AV259" s="2"/>
-    </row>
-    <row r="260" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW259" s="2"/>
+      <c r="AX259" s="2"/>
+      <c r="AY259" s="2"/>
+      <c r="AZ259" s="2"/>
+    </row>
+    <row r="260" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
@@ -14233,8 +15366,12 @@
       <c r="AT260" s="2"/>
       <c r="AU260" s="2"/>
       <c r="AV260" s="2"/>
-    </row>
-    <row r="261" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW260" s="2"/>
+      <c r="AX260" s="2"/>
+      <c r="AY260" s="2"/>
+      <c r="AZ260" s="2"/>
+    </row>
+    <row r="261" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
@@ -14281,8 +15418,12 @@
       <c r="AT261" s="2"/>
       <c r="AU261" s="2"/>
       <c r="AV261" s="2"/>
-    </row>
-    <row r="262" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW261" s="2"/>
+      <c r="AX261" s="2"/>
+      <c r="AY261" s="2"/>
+      <c r="AZ261" s="2"/>
+    </row>
+    <row r="262" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
@@ -14329,8 +15470,12 @@
       <c r="AT262" s="2"/>
       <c r="AU262" s="2"/>
       <c r="AV262" s="2"/>
-    </row>
-    <row r="263" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW262" s="2"/>
+      <c r="AX262" s="2"/>
+      <c r="AY262" s="2"/>
+      <c r="AZ262" s="2"/>
+    </row>
+    <row r="263" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
@@ -14377,8 +15522,12 @@
       <c r="AT263" s="2"/>
       <c r="AU263" s="2"/>
       <c r="AV263" s="2"/>
-    </row>
-    <row r="264" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW263" s="2"/>
+      <c r="AX263" s="2"/>
+      <c r="AY263" s="2"/>
+      <c r="AZ263" s="2"/>
+    </row>
+    <row r="264" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
@@ -14425,8 +15574,12 @@
       <c r="AT264" s="2"/>
       <c r="AU264" s="2"/>
       <c r="AV264" s="2"/>
-    </row>
-    <row r="265" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW264" s="2"/>
+      <c r="AX264" s="2"/>
+      <c r="AY264" s="2"/>
+      <c r="AZ264" s="2"/>
+    </row>
+    <row r="265" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
@@ -14473,8 +15626,12 @@
       <c r="AT265" s="2"/>
       <c r="AU265" s="2"/>
       <c r="AV265" s="2"/>
-    </row>
-    <row r="266" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW265" s="2"/>
+      <c r="AX265" s="2"/>
+      <c r="AY265" s="2"/>
+      <c r="AZ265" s="2"/>
+    </row>
+    <row r="266" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
@@ -14521,8 +15678,12 @@
       <c r="AT266" s="2"/>
       <c r="AU266" s="2"/>
       <c r="AV266" s="2"/>
-    </row>
-    <row r="267" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW266" s="2"/>
+      <c r="AX266" s="2"/>
+      <c r="AY266" s="2"/>
+      <c r="AZ266" s="2"/>
+    </row>
+    <row r="267" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
@@ -14569,8 +15730,12 @@
       <c r="AT267" s="2"/>
       <c r="AU267" s="2"/>
       <c r="AV267" s="2"/>
-    </row>
-    <row r="268" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW267" s="2"/>
+      <c r="AX267" s="2"/>
+      <c r="AY267" s="2"/>
+      <c r="AZ267" s="2"/>
+    </row>
+    <row r="268" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
@@ -14617,8 +15782,12 @@
       <c r="AT268" s="2"/>
       <c r="AU268" s="2"/>
       <c r="AV268" s="2"/>
-    </row>
-    <row r="269" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW268" s="2"/>
+      <c r="AX268" s="2"/>
+      <c r="AY268" s="2"/>
+      <c r="AZ268" s="2"/>
+    </row>
+    <row r="269" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
@@ -14665,8 +15834,12 @@
       <c r="AT269" s="2"/>
       <c r="AU269" s="2"/>
       <c r="AV269" s="2"/>
-    </row>
-    <row r="270" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW269" s="2"/>
+      <c r="AX269" s="2"/>
+      <c r="AY269" s="2"/>
+      <c r="AZ269" s="2"/>
+    </row>
+    <row r="270" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
@@ -14713,8 +15886,12 @@
       <c r="AT270" s="2"/>
       <c r="AU270" s="2"/>
       <c r="AV270" s="2"/>
-    </row>
-    <row r="271" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW270" s="2"/>
+      <c r="AX270" s="2"/>
+      <c r="AY270" s="2"/>
+      <c r="AZ270" s="2"/>
+    </row>
+    <row r="271" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
@@ -14761,8 +15938,12 @@
       <c r="AT271" s="2"/>
       <c r="AU271" s="2"/>
       <c r="AV271" s="2"/>
-    </row>
-    <row r="272" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW271" s="2"/>
+      <c r="AX271" s="2"/>
+      <c r="AY271" s="2"/>
+      <c r="AZ271" s="2"/>
+    </row>
+    <row r="272" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
@@ -14809,8 +15990,12 @@
       <c r="AT272" s="2"/>
       <c r="AU272" s="2"/>
       <c r="AV272" s="2"/>
-    </row>
-    <row r="273" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW272" s="2"/>
+      <c r="AX272" s="2"/>
+      <c r="AY272" s="2"/>
+      <c r="AZ272" s="2"/>
+    </row>
+    <row r="273" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
@@ -14857,8 +16042,12 @@
       <c r="AT273" s="2"/>
       <c r="AU273" s="2"/>
       <c r="AV273" s="2"/>
-    </row>
-    <row r="274" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW273" s="2"/>
+      <c r="AX273" s="2"/>
+      <c r="AY273" s="2"/>
+      <c r="AZ273" s="2"/>
+    </row>
+    <row r="274" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
@@ -14905,8 +16094,12 @@
       <c r="AT274" s="2"/>
       <c r="AU274" s="2"/>
       <c r="AV274" s="2"/>
-    </row>
-    <row r="275" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW274" s="2"/>
+      <c r="AX274" s="2"/>
+      <c r="AY274" s="2"/>
+      <c r="AZ274" s="2"/>
+    </row>
+    <row r="275" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
@@ -14953,8 +16146,12 @@
       <c r="AT275" s="2"/>
       <c r="AU275" s="2"/>
       <c r="AV275" s="2"/>
-    </row>
-    <row r="276" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW275" s="2"/>
+      <c r="AX275" s="2"/>
+      <c r="AY275" s="2"/>
+      <c r="AZ275" s="2"/>
+    </row>
+    <row r="276" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
@@ -15001,8 +16198,12 @@
       <c r="AT276" s="2"/>
       <c r="AU276" s="2"/>
       <c r="AV276" s="2"/>
-    </row>
-    <row r="277" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW276" s="2"/>
+      <c r="AX276" s="2"/>
+      <c r="AY276" s="2"/>
+      <c r="AZ276" s="2"/>
+    </row>
+    <row r="277" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
@@ -15049,8 +16250,12 @@
       <c r="AT277" s="2"/>
       <c r="AU277" s="2"/>
       <c r="AV277" s="2"/>
-    </row>
-    <row r="278" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW277" s="2"/>
+      <c r="AX277" s="2"/>
+      <c r="AY277" s="2"/>
+      <c r="AZ277" s="2"/>
+    </row>
+    <row r="278" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
@@ -15097,8 +16302,12 @@
       <c r="AT278" s="2"/>
       <c r="AU278" s="2"/>
       <c r="AV278" s="2"/>
-    </row>
-    <row r="279" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW278" s="2"/>
+      <c r="AX278" s="2"/>
+      <c r="AY278" s="2"/>
+      <c r="AZ278" s="2"/>
+    </row>
+    <row r="279" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
@@ -15145,8 +16354,12 @@
       <c r="AT279" s="2"/>
       <c r="AU279" s="2"/>
       <c r="AV279" s="2"/>
-    </row>
-    <row r="280" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW279" s="2"/>
+      <c r="AX279" s="2"/>
+      <c r="AY279" s="2"/>
+      <c r="AZ279" s="2"/>
+    </row>
+    <row r="280" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
@@ -15193,8 +16406,12 @@
       <c r="AT280" s="2"/>
       <c r="AU280" s="2"/>
       <c r="AV280" s="2"/>
-    </row>
-    <row r="281" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW280" s="2"/>
+      <c r="AX280" s="2"/>
+      <c r="AY280" s="2"/>
+      <c r="AZ280" s="2"/>
+    </row>
+    <row r="281" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -15241,8 +16458,12 @@
       <c r="AT281" s="2"/>
       <c r="AU281" s="2"/>
       <c r="AV281" s="2"/>
-    </row>
-    <row r="282" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW281" s="2"/>
+      <c r="AX281" s="2"/>
+      <c r="AY281" s="2"/>
+      <c r="AZ281" s="2"/>
+    </row>
+    <row r="282" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
@@ -15289,8 +16510,12 @@
       <c r="AT282" s="2"/>
       <c r="AU282" s="2"/>
       <c r="AV282" s="2"/>
-    </row>
-    <row r="283" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW282" s="2"/>
+      <c r="AX282" s="2"/>
+      <c r="AY282" s="2"/>
+      <c r="AZ282" s="2"/>
+    </row>
+    <row r="283" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
@@ -15337,8 +16562,12 @@
       <c r="AT283" s="2"/>
       <c r="AU283" s="2"/>
       <c r="AV283" s="2"/>
-    </row>
-    <row r="284" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW283" s="2"/>
+      <c r="AX283" s="2"/>
+      <c r="AY283" s="2"/>
+      <c r="AZ283" s="2"/>
+    </row>
+    <row r="284" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
@@ -15385,8 +16614,12 @@
       <c r="AT284" s="2"/>
       <c r="AU284" s="2"/>
       <c r="AV284" s="2"/>
-    </row>
-    <row r="285" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW284" s="2"/>
+      <c r="AX284" s="2"/>
+      <c r="AY284" s="2"/>
+      <c r="AZ284" s="2"/>
+    </row>
+    <row r="285" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
@@ -15433,8 +16666,12 @@
       <c r="AT285" s="2"/>
       <c r="AU285" s="2"/>
       <c r="AV285" s="2"/>
-    </row>
-    <row r="286" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW285" s="2"/>
+      <c r="AX285" s="2"/>
+      <c r="AY285" s="2"/>
+      <c r="AZ285" s="2"/>
+    </row>
+    <row r="286" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
@@ -15481,8 +16718,12 @@
       <c r="AT286" s="2"/>
       <c r="AU286" s="2"/>
       <c r="AV286" s="2"/>
-    </row>
-    <row r="287" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW286" s="2"/>
+      <c r="AX286" s="2"/>
+      <c r="AY286" s="2"/>
+      <c r="AZ286" s="2"/>
+    </row>
+    <row r="287" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
@@ -15529,8 +16770,12 @@
       <c r="AT287" s="2"/>
       <c r="AU287" s="2"/>
       <c r="AV287" s="2"/>
-    </row>
-    <row r="288" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW287" s="2"/>
+      <c r="AX287" s="2"/>
+      <c r="AY287" s="2"/>
+      <c r="AZ287" s="2"/>
+    </row>
+    <row r="288" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
@@ -15577,8 +16822,12 @@
       <c r="AT288" s="2"/>
       <c r="AU288" s="2"/>
       <c r="AV288" s="2"/>
-    </row>
-    <row r="289" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW288" s="2"/>
+      <c r="AX288" s="2"/>
+      <c r="AY288" s="2"/>
+      <c r="AZ288" s="2"/>
+    </row>
+    <row r="289" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
@@ -15625,8 +16874,12 @@
       <c r="AT289" s="2"/>
       <c r="AU289" s="2"/>
       <c r="AV289" s="2"/>
-    </row>
-    <row r="290" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW289" s="2"/>
+      <c r="AX289" s="2"/>
+      <c r="AY289" s="2"/>
+      <c r="AZ289" s="2"/>
+    </row>
+    <row r="290" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
@@ -15673,8 +16926,12 @@
       <c r="AT290" s="2"/>
       <c r="AU290" s="2"/>
       <c r="AV290" s="2"/>
-    </row>
-    <row r="291" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW290" s="2"/>
+      <c r="AX290" s="2"/>
+      <c r="AY290" s="2"/>
+      <c r="AZ290" s="2"/>
+    </row>
+    <row r="291" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
@@ -15721,8 +16978,12 @@
       <c r="AT291" s="2"/>
       <c r="AU291" s="2"/>
       <c r="AV291" s="2"/>
-    </row>
-    <row r="292" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW291" s="2"/>
+      <c r="AX291" s="2"/>
+      <c r="AY291" s="2"/>
+      <c r="AZ291" s="2"/>
+    </row>
+    <row r="292" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
@@ -15769,8 +17030,12 @@
       <c r="AT292" s="2"/>
       <c r="AU292" s="2"/>
       <c r="AV292" s="2"/>
-    </row>
-    <row r="293" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW292" s="2"/>
+      <c r="AX292" s="2"/>
+      <c r="AY292" s="2"/>
+      <c r="AZ292" s="2"/>
+    </row>
+    <row r="293" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
@@ -15817,8 +17082,12 @@
       <c r="AT293" s="2"/>
       <c r="AU293" s="2"/>
       <c r="AV293" s="2"/>
-    </row>
-    <row r="294" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW293" s="2"/>
+      <c r="AX293" s="2"/>
+      <c r="AY293" s="2"/>
+      <c r="AZ293" s="2"/>
+    </row>
+    <row r="294" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
@@ -15865,8 +17134,12 @@
       <c r="AT294" s="2"/>
       <c r="AU294" s="2"/>
       <c r="AV294" s="2"/>
-    </row>
-    <row r="295" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW294" s="2"/>
+      <c r="AX294" s="2"/>
+      <c r="AY294" s="2"/>
+      <c r="AZ294" s="2"/>
+    </row>
+    <row r="295" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
@@ -15913,8 +17186,12 @@
       <c r="AT295" s="2"/>
       <c r="AU295" s="2"/>
       <c r="AV295" s="2"/>
-    </row>
-    <row r="296" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW295" s="2"/>
+      <c r="AX295" s="2"/>
+      <c r="AY295" s="2"/>
+      <c r="AZ295" s="2"/>
+    </row>
+    <row r="296" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
@@ -15961,8 +17238,12 @@
       <c r="AT296" s="2"/>
       <c r="AU296" s="2"/>
       <c r="AV296" s="2"/>
-    </row>
-    <row r="297" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW296" s="2"/>
+      <c r="AX296" s="2"/>
+      <c r="AY296" s="2"/>
+      <c r="AZ296" s="2"/>
+    </row>
+    <row r="297" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
@@ -16009,8 +17290,12 @@
       <c r="AT297" s="2"/>
       <c r="AU297" s="2"/>
       <c r="AV297" s="2"/>
-    </row>
-    <row r="298" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW297" s="2"/>
+      <c r="AX297" s="2"/>
+      <c r="AY297" s="2"/>
+      <c r="AZ297" s="2"/>
+    </row>
+    <row r="298" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
@@ -16057,8 +17342,12 @@
       <c r="AT298" s="2"/>
       <c r="AU298" s="2"/>
       <c r="AV298" s="2"/>
-    </row>
-    <row r="299" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW298" s="2"/>
+      <c r="AX298" s="2"/>
+      <c r="AY298" s="2"/>
+      <c r="AZ298" s="2"/>
+    </row>
+    <row r="299" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
@@ -16105,8 +17394,12 @@
       <c r="AT299" s="2"/>
       <c r="AU299" s="2"/>
       <c r="AV299" s="2"/>
-    </row>
-    <row r="300" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW299" s="2"/>
+      <c r="AX299" s="2"/>
+      <c r="AY299" s="2"/>
+      <c r="AZ299" s="2"/>
+    </row>
+    <row r="300" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
@@ -16153,8 +17446,12 @@
       <c r="AT300" s="2"/>
       <c r="AU300" s="2"/>
       <c r="AV300" s="2"/>
-    </row>
-    <row r="301" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW300" s="2"/>
+      <c r="AX300" s="2"/>
+      <c r="AY300" s="2"/>
+      <c r="AZ300" s="2"/>
+    </row>
+    <row r="301" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
@@ -16201,8 +17498,12 @@
       <c r="AT301" s="2"/>
       <c r="AU301" s="2"/>
       <c r="AV301" s="2"/>
-    </row>
-    <row r="302" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW301" s="2"/>
+      <c r="AX301" s="2"/>
+      <c r="AY301" s="2"/>
+      <c r="AZ301" s="2"/>
+    </row>
+    <row r="302" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
@@ -16249,8 +17550,12 @@
       <c r="AT302" s="2"/>
       <c r="AU302" s="2"/>
       <c r="AV302" s="2"/>
-    </row>
-    <row r="303" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW302" s="2"/>
+      <c r="AX302" s="2"/>
+      <c r="AY302" s="2"/>
+      <c r="AZ302" s="2"/>
+    </row>
+    <row r="303" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
@@ -16297,8 +17602,12 @@
       <c r="AT303" s="2"/>
       <c r="AU303" s="2"/>
       <c r="AV303" s="2"/>
-    </row>
-    <row r="304" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW303" s="2"/>
+      <c r="AX303" s="2"/>
+      <c r="AY303" s="2"/>
+      <c r="AZ303" s="2"/>
+    </row>
+    <row r="304" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
@@ -16345,8 +17654,12 @@
       <c r="AT304" s="2"/>
       <c r="AU304" s="2"/>
       <c r="AV304" s="2"/>
-    </row>
-    <row r="305" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW304" s="2"/>
+      <c r="AX304" s="2"/>
+      <c r="AY304" s="2"/>
+      <c r="AZ304" s="2"/>
+    </row>
+    <row r="305" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
@@ -16393,8 +17706,12 @@
       <c r="AT305" s="2"/>
       <c r="AU305" s="2"/>
       <c r="AV305" s="2"/>
-    </row>
-    <row r="306" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW305" s="2"/>
+      <c r="AX305" s="2"/>
+      <c r="AY305" s="2"/>
+      <c r="AZ305" s="2"/>
+    </row>
+    <row r="306" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
@@ -16441,8 +17758,12 @@
       <c r="AT306" s="2"/>
       <c r="AU306" s="2"/>
       <c r="AV306" s="2"/>
-    </row>
-    <row r="307" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW306" s="2"/>
+      <c r="AX306" s="2"/>
+      <c r="AY306" s="2"/>
+      <c r="AZ306" s="2"/>
+    </row>
+    <row r="307" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
@@ -16489,8 +17810,12 @@
       <c r="AT307" s="2"/>
       <c r="AU307" s="2"/>
       <c r="AV307" s="2"/>
-    </row>
-    <row r="308" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW307" s="2"/>
+      <c r="AX307" s="2"/>
+      <c r="AY307" s="2"/>
+      <c r="AZ307" s="2"/>
+    </row>
+    <row r="308" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
@@ -16537,8 +17862,12 @@
       <c r="AT308" s="2"/>
       <c r="AU308" s="2"/>
       <c r="AV308" s="2"/>
-    </row>
-    <row r="309" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW308" s="2"/>
+      <c r="AX308" s="2"/>
+      <c r="AY308" s="2"/>
+      <c r="AZ308" s="2"/>
+    </row>
+    <row r="309" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
@@ -16585,8 +17914,12 @@
       <c r="AT309" s="2"/>
       <c r="AU309" s="2"/>
       <c r="AV309" s="2"/>
-    </row>
-    <row r="310" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW309" s="2"/>
+      <c r="AX309" s="2"/>
+      <c r="AY309" s="2"/>
+      <c r="AZ309" s="2"/>
+    </row>
+    <row r="310" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
@@ -16633,8 +17966,12 @@
       <c r="AT310" s="2"/>
       <c r="AU310" s="2"/>
       <c r="AV310" s="2"/>
-    </row>
-    <row r="311" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW310" s="2"/>
+      <c r="AX310" s="2"/>
+      <c r="AY310" s="2"/>
+      <c r="AZ310" s="2"/>
+    </row>
+    <row r="311" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
@@ -16681,8 +18018,12 @@
       <c r="AT311" s="2"/>
       <c r="AU311" s="2"/>
       <c r="AV311" s="2"/>
-    </row>
-    <row r="312" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW311" s="2"/>
+      <c r="AX311" s="2"/>
+      <c r="AY311" s="2"/>
+      <c r="AZ311" s="2"/>
+    </row>
+    <row r="312" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
@@ -16729,8 +18070,12 @@
       <c r="AT312" s="2"/>
       <c r="AU312" s="2"/>
       <c r="AV312" s="2"/>
-    </row>
-    <row r="313" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW312" s="2"/>
+      <c r="AX312" s="2"/>
+      <c r="AY312" s="2"/>
+      <c r="AZ312" s="2"/>
+    </row>
+    <row r="313" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
@@ -16777,8 +18122,12 @@
       <c r="AT313" s="2"/>
       <c r="AU313" s="2"/>
       <c r="AV313" s="2"/>
-    </row>
-    <row r="314" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW313" s="2"/>
+      <c r="AX313" s="2"/>
+      <c r="AY313" s="2"/>
+      <c r="AZ313" s="2"/>
+    </row>
+    <row r="314" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
@@ -16825,8 +18174,12 @@
       <c r="AT314" s="2"/>
       <c r="AU314" s="2"/>
       <c r="AV314" s="2"/>
-    </row>
-    <row r="315" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW314" s="2"/>
+      <c r="AX314" s="2"/>
+      <c r="AY314" s="2"/>
+      <c r="AZ314" s="2"/>
+    </row>
+    <row r="315" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
@@ -16873,8 +18226,12 @@
       <c r="AT315" s="2"/>
       <c r="AU315" s="2"/>
       <c r="AV315" s="2"/>
-    </row>
-    <row r="316" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW315" s="2"/>
+      <c r="AX315" s="2"/>
+      <c r="AY315" s="2"/>
+      <c r="AZ315" s="2"/>
+    </row>
+    <row r="316" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
@@ -16921,8 +18278,12 @@
       <c r="AT316" s="2"/>
       <c r="AU316" s="2"/>
       <c r="AV316" s="2"/>
-    </row>
-    <row r="317" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW316" s="2"/>
+      <c r="AX316" s="2"/>
+      <c r="AY316" s="2"/>
+      <c r="AZ316" s="2"/>
+    </row>
+    <row r="317" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
@@ -16969,8 +18330,12 @@
       <c r="AT317" s="2"/>
       <c r="AU317" s="2"/>
       <c r="AV317" s="2"/>
-    </row>
-    <row r="318" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW317" s="2"/>
+      <c r="AX317" s="2"/>
+      <c r="AY317" s="2"/>
+      <c r="AZ317" s="2"/>
+    </row>
+    <row r="318" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
@@ -17017,8 +18382,12 @@
       <c r="AT318" s="2"/>
       <c r="AU318" s="2"/>
       <c r="AV318" s="2"/>
-    </row>
-    <row r="319" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW318" s="2"/>
+      <c r="AX318" s="2"/>
+      <c r="AY318" s="2"/>
+      <c r="AZ318" s="2"/>
+    </row>
+    <row r="319" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
@@ -17065,8 +18434,12 @@
       <c r="AT319" s="2"/>
       <c r="AU319" s="2"/>
       <c r="AV319" s="2"/>
-    </row>
-    <row r="320" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW319" s="2"/>
+      <c r="AX319" s="2"/>
+      <c r="AY319" s="2"/>
+      <c r="AZ319" s="2"/>
+    </row>
+    <row r="320" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
@@ -17113,8 +18486,12 @@
       <c r="AT320" s="2"/>
       <c r="AU320" s="2"/>
       <c r="AV320" s="2"/>
-    </row>
-    <row r="321" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW320" s="2"/>
+      <c r="AX320" s="2"/>
+      <c r="AY320" s="2"/>
+      <c r="AZ320" s="2"/>
+    </row>
+    <row r="321" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
@@ -17161,8 +18538,12 @@
       <c r="AT321" s="2"/>
       <c r="AU321" s="2"/>
       <c r="AV321" s="2"/>
-    </row>
-    <row r="322" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW321" s="2"/>
+      <c r="AX321" s="2"/>
+      <c r="AY321" s="2"/>
+      <c r="AZ321" s="2"/>
+    </row>
+    <row r="322" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -17209,8 +18590,12 @@
       <c r="AT322" s="2"/>
       <c r="AU322" s="2"/>
       <c r="AV322" s="2"/>
-    </row>
-    <row r="323" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW322" s="2"/>
+      <c r="AX322" s="2"/>
+      <c r="AY322" s="2"/>
+      <c r="AZ322" s="2"/>
+    </row>
+    <row r="323" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
@@ -17257,8 +18642,12 @@
       <c r="AT323" s="2"/>
       <c r="AU323" s="2"/>
       <c r="AV323" s="2"/>
-    </row>
-    <row r="324" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW323" s="2"/>
+      <c r="AX323" s="2"/>
+      <c r="AY323" s="2"/>
+      <c r="AZ323" s="2"/>
+    </row>
+    <row r="324" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
@@ -17305,8 +18694,12 @@
       <c r="AT324" s="2"/>
       <c r="AU324" s="2"/>
       <c r="AV324" s="2"/>
-    </row>
-    <row r="325" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW324" s="2"/>
+      <c r="AX324" s="2"/>
+      <c r="AY324" s="2"/>
+      <c r="AZ324" s="2"/>
+    </row>
+    <row r="325" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
@@ -17353,8 +18746,12 @@
       <c r="AT325" s="2"/>
       <c r="AU325" s="2"/>
       <c r="AV325" s="2"/>
-    </row>
-    <row r="326" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW325" s="2"/>
+      <c r="AX325" s="2"/>
+      <c r="AY325" s="2"/>
+      <c r="AZ325" s="2"/>
+    </row>
+    <row r="326" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
@@ -17401,8 +18798,12 @@
       <c r="AT326" s="2"/>
       <c r="AU326" s="2"/>
       <c r="AV326" s="2"/>
-    </row>
-    <row r="327" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW326" s="2"/>
+      <c r="AX326" s="2"/>
+      <c r="AY326" s="2"/>
+      <c r="AZ326" s="2"/>
+    </row>
+    <row r="327" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
@@ -17449,8 +18850,12 @@
       <c r="AT327" s="2"/>
       <c r="AU327" s="2"/>
       <c r="AV327" s="2"/>
-    </row>
-    <row r="328" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW327" s="2"/>
+      <c r="AX327" s="2"/>
+      <c r="AY327" s="2"/>
+      <c r="AZ327" s="2"/>
+    </row>
+    <row r="328" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
@@ -17497,8 +18902,12 @@
       <c r="AT328" s="2"/>
       <c r="AU328" s="2"/>
       <c r="AV328" s="2"/>
-    </row>
-    <row r="329" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW328" s="2"/>
+      <c r="AX328" s="2"/>
+      <c r="AY328" s="2"/>
+      <c r="AZ328" s="2"/>
+    </row>
+    <row r="329" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
@@ -17545,8 +18954,12 @@
       <c r="AT329" s="2"/>
       <c r="AU329" s="2"/>
       <c r="AV329" s="2"/>
-    </row>
-    <row r="330" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW329" s="2"/>
+      <c r="AX329" s="2"/>
+      <c r="AY329" s="2"/>
+      <c r="AZ329" s="2"/>
+    </row>
+    <row r="330" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
@@ -17593,8 +19006,12 @@
       <c r="AT330" s="2"/>
       <c r="AU330" s="2"/>
       <c r="AV330" s="2"/>
-    </row>
-    <row r="331" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW330" s="2"/>
+      <c r="AX330" s="2"/>
+      <c r="AY330" s="2"/>
+      <c r="AZ330" s="2"/>
+    </row>
+    <row r="331" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
@@ -17641,8 +19058,12 @@
       <c r="AT331" s="2"/>
       <c r="AU331" s="2"/>
       <c r="AV331" s="2"/>
-    </row>
-    <row r="332" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW331" s="2"/>
+      <c r="AX331" s="2"/>
+      <c r="AY331" s="2"/>
+      <c r="AZ331" s="2"/>
+    </row>
+    <row r="332" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
@@ -17689,8 +19110,12 @@
       <c r="AT332" s="2"/>
       <c r="AU332" s="2"/>
       <c r="AV332" s="2"/>
-    </row>
-    <row r="333" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW332" s="2"/>
+      <c r="AX332" s="2"/>
+      <c r="AY332" s="2"/>
+      <c r="AZ332" s="2"/>
+    </row>
+    <row r="333" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
@@ -17737,8 +19162,12 @@
       <c r="AT333" s="2"/>
       <c r="AU333" s="2"/>
       <c r="AV333" s="2"/>
-    </row>
-    <row r="334" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW333" s="2"/>
+      <c r="AX333" s="2"/>
+      <c r="AY333" s="2"/>
+      <c r="AZ333" s="2"/>
+    </row>
+    <row r="334" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
@@ -17785,8 +19214,12 @@
       <c r="AT334" s="2"/>
       <c r="AU334" s="2"/>
       <c r="AV334" s="2"/>
-    </row>
-    <row r="335" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW334" s="2"/>
+      <c r="AX334" s="2"/>
+      <c r="AY334" s="2"/>
+      <c r="AZ334" s="2"/>
+    </row>
+    <row r="335" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
@@ -17833,8 +19266,12 @@
       <c r="AT335" s="2"/>
       <c r="AU335" s="2"/>
       <c r="AV335" s="2"/>
-    </row>
-    <row r="336" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW335" s="2"/>
+      <c r="AX335" s="2"/>
+      <c r="AY335" s="2"/>
+      <c r="AZ335" s="2"/>
+    </row>
+    <row r="336" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
@@ -17881,8 +19318,12 @@
       <c r="AT336" s="2"/>
       <c r="AU336" s="2"/>
       <c r="AV336" s="2"/>
-    </row>
-    <row r="337" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW336" s="2"/>
+      <c r="AX336" s="2"/>
+      <c r="AY336" s="2"/>
+      <c r="AZ336" s="2"/>
+    </row>
+    <row r="337" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
@@ -17929,8 +19370,12 @@
       <c r="AT337" s="2"/>
       <c r="AU337" s="2"/>
       <c r="AV337" s="2"/>
-    </row>
-    <row r="338" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW337" s="2"/>
+      <c r="AX337" s="2"/>
+      <c r="AY337" s="2"/>
+      <c r="AZ337" s="2"/>
+    </row>
+    <row r="338" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
@@ -17977,8 +19422,12 @@
       <c r="AT338" s="2"/>
       <c r="AU338" s="2"/>
       <c r="AV338" s="2"/>
-    </row>
-    <row r="339" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW338" s="2"/>
+      <c r="AX338" s="2"/>
+      <c r="AY338" s="2"/>
+      <c r="AZ338" s="2"/>
+    </row>
+    <row r="339" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
@@ -18025,8 +19474,12 @@
       <c r="AT339" s="2"/>
       <c r="AU339" s="2"/>
       <c r="AV339" s="2"/>
-    </row>
-    <row r="340" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW339" s="2"/>
+      <c r="AX339" s="2"/>
+      <c r="AY339" s="2"/>
+      <c r="AZ339" s="2"/>
+    </row>
+    <row r="340" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
@@ -18073,8 +19526,12 @@
       <c r="AT340" s="2"/>
       <c r="AU340" s="2"/>
       <c r="AV340" s="2"/>
-    </row>
-    <row r="341" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW340" s="2"/>
+      <c r="AX340" s="2"/>
+      <c r="AY340" s="2"/>
+      <c r="AZ340" s="2"/>
+    </row>
+    <row r="341" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
@@ -18121,8 +19578,12 @@
       <c r="AT341" s="2"/>
       <c r="AU341" s="2"/>
       <c r="AV341" s="2"/>
-    </row>
-    <row r="342" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW341" s="2"/>
+      <c r="AX341" s="2"/>
+      <c r="AY341" s="2"/>
+      <c r="AZ341" s="2"/>
+    </row>
+    <row r="342" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
@@ -18169,8 +19630,12 @@
       <c r="AT342" s="2"/>
       <c r="AU342" s="2"/>
       <c r="AV342" s="2"/>
-    </row>
-    <row r="343" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW342" s="2"/>
+      <c r="AX342" s="2"/>
+      <c r="AY342" s="2"/>
+      <c r="AZ342" s="2"/>
+    </row>
+    <row r="343" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
@@ -18217,8 +19682,12 @@
       <c r="AT343" s="2"/>
       <c r="AU343" s="2"/>
       <c r="AV343" s="2"/>
-    </row>
-    <row r="344" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW343" s="2"/>
+      <c r="AX343" s="2"/>
+      <c r="AY343" s="2"/>
+      <c r="AZ343" s="2"/>
+    </row>
+    <row r="344" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
@@ -18265,8 +19734,12 @@
       <c r="AT344" s="2"/>
       <c r="AU344" s="2"/>
       <c r="AV344" s="2"/>
-    </row>
-    <row r="345" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW344" s="2"/>
+      <c r="AX344" s="2"/>
+      <c r="AY344" s="2"/>
+      <c r="AZ344" s="2"/>
+    </row>
+    <row r="345" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
@@ -18313,8 +19786,12 @@
       <c r="AT345" s="2"/>
       <c r="AU345" s="2"/>
       <c r="AV345" s="2"/>
-    </row>
-    <row r="346" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW345" s="2"/>
+      <c r="AX345" s="2"/>
+      <c r="AY345" s="2"/>
+      <c r="AZ345" s="2"/>
+    </row>
+    <row r="346" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
@@ -18361,8 +19838,12 @@
       <c r="AT346" s="2"/>
       <c r="AU346" s="2"/>
       <c r="AV346" s="2"/>
-    </row>
-    <row r="347" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW346" s="2"/>
+      <c r="AX346" s="2"/>
+      <c r="AY346" s="2"/>
+      <c r="AZ346" s="2"/>
+    </row>
+    <row r="347" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
@@ -18409,8 +19890,12 @@
       <c r="AT347" s="2"/>
       <c r="AU347" s="2"/>
       <c r="AV347" s="2"/>
-    </row>
-    <row r="348" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW347" s="2"/>
+      <c r="AX347" s="2"/>
+      <c r="AY347" s="2"/>
+      <c r="AZ347" s="2"/>
+    </row>
+    <row r="348" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
@@ -18457,8 +19942,12 @@
       <c r="AT348" s="2"/>
       <c r="AU348" s="2"/>
       <c r="AV348" s="2"/>
-    </row>
-    <row r="349" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW348" s="2"/>
+      <c r="AX348" s="2"/>
+      <c r="AY348" s="2"/>
+      <c r="AZ348" s="2"/>
+    </row>
+    <row r="349" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
@@ -18505,8 +19994,12 @@
       <c r="AT349" s="2"/>
       <c r="AU349" s="2"/>
       <c r="AV349" s="2"/>
-    </row>
-    <row r="350" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW349" s="2"/>
+      <c r="AX349" s="2"/>
+      <c r="AY349" s="2"/>
+      <c r="AZ349" s="2"/>
+    </row>
+    <row r="350" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
@@ -18553,8 +20046,12 @@
       <c r="AT350" s="2"/>
       <c r="AU350" s="2"/>
       <c r="AV350" s="2"/>
-    </row>
-    <row r="351" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW350" s="2"/>
+      <c r="AX350" s="2"/>
+      <c r="AY350" s="2"/>
+      <c r="AZ350" s="2"/>
+    </row>
+    <row r="351" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
@@ -18601,8 +20098,12 @@
       <c r="AT351" s="2"/>
       <c r="AU351" s="2"/>
       <c r="AV351" s="2"/>
-    </row>
-    <row r="352" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW351" s="2"/>
+      <c r="AX351" s="2"/>
+      <c r="AY351" s="2"/>
+      <c r="AZ351" s="2"/>
+    </row>
+    <row r="352" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
@@ -18649,8 +20150,12 @@
       <c r="AT352" s="2"/>
       <c r="AU352" s="2"/>
       <c r="AV352" s="2"/>
-    </row>
-    <row r="353" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW352" s="2"/>
+      <c r="AX352" s="2"/>
+      <c r="AY352" s="2"/>
+      <c r="AZ352" s="2"/>
+    </row>
+    <row r="353" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
@@ -18697,8 +20202,12 @@
       <c r="AT353" s="2"/>
       <c r="AU353" s="2"/>
       <c r="AV353" s="2"/>
-    </row>
-    <row r="354" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW353" s="2"/>
+      <c r="AX353" s="2"/>
+      <c r="AY353" s="2"/>
+      <c r="AZ353" s="2"/>
+    </row>
+    <row r="354" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
@@ -18745,8 +20254,12 @@
       <c r="AT354" s="2"/>
       <c r="AU354" s="2"/>
       <c r="AV354" s="2"/>
-    </row>
-    <row r="355" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW354" s="2"/>
+      <c r="AX354" s="2"/>
+      <c r="AY354" s="2"/>
+      <c r="AZ354" s="2"/>
+    </row>
+    <row r="355" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
@@ -18793,8 +20306,12 @@
       <c r="AT355" s="2"/>
       <c r="AU355" s="2"/>
       <c r="AV355" s="2"/>
-    </row>
-    <row r="356" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW355" s="2"/>
+      <c r="AX355" s="2"/>
+      <c r="AY355" s="2"/>
+      <c r="AZ355" s="2"/>
+    </row>
+    <row r="356" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
@@ -18841,8 +20358,12 @@
       <c r="AT356" s="2"/>
       <c r="AU356" s="2"/>
       <c r="AV356" s="2"/>
-    </row>
-    <row r="357" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW356" s="2"/>
+      <c r="AX356" s="2"/>
+      <c r="AY356" s="2"/>
+      <c r="AZ356" s="2"/>
+    </row>
+    <row r="357" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
@@ -18889,8 +20410,12 @@
       <c r="AT357" s="2"/>
       <c r="AU357" s="2"/>
       <c r="AV357" s="2"/>
-    </row>
-    <row r="358" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW357" s="2"/>
+      <c r="AX357" s="2"/>
+      <c r="AY357" s="2"/>
+      <c r="AZ357" s="2"/>
+    </row>
+    <row r="358" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
       <c r="E358" s="2"/>
@@ -18937,8 +20462,12 @@
       <c r="AT358" s="2"/>
       <c r="AU358" s="2"/>
       <c r="AV358" s="2"/>
-    </row>
-    <row r="359" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW358" s="2"/>
+      <c r="AX358" s="2"/>
+      <c r="AY358" s="2"/>
+      <c r="AZ358" s="2"/>
+    </row>
+    <row r="359" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
       <c r="E359" s="2"/>
@@ -18985,8 +20514,12 @@
       <c r="AT359" s="2"/>
       <c r="AU359" s="2"/>
       <c r="AV359" s="2"/>
-    </row>
-    <row r="360" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW359" s="2"/>
+      <c r="AX359" s="2"/>
+      <c r="AY359" s="2"/>
+      <c r="AZ359" s="2"/>
+    </row>
+    <row r="360" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
       <c r="E360" s="2"/>
@@ -19033,8 +20566,12 @@
       <c r="AT360" s="2"/>
       <c r="AU360" s="2"/>
       <c r="AV360" s="2"/>
-    </row>
-    <row r="361" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW360" s="2"/>
+      <c r="AX360" s="2"/>
+      <c r="AY360" s="2"/>
+      <c r="AZ360" s="2"/>
+    </row>
+    <row r="361" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
       <c r="E361" s="2"/>
@@ -19081,8 +20618,12 @@
       <c r="AT361" s="2"/>
       <c r="AU361" s="2"/>
       <c r="AV361" s="2"/>
-    </row>
-    <row r="362" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW361" s="2"/>
+      <c r="AX361" s="2"/>
+      <c r="AY361" s="2"/>
+      <c r="AZ361" s="2"/>
+    </row>
+    <row r="362" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
       <c r="E362" s="2"/>
@@ -19129,8 +20670,12 @@
       <c r="AT362" s="2"/>
       <c r="AU362" s="2"/>
       <c r="AV362" s="2"/>
-    </row>
-    <row r="363" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW362" s="2"/>
+      <c r="AX362" s="2"/>
+      <c r="AY362" s="2"/>
+      <c r="AZ362" s="2"/>
+    </row>
+    <row r="363" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
       <c r="E363" s="2"/>
@@ -19177,8 +20722,12 @@
       <c r="AT363" s="2"/>
       <c r="AU363" s="2"/>
       <c r="AV363" s="2"/>
-    </row>
-    <row r="364" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW363" s="2"/>
+      <c r="AX363" s="2"/>
+      <c r="AY363" s="2"/>
+      <c r="AZ363" s="2"/>
+    </row>
+    <row r="364" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
       <c r="E364" s="2"/>
@@ -19225,8 +20774,12 @@
       <c r="AT364" s="2"/>
       <c r="AU364" s="2"/>
       <c r="AV364" s="2"/>
-    </row>
-    <row r="365" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW364" s="2"/>
+      <c r="AX364" s="2"/>
+      <c r="AY364" s="2"/>
+      <c r="AZ364" s="2"/>
+    </row>
+    <row r="365" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
       <c r="E365" s="2"/>
@@ -19273,8 +20826,12 @@
       <c r="AT365" s="2"/>
       <c r="AU365" s="2"/>
       <c r="AV365" s="2"/>
-    </row>
-    <row r="366" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW365" s="2"/>
+      <c r="AX365" s="2"/>
+      <c r="AY365" s="2"/>
+      <c r="AZ365" s="2"/>
+    </row>
+    <row r="366" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
       <c r="E366" s="2"/>
@@ -19321,8 +20878,12 @@
       <c r="AT366" s="2"/>
       <c r="AU366" s="2"/>
       <c r="AV366" s="2"/>
-    </row>
-    <row r="367" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW366" s="2"/>
+      <c r="AX366" s="2"/>
+      <c r="AY366" s="2"/>
+      <c r="AZ366" s="2"/>
+    </row>
+    <row r="367" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
       <c r="E367" s="2"/>
@@ -19369,8 +20930,12 @@
       <c r="AT367" s="2"/>
       <c r="AU367" s="2"/>
       <c r="AV367" s="2"/>
-    </row>
-    <row r="368" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW367" s="2"/>
+      <c r="AX367" s="2"/>
+      <c r="AY367" s="2"/>
+      <c r="AZ367" s="2"/>
+    </row>
+    <row r="368" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
       <c r="E368" s="2"/>
@@ -19417,8 +20982,12 @@
       <c r="AT368" s="2"/>
       <c r="AU368" s="2"/>
       <c r="AV368" s="2"/>
-    </row>
-    <row r="369" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW368" s="2"/>
+      <c r="AX368" s="2"/>
+      <c r="AY368" s="2"/>
+      <c r="AZ368" s="2"/>
+    </row>
+    <row r="369" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
       <c r="E369" s="2"/>
@@ -19465,8 +21034,12 @@
       <c r="AT369" s="2"/>
       <c r="AU369" s="2"/>
       <c r="AV369" s="2"/>
-    </row>
-    <row r="370" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW369" s="2"/>
+      <c r="AX369" s="2"/>
+      <c r="AY369" s="2"/>
+      <c r="AZ369" s="2"/>
+    </row>
+    <row r="370" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
       <c r="E370" s="2"/>
@@ -19513,8 +21086,12 @@
       <c r="AT370" s="2"/>
       <c r="AU370" s="2"/>
       <c r="AV370" s="2"/>
-    </row>
-    <row r="371" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW370" s="2"/>
+      <c r="AX370" s="2"/>
+      <c r="AY370" s="2"/>
+      <c r="AZ370" s="2"/>
+    </row>
+    <row r="371" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
       <c r="E371" s="2"/>
@@ -19561,8 +21138,12 @@
       <c r="AT371" s="2"/>
       <c r="AU371" s="2"/>
       <c r="AV371" s="2"/>
-    </row>
-    <row r="372" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW371" s="2"/>
+      <c r="AX371" s="2"/>
+      <c r="AY371" s="2"/>
+      <c r="AZ371" s="2"/>
+    </row>
+    <row r="372" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
       <c r="E372" s="2"/>
@@ -19609,8 +21190,12 @@
       <c r="AT372" s="2"/>
       <c r="AU372" s="2"/>
       <c r="AV372" s="2"/>
-    </row>
-    <row r="373" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW372" s="2"/>
+      <c r="AX372" s="2"/>
+      <c r="AY372" s="2"/>
+      <c r="AZ372" s="2"/>
+    </row>
+    <row r="373" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
       <c r="E373" s="2"/>
@@ -19657,8 +21242,12 @@
       <c r="AT373" s="2"/>
       <c r="AU373" s="2"/>
       <c r="AV373" s="2"/>
-    </row>
-    <row r="374" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW373" s="2"/>
+      <c r="AX373" s="2"/>
+      <c r="AY373" s="2"/>
+      <c r="AZ373" s="2"/>
+    </row>
+    <row r="374" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
       <c r="E374" s="2"/>
@@ -19705,8 +21294,12 @@
       <c r="AT374" s="2"/>
       <c r="AU374" s="2"/>
       <c r="AV374" s="2"/>
-    </row>
-    <row r="375" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW374" s="2"/>
+      <c r="AX374" s="2"/>
+      <c r="AY374" s="2"/>
+      <c r="AZ374" s="2"/>
+    </row>
+    <row r="375" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
       <c r="E375" s="2"/>
@@ -19753,8 +21346,12 @@
       <c r="AT375" s="2"/>
       <c r="AU375" s="2"/>
       <c r="AV375" s="2"/>
-    </row>
-    <row r="376" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW375" s="2"/>
+      <c r="AX375" s="2"/>
+      <c r="AY375" s="2"/>
+      <c r="AZ375" s="2"/>
+    </row>
+    <row r="376" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
       <c r="E376" s="2"/>
@@ -19801,8 +21398,12 @@
       <c r="AT376" s="2"/>
       <c r="AU376" s="2"/>
       <c r="AV376" s="2"/>
-    </row>
-    <row r="377" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW376" s="2"/>
+      <c r="AX376" s="2"/>
+      <c r="AY376" s="2"/>
+      <c r="AZ376" s="2"/>
+    </row>
+    <row r="377" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
       <c r="E377" s="2"/>
@@ -19849,8 +21450,12 @@
       <c r="AT377" s="2"/>
       <c r="AU377" s="2"/>
       <c r="AV377" s="2"/>
-    </row>
-    <row r="378" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW377" s="2"/>
+      <c r="AX377" s="2"/>
+      <c r="AY377" s="2"/>
+      <c r="AZ377" s="2"/>
+    </row>
+    <row r="378" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
       <c r="E378" s="2"/>
@@ -19897,8 +21502,12 @@
       <c r="AT378" s="2"/>
       <c r="AU378" s="2"/>
       <c r="AV378" s="2"/>
-    </row>
-    <row r="379" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW378" s="2"/>
+      <c r="AX378" s="2"/>
+      <c r="AY378" s="2"/>
+      <c r="AZ378" s="2"/>
+    </row>
+    <row r="379" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
       <c r="E379" s="2"/>
@@ -19945,8 +21554,12 @@
       <c r="AT379" s="2"/>
       <c r="AU379" s="2"/>
       <c r="AV379" s="2"/>
-    </row>
-    <row r="380" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW379" s="2"/>
+      <c r="AX379" s="2"/>
+      <c r="AY379" s="2"/>
+      <c r="AZ379" s="2"/>
+    </row>
+    <row r="380" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
       <c r="E380" s="2"/>
@@ -19993,8 +21606,12 @@
       <c r="AT380" s="2"/>
       <c r="AU380" s="2"/>
       <c r="AV380" s="2"/>
-    </row>
-    <row r="381" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW380" s="2"/>
+      <c r="AX380" s="2"/>
+      <c r="AY380" s="2"/>
+      <c r="AZ380" s="2"/>
+    </row>
+    <row r="381" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
       <c r="E381" s="2"/>
@@ -20041,8 +21658,12 @@
       <c r="AT381" s="2"/>
       <c r="AU381" s="2"/>
       <c r="AV381" s="2"/>
-    </row>
-    <row r="382" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW381" s="2"/>
+      <c r="AX381" s="2"/>
+      <c r="AY381" s="2"/>
+      <c r="AZ381" s="2"/>
+    </row>
+    <row r="382" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
       <c r="E382" s="2"/>
@@ -20089,8 +21710,12 @@
       <c r="AT382" s="2"/>
       <c r="AU382" s="2"/>
       <c r="AV382" s="2"/>
-    </row>
-    <row r="383" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW382" s="2"/>
+      <c r="AX382" s="2"/>
+      <c r="AY382" s="2"/>
+      <c r="AZ382" s="2"/>
+    </row>
+    <row r="383" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
       <c r="E383" s="2"/>
@@ -20137,8 +21762,12 @@
       <c r="AT383" s="2"/>
       <c r="AU383" s="2"/>
       <c r="AV383" s="2"/>
-    </row>
-    <row r="384" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW383" s="2"/>
+      <c r="AX383" s="2"/>
+      <c r="AY383" s="2"/>
+      <c r="AZ383" s="2"/>
+    </row>
+    <row r="384" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
       <c r="E384" s="2"/>
@@ -20185,8 +21814,12 @@
       <c r="AT384" s="2"/>
       <c r="AU384" s="2"/>
       <c r="AV384" s="2"/>
-    </row>
-    <row r="385" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW384" s="2"/>
+      <c r="AX384" s="2"/>
+      <c r="AY384" s="2"/>
+      <c r="AZ384" s="2"/>
+    </row>
+    <row r="385" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
       <c r="E385" s="2"/>
@@ -20233,8 +21866,12 @@
       <c r="AT385" s="2"/>
       <c r="AU385" s="2"/>
       <c r="AV385" s="2"/>
-    </row>
-    <row r="386" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW385" s="2"/>
+      <c r="AX385" s="2"/>
+      <c r="AY385" s="2"/>
+      <c r="AZ385" s="2"/>
+    </row>
+    <row r="386" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
       <c r="E386" s="2"/>
@@ -20281,8 +21918,12 @@
       <c r="AT386" s="2"/>
       <c r="AU386" s="2"/>
       <c r="AV386" s="2"/>
-    </row>
-    <row r="387" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW386" s="2"/>
+      <c r="AX386" s="2"/>
+      <c r="AY386" s="2"/>
+      <c r="AZ386" s="2"/>
+    </row>
+    <row r="387" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
       <c r="E387" s="2"/>
@@ -20329,8 +21970,12 @@
       <c r="AT387" s="2"/>
       <c r="AU387" s="2"/>
       <c r="AV387" s="2"/>
-    </row>
-    <row r="388" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW387" s="2"/>
+      <c r="AX387" s="2"/>
+      <c r="AY387" s="2"/>
+      <c r="AZ387" s="2"/>
+    </row>
+    <row r="388" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
       <c r="E388" s="2"/>
@@ -20377,8 +22022,12 @@
       <c r="AT388" s="2"/>
       <c r="AU388" s="2"/>
       <c r="AV388" s="2"/>
-    </row>
-    <row r="389" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW388" s="2"/>
+      <c r="AX388" s="2"/>
+      <c r="AY388" s="2"/>
+      <c r="AZ388" s="2"/>
+    </row>
+    <row r="389" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
       <c r="E389" s="2"/>
@@ -20425,8 +22074,12 @@
       <c r="AT389" s="2"/>
       <c r="AU389" s="2"/>
       <c r="AV389" s="2"/>
-    </row>
-    <row r="390" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW389" s="2"/>
+      <c r="AX389" s="2"/>
+      <c r="AY389" s="2"/>
+      <c r="AZ389" s="2"/>
+    </row>
+    <row r="390" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
       <c r="E390" s="2"/>
@@ -20473,8 +22126,12 @@
       <c r="AT390" s="2"/>
       <c r="AU390" s="2"/>
       <c r="AV390" s="2"/>
-    </row>
-    <row r="391" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW390" s="2"/>
+      <c r="AX390" s="2"/>
+      <c r="AY390" s="2"/>
+      <c r="AZ390" s="2"/>
+    </row>
+    <row r="391" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
       <c r="E391" s="2"/>
@@ -20521,8 +22178,12 @@
       <c r="AT391" s="2"/>
       <c r="AU391" s="2"/>
       <c r="AV391" s="2"/>
-    </row>
-    <row r="392" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW391" s="2"/>
+      <c r="AX391" s="2"/>
+      <c r="AY391" s="2"/>
+      <c r="AZ391" s="2"/>
+    </row>
+    <row r="392" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
       <c r="E392" s="2"/>
@@ -20569,8 +22230,12 @@
       <c r="AT392" s="2"/>
       <c r="AU392" s="2"/>
       <c r="AV392" s="2"/>
-    </row>
-    <row r="393" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW392" s="2"/>
+      <c r="AX392" s="2"/>
+      <c r="AY392" s="2"/>
+      <c r="AZ392" s="2"/>
+    </row>
+    <row r="393" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
       <c r="E393" s="2"/>
@@ -20617,8 +22282,12 @@
       <c r="AT393" s="2"/>
       <c r="AU393" s="2"/>
       <c r="AV393" s="2"/>
-    </row>
-    <row r="394" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW393" s="2"/>
+      <c r="AX393" s="2"/>
+      <c r="AY393" s="2"/>
+      <c r="AZ393" s="2"/>
+    </row>
+    <row r="394" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
       <c r="E394" s="2"/>
@@ -20665,8 +22334,12 @@
       <c r="AT394" s="2"/>
       <c r="AU394" s="2"/>
       <c r="AV394" s="2"/>
-    </row>
-    <row r="395" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW394" s="2"/>
+      <c r="AX394" s="2"/>
+      <c r="AY394" s="2"/>
+      <c r="AZ394" s="2"/>
+    </row>
+    <row r="395" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
       <c r="E395" s="2"/>
@@ -20713,8 +22386,12 @@
       <c r="AT395" s="2"/>
       <c r="AU395" s="2"/>
       <c r="AV395" s="2"/>
-    </row>
-    <row r="396" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW395" s="2"/>
+      <c r="AX395" s="2"/>
+      <c r="AY395" s="2"/>
+      <c r="AZ395" s="2"/>
+    </row>
+    <row r="396" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
       <c r="E396" s="2"/>
@@ -20761,8 +22438,12 @@
       <c r="AT396" s="2"/>
       <c r="AU396" s="2"/>
       <c r="AV396" s="2"/>
-    </row>
-    <row r="397" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW396" s="2"/>
+      <c r="AX396" s="2"/>
+      <c r="AY396" s="2"/>
+      <c r="AZ396" s="2"/>
+    </row>
+    <row r="397" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
       <c r="E397" s="2"/>
@@ -20809,8 +22490,12 @@
       <c r="AT397" s="2"/>
       <c r="AU397" s="2"/>
       <c r="AV397" s="2"/>
-    </row>
-    <row r="398" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW397" s="2"/>
+      <c r="AX397" s="2"/>
+      <c r="AY397" s="2"/>
+      <c r="AZ397" s="2"/>
+    </row>
+    <row r="398" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
       <c r="E398" s="2"/>
@@ -20857,8 +22542,12 @@
       <c r="AT398" s="2"/>
       <c r="AU398" s="2"/>
       <c r="AV398" s="2"/>
-    </row>
-    <row r="399" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW398" s="2"/>
+      <c r="AX398" s="2"/>
+      <c r="AY398" s="2"/>
+      <c r="AZ398" s="2"/>
+    </row>
+    <row r="399" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
       <c r="E399" s="2"/>
@@ -20905,8 +22594,12 @@
       <c r="AT399" s="2"/>
       <c r="AU399" s="2"/>
       <c r="AV399" s="2"/>
-    </row>
-    <row r="400" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW399" s="2"/>
+      <c r="AX399" s="2"/>
+      <c r="AY399" s="2"/>
+      <c r="AZ399" s="2"/>
+    </row>
+    <row r="400" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
       <c r="E400" s="2"/>
@@ -20953,8 +22646,12 @@
       <c r="AT400" s="2"/>
       <c r="AU400" s="2"/>
       <c r="AV400" s="2"/>
-    </row>
-    <row r="401" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW400" s="2"/>
+      <c r="AX400" s="2"/>
+      <c r="AY400" s="2"/>
+      <c r="AZ400" s="2"/>
+    </row>
+    <row r="401" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
       <c r="E401" s="2"/>
@@ -21001,8 +22698,12 @@
       <c r="AT401" s="2"/>
       <c r="AU401" s="2"/>
       <c r="AV401" s="2"/>
-    </row>
-    <row r="402" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW401" s="2"/>
+      <c r="AX401" s="2"/>
+      <c r="AY401" s="2"/>
+      <c r="AZ401" s="2"/>
+    </row>
+    <row r="402" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
       <c r="E402" s="2"/>
@@ -21049,8 +22750,12 @@
       <c r="AT402" s="2"/>
       <c r="AU402" s="2"/>
       <c r="AV402" s="2"/>
-    </row>
-    <row r="403" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW402" s="2"/>
+      <c r="AX402" s="2"/>
+      <c r="AY402" s="2"/>
+      <c r="AZ402" s="2"/>
+    </row>
+    <row r="403" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
       <c r="E403" s="2"/>
@@ -21097,8 +22802,12 @@
       <c r="AT403" s="2"/>
       <c r="AU403" s="2"/>
       <c r="AV403" s="2"/>
-    </row>
-    <row r="404" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW403" s="2"/>
+      <c r="AX403" s="2"/>
+      <c r="AY403" s="2"/>
+      <c r="AZ403" s="2"/>
+    </row>
+    <row r="404" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
       <c r="E404" s="2"/>
@@ -21145,8 +22854,12 @@
       <c r="AT404" s="2"/>
       <c r="AU404" s="2"/>
       <c r="AV404" s="2"/>
-    </row>
-    <row r="405" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW404" s="2"/>
+      <c r="AX404" s="2"/>
+      <c r="AY404" s="2"/>
+      <c r="AZ404" s="2"/>
+    </row>
+    <row r="405" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
       <c r="E405" s="2"/>
@@ -21193,8 +22906,12 @@
       <c r="AT405" s="2"/>
       <c r="AU405" s="2"/>
       <c r="AV405" s="2"/>
-    </row>
-    <row r="406" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW405" s="2"/>
+      <c r="AX405" s="2"/>
+      <c r="AY405" s="2"/>
+      <c r="AZ405" s="2"/>
+    </row>
+    <row r="406" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
       <c r="E406" s="2"/>
@@ -21241,8 +22958,12 @@
       <c r="AT406" s="2"/>
       <c r="AU406" s="2"/>
       <c r="AV406" s="2"/>
-    </row>
-    <row r="407" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW406" s="2"/>
+      <c r="AX406" s="2"/>
+      <c r="AY406" s="2"/>
+      <c r="AZ406" s="2"/>
+    </row>
+    <row r="407" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
       <c r="E407" s="2"/>
@@ -21289,8 +23010,12 @@
       <c r="AT407" s="2"/>
       <c r="AU407" s="2"/>
       <c r="AV407" s="2"/>
-    </row>
-    <row r="408" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW407" s="2"/>
+      <c r="AX407" s="2"/>
+      <c r="AY407" s="2"/>
+      <c r="AZ407" s="2"/>
+    </row>
+    <row r="408" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
       <c r="E408" s="2"/>
@@ -21337,8 +23062,12 @@
       <c r="AT408" s="2"/>
       <c r="AU408" s="2"/>
       <c r="AV408" s="2"/>
-    </row>
-    <row r="409" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW408" s="2"/>
+      <c r="AX408" s="2"/>
+      <c r="AY408" s="2"/>
+      <c r="AZ408" s="2"/>
+    </row>
+    <row r="409" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
       <c r="E409" s="2"/>
@@ -21385,8 +23114,12 @@
       <c r="AT409" s="2"/>
       <c r="AU409" s="2"/>
       <c r="AV409" s="2"/>
-    </row>
-    <row r="410" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW409" s="2"/>
+      <c r="AX409" s="2"/>
+      <c r="AY409" s="2"/>
+      <c r="AZ409" s="2"/>
+    </row>
+    <row r="410" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
       <c r="E410" s="2"/>
@@ -21433,8 +23166,12 @@
       <c r="AT410" s="2"/>
       <c r="AU410" s="2"/>
       <c r="AV410" s="2"/>
-    </row>
-    <row r="411" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW410" s="2"/>
+      <c r="AX410" s="2"/>
+      <c r="AY410" s="2"/>
+      <c r="AZ410" s="2"/>
+    </row>
+    <row r="411" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
       <c r="E411" s="2"/>
@@ -21481,8 +23218,12 @@
       <c r="AT411" s="2"/>
       <c r="AU411" s="2"/>
       <c r="AV411" s="2"/>
-    </row>
-    <row r="412" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW411" s="2"/>
+      <c r="AX411" s="2"/>
+      <c r="AY411" s="2"/>
+      <c r="AZ411" s="2"/>
+    </row>
+    <row r="412" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
       <c r="E412" s="2"/>
@@ -21529,8 +23270,12 @@
       <c r="AT412" s="2"/>
       <c r="AU412" s="2"/>
       <c r="AV412" s="2"/>
-    </row>
-    <row r="413" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW412" s="2"/>
+      <c r="AX412" s="2"/>
+      <c r="AY412" s="2"/>
+      <c r="AZ412" s="2"/>
+    </row>
+    <row r="413" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
       <c r="E413" s="2"/>
@@ -21577,8 +23322,12 @@
       <c r="AT413" s="2"/>
       <c r="AU413" s="2"/>
       <c r="AV413" s="2"/>
-    </row>
-    <row r="414" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW413" s="2"/>
+      <c r="AX413" s="2"/>
+      <c r="AY413" s="2"/>
+      <c r="AZ413" s="2"/>
+    </row>
+    <row r="414" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
       <c r="E414" s="2"/>
@@ -21625,8 +23374,12 @@
       <c r="AT414" s="2"/>
       <c r="AU414" s="2"/>
       <c r="AV414" s="2"/>
-    </row>
-    <row r="415" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW414" s="2"/>
+      <c r="AX414" s="2"/>
+      <c r="AY414" s="2"/>
+      <c r="AZ414" s="2"/>
+    </row>
+    <row r="415" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
       <c r="E415" s="2"/>
@@ -21673,8 +23426,12 @@
       <c r="AT415" s="2"/>
       <c r="AU415" s="2"/>
       <c r="AV415" s="2"/>
-    </row>
-    <row r="416" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW415" s="2"/>
+      <c r="AX415" s="2"/>
+      <c r="AY415" s="2"/>
+      <c r="AZ415" s="2"/>
+    </row>
+    <row r="416" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
       <c r="E416" s="2"/>
@@ -21721,8 +23478,12 @@
       <c r="AT416" s="2"/>
       <c r="AU416" s="2"/>
       <c r="AV416" s="2"/>
-    </row>
-    <row r="417" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW416" s="2"/>
+      <c r="AX416" s="2"/>
+      <c r="AY416" s="2"/>
+      <c r="AZ416" s="2"/>
+    </row>
+    <row r="417" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
       <c r="E417" s="2"/>
@@ -21769,8 +23530,12 @@
       <c r="AT417" s="2"/>
       <c r="AU417" s="2"/>
       <c r="AV417" s="2"/>
-    </row>
-    <row r="418" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW417" s="2"/>
+      <c r="AX417" s="2"/>
+      <c r="AY417" s="2"/>
+      <c r="AZ417" s="2"/>
+    </row>
+    <row r="418" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
       <c r="E418" s="2"/>
@@ -21817,8 +23582,12 @@
       <c r="AT418" s="2"/>
       <c r="AU418" s="2"/>
       <c r="AV418" s="2"/>
-    </row>
-    <row r="419" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW418" s="2"/>
+      <c r="AX418" s="2"/>
+      <c r="AY418" s="2"/>
+      <c r="AZ418" s="2"/>
+    </row>
+    <row r="419" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
       <c r="E419" s="2"/>
@@ -21865,8 +23634,12 @@
       <c r="AT419" s="2"/>
       <c r="AU419" s="2"/>
       <c r="AV419" s="2"/>
-    </row>
-    <row r="420" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW419" s="2"/>
+      <c r="AX419" s="2"/>
+      <c r="AY419" s="2"/>
+      <c r="AZ419" s="2"/>
+    </row>
+    <row r="420" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
       <c r="E420" s="2"/>
@@ -21913,8 +23686,12 @@
       <c r="AT420" s="2"/>
       <c r="AU420" s="2"/>
       <c r="AV420" s="2"/>
-    </row>
-    <row r="421" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW420" s="2"/>
+      <c r="AX420" s="2"/>
+      <c r="AY420" s="2"/>
+      <c r="AZ420" s="2"/>
+    </row>
+    <row r="421" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
       <c r="E421" s="2"/>
@@ -21961,8 +23738,12 @@
       <c r="AT421" s="2"/>
       <c r="AU421" s="2"/>
       <c r="AV421" s="2"/>
-    </row>
-    <row r="422" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW421" s="2"/>
+      <c r="AX421" s="2"/>
+      <c r="AY421" s="2"/>
+      <c r="AZ421" s="2"/>
+    </row>
+    <row r="422" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
       <c r="E422" s="2"/>
@@ -22009,8 +23790,12 @@
       <c r="AT422" s="2"/>
       <c r="AU422" s="2"/>
       <c r="AV422" s="2"/>
-    </row>
-    <row r="423" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW422" s="2"/>
+      <c r="AX422" s="2"/>
+      <c r="AY422" s="2"/>
+      <c r="AZ422" s="2"/>
+    </row>
+    <row r="423" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
       <c r="E423" s="2"/>
@@ -22057,8 +23842,12 @@
       <c r="AT423" s="2"/>
       <c r="AU423" s="2"/>
       <c r="AV423" s="2"/>
-    </row>
-    <row r="424" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW423" s="2"/>
+      <c r="AX423" s="2"/>
+      <c r="AY423" s="2"/>
+      <c r="AZ423" s="2"/>
+    </row>
+    <row r="424" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
       <c r="E424" s="2"/>
@@ -22105,8 +23894,12 @@
       <c r="AT424" s="2"/>
       <c r="AU424" s="2"/>
       <c r="AV424" s="2"/>
-    </row>
-    <row r="425" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW424" s="2"/>
+      <c r="AX424" s="2"/>
+      <c r="AY424" s="2"/>
+      <c r="AZ424" s="2"/>
+    </row>
+    <row r="425" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
       <c r="E425" s="2"/>
@@ -22153,8 +23946,12 @@
       <c r="AT425" s="2"/>
       <c r="AU425" s="2"/>
       <c r="AV425" s="2"/>
-    </row>
-    <row r="426" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW425" s="2"/>
+      <c r="AX425" s="2"/>
+      <c r="AY425" s="2"/>
+      <c r="AZ425" s="2"/>
+    </row>
+    <row r="426" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
       <c r="E426" s="2"/>
@@ -22201,8 +23998,12 @@
       <c r="AT426" s="2"/>
       <c r="AU426" s="2"/>
       <c r="AV426" s="2"/>
-    </row>
-    <row r="427" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW426" s="2"/>
+      <c r="AX426" s="2"/>
+      <c r="AY426" s="2"/>
+      <c r="AZ426" s="2"/>
+    </row>
+    <row r="427" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
       <c r="E427" s="2"/>
@@ -22249,8 +24050,12 @@
       <c r="AT427" s="2"/>
       <c r="AU427" s="2"/>
       <c r="AV427" s="2"/>
-    </row>
-    <row r="428" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW427" s="2"/>
+      <c r="AX427" s="2"/>
+      <c r="AY427" s="2"/>
+      <c r="AZ427" s="2"/>
+    </row>
+    <row r="428" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
       <c r="E428" s="2"/>
@@ -22297,8 +24102,12 @@
       <c r="AT428" s="2"/>
       <c r="AU428" s="2"/>
       <c r="AV428" s="2"/>
-    </row>
-    <row r="429" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW428" s="2"/>
+      <c r="AX428" s="2"/>
+      <c r="AY428" s="2"/>
+      <c r="AZ428" s="2"/>
+    </row>
+    <row r="429" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
       <c r="E429" s="2"/>
@@ -22345,8 +24154,12 @@
       <c r="AT429" s="2"/>
       <c r="AU429" s="2"/>
       <c r="AV429" s="2"/>
-    </row>
-    <row r="430" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW429" s="2"/>
+      <c r="AX429" s="2"/>
+      <c r="AY429" s="2"/>
+      <c r="AZ429" s="2"/>
+    </row>
+    <row r="430" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
       <c r="E430" s="2"/>
@@ -22393,8 +24206,12 @@
       <c r="AT430" s="2"/>
       <c r="AU430" s="2"/>
       <c r="AV430" s="2"/>
-    </row>
-    <row r="431" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW430" s="2"/>
+      <c r="AX430" s="2"/>
+      <c r="AY430" s="2"/>
+      <c r="AZ430" s="2"/>
+    </row>
+    <row r="431" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
       <c r="E431" s="2"/>
@@ -22441,8 +24258,12 @@
       <c r="AT431" s="2"/>
       <c r="AU431" s="2"/>
       <c r="AV431" s="2"/>
-    </row>
-    <row r="432" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW431" s="2"/>
+      <c r="AX431" s="2"/>
+      <c r="AY431" s="2"/>
+      <c r="AZ431" s="2"/>
+    </row>
+    <row r="432" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
       <c r="E432" s="2"/>
@@ -22489,8 +24310,12 @@
       <c r="AT432" s="2"/>
       <c r="AU432" s="2"/>
       <c r="AV432" s="2"/>
-    </row>
-    <row r="433" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW432" s="2"/>
+      <c r="AX432" s="2"/>
+      <c r="AY432" s="2"/>
+      <c r="AZ432" s="2"/>
+    </row>
+    <row r="433" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
       <c r="E433" s="2"/>
@@ -22537,8 +24362,12 @@
       <c r="AT433" s="2"/>
       <c r="AU433" s="2"/>
       <c r="AV433" s="2"/>
-    </row>
-    <row r="434" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW433" s="2"/>
+      <c r="AX433" s="2"/>
+      <c r="AY433" s="2"/>
+      <c r="AZ433" s="2"/>
+    </row>
+    <row r="434" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
       <c r="E434" s="2"/>
@@ -22585,8 +24414,12 @@
       <c r="AT434" s="2"/>
       <c r="AU434" s="2"/>
       <c r="AV434" s="2"/>
-    </row>
-    <row r="435" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW434" s="2"/>
+      <c r="AX434" s="2"/>
+      <c r="AY434" s="2"/>
+      <c r="AZ434" s="2"/>
+    </row>
+    <row r="435" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
       <c r="E435" s="2"/>
@@ -22633,8 +24466,12 @@
       <c r="AT435" s="2"/>
       <c r="AU435" s="2"/>
       <c r="AV435" s="2"/>
-    </row>
-    <row r="436" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW435" s="2"/>
+      <c r="AX435" s="2"/>
+      <c r="AY435" s="2"/>
+      <c r="AZ435" s="2"/>
+    </row>
+    <row r="436" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
       <c r="E436" s="2"/>
@@ -22681,8 +24518,12 @@
       <c r="AT436" s="2"/>
       <c r="AU436" s="2"/>
       <c r="AV436" s="2"/>
-    </row>
-    <row r="437" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW436" s="2"/>
+      <c r="AX436" s="2"/>
+      <c r="AY436" s="2"/>
+      <c r="AZ436" s="2"/>
+    </row>
+    <row r="437" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
       <c r="E437" s="2"/>
@@ -22729,8 +24570,12 @@
       <c r="AT437" s="2"/>
       <c r="AU437" s="2"/>
       <c r="AV437" s="2"/>
-    </row>
-    <row r="438" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW437" s="2"/>
+      <c r="AX437" s="2"/>
+      <c r="AY437" s="2"/>
+      <c r="AZ437" s="2"/>
+    </row>
+    <row r="438" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
       <c r="E438" s="2"/>
@@ -22777,8 +24622,12 @@
       <c r="AT438" s="2"/>
       <c r="AU438" s="2"/>
       <c r="AV438" s="2"/>
-    </row>
-    <row r="439" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW438" s="2"/>
+      <c r="AX438" s="2"/>
+      <c r="AY438" s="2"/>
+      <c r="AZ438" s="2"/>
+    </row>
+    <row r="439" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
       <c r="E439" s="2"/>
@@ -22825,8 +24674,12 @@
       <c r="AT439" s="2"/>
       <c r="AU439" s="2"/>
       <c r="AV439" s="2"/>
-    </row>
-    <row r="440" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW439" s="2"/>
+      <c r="AX439" s="2"/>
+      <c r="AY439" s="2"/>
+      <c r="AZ439" s="2"/>
+    </row>
+    <row r="440" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
       <c r="E440" s="2"/>
@@ -22873,8 +24726,12 @@
       <c r="AT440" s="2"/>
       <c r="AU440" s="2"/>
       <c r="AV440" s="2"/>
-    </row>
-    <row r="441" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW440" s="2"/>
+      <c r="AX440" s="2"/>
+      <c r="AY440" s="2"/>
+      <c r="AZ440" s="2"/>
+    </row>
+    <row r="441" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
       <c r="E441" s="2"/>
@@ -22921,8 +24778,12 @@
       <c r="AT441" s="2"/>
       <c r="AU441" s="2"/>
       <c r="AV441" s="2"/>
-    </row>
-    <row r="442" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW441" s="2"/>
+      <c r="AX441" s="2"/>
+      <c r="AY441" s="2"/>
+      <c r="AZ441" s="2"/>
+    </row>
+    <row r="442" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
       <c r="E442" s="2"/>
@@ -22969,8 +24830,12 @@
       <c r="AT442" s="2"/>
       <c r="AU442" s="2"/>
       <c r="AV442" s="2"/>
-    </row>
-    <row r="443" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW442" s="2"/>
+      <c r="AX442" s="2"/>
+      <c r="AY442" s="2"/>
+      <c r="AZ442" s="2"/>
+    </row>
+    <row r="443" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
       <c r="E443" s="2"/>
@@ -23017,8 +24882,12 @@
       <c r="AT443" s="2"/>
       <c r="AU443" s="2"/>
       <c r="AV443" s="2"/>
-    </row>
-    <row r="444" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW443" s="2"/>
+      <c r="AX443" s="2"/>
+      <c r="AY443" s="2"/>
+      <c r="AZ443" s="2"/>
+    </row>
+    <row r="444" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
       <c r="E444" s="2"/>
@@ -23065,8 +24934,12 @@
       <c r="AT444" s="2"/>
       <c r="AU444" s="2"/>
       <c r="AV444" s="2"/>
-    </row>
-    <row r="445" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW444" s="2"/>
+      <c r="AX444" s="2"/>
+      <c r="AY444" s="2"/>
+      <c r="AZ444" s="2"/>
+    </row>
+    <row r="445" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
       <c r="E445" s="2"/>
@@ -23113,8 +24986,12 @@
       <c r="AT445" s="2"/>
       <c r="AU445" s="2"/>
       <c r="AV445" s="2"/>
-    </row>
-    <row r="446" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW445" s="2"/>
+      <c r="AX445" s="2"/>
+      <c r="AY445" s="2"/>
+      <c r="AZ445" s="2"/>
+    </row>
+    <row r="446" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
       <c r="E446" s="2"/>
@@ -23161,8 +25038,12 @@
       <c r="AT446" s="2"/>
       <c r="AU446" s="2"/>
       <c r="AV446" s="2"/>
-    </row>
-    <row r="447" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW446" s="2"/>
+      <c r="AX446" s="2"/>
+      <c r="AY446" s="2"/>
+      <c r="AZ446" s="2"/>
+    </row>
+    <row r="447" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
       <c r="E447" s="2"/>
@@ -23209,8 +25090,12 @@
       <c r="AT447" s="2"/>
       <c r="AU447" s="2"/>
       <c r="AV447" s="2"/>
-    </row>
-    <row r="448" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW447" s="2"/>
+      <c r="AX447" s="2"/>
+      <c r="AY447" s="2"/>
+      <c r="AZ447" s="2"/>
+    </row>
+    <row r="448" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
       <c r="E448" s="2"/>
@@ -23257,8 +25142,12 @@
       <c r="AT448" s="2"/>
       <c r="AU448" s="2"/>
       <c r="AV448" s="2"/>
-    </row>
-    <row r="449" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW448" s="2"/>
+      <c r="AX448" s="2"/>
+      <c r="AY448" s="2"/>
+      <c r="AZ448" s="2"/>
+    </row>
+    <row r="449" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
       <c r="E449" s="2"/>
@@ -23305,8 +25194,12 @@
       <c r="AT449" s="2"/>
       <c r="AU449" s="2"/>
       <c r="AV449" s="2"/>
-    </row>
-    <row r="450" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW449" s="2"/>
+      <c r="AX449" s="2"/>
+      <c r="AY449" s="2"/>
+      <c r="AZ449" s="2"/>
+    </row>
+    <row r="450" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
       <c r="E450" s="2"/>
@@ -23353,8 +25246,12 @@
       <c r="AT450" s="2"/>
       <c r="AU450" s="2"/>
       <c r="AV450" s="2"/>
-    </row>
-    <row r="451" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW450" s="2"/>
+      <c r="AX450" s="2"/>
+      <c r="AY450" s="2"/>
+      <c r="AZ450" s="2"/>
+    </row>
+    <row r="451" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
       <c r="E451" s="2"/>
@@ -23401,8 +25298,12 @@
       <c r="AT451" s="2"/>
       <c r="AU451" s="2"/>
       <c r="AV451" s="2"/>
-    </row>
-    <row r="452" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW451" s="2"/>
+      <c r="AX451" s="2"/>
+      <c r="AY451" s="2"/>
+      <c r="AZ451" s="2"/>
+    </row>
+    <row r="452" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
       <c r="E452" s="2"/>
@@ -23449,8 +25350,12 @@
       <c r="AT452" s="2"/>
       <c r="AU452" s="2"/>
       <c r="AV452" s="2"/>
-    </row>
-    <row r="453" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW452" s="2"/>
+      <c r="AX452" s="2"/>
+      <c r="AY452" s="2"/>
+      <c r="AZ452" s="2"/>
+    </row>
+    <row r="453" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
       <c r="E453" s="2"/>
@@ -23497,8 +25402,12 @@
       <c r="AT453" s="2"/>
       <c r="AU453" s="2"/>
       <c r="AV453" s="2"/>
-    </row>
-    <row r="454" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW453" s="2"/>
+      <c r="AX453" s="2"/>
+      <c r="AY453" s="2"/>
+      <c r="AZ453" s="2"/>
+    </row>
+    <row r="454" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
       <c r="E454" s="2"/>
@@ -23545,8 +25454,12 @@
       <c r="AT454" s="2"/>
       <c r="AU454" s="2"/>
       <c r="AV454" s="2"/>
-    </row>
-    <row r="455" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW454" s="2"/>
+      <c r="AX454" s="2"/>
+      <c r="AY454" s="2"/>
+      <c r="AZ454" s="2"/>
+    </row>
+    <row r="455" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
       <c r="E455" s="2"/>
@@ -23593,8 +25506,12 @@
       <c r="AT455" s="2"/>
       <c r="AU455" s="2"/>
       <c r="AV455" s="2"/>
-    </row>
-    <row r="456" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW455" s="2"/>
+      <c r="AX455" s="2"/>
+      <c r="AY455" s="2"/>
+      <c r="AZ455" s="2"/>
+    </row>
+    <row r="456" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
       <c r="E456" s="2"/>
@@ -23641,8 +25558,12 @@
       <c r="AT456" s="2"/>
       <c r="AU456" s="2"/>
       <c r="AV456" s="2"/>
-    </row>
-    <row r="457" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW456" s="2"/>
+      <c r="AX456" s="2"/>
+      <c r="AY456" s="2"/>
+      <c r="AZ456" s="2"/>
+    </row>
+    <row r="457" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
       <c r="E457" s="2"/>
@@ -23689,8 +25610,12 @@
       <c r="AT457" s="2"/>
       <c r="AU457" s="2"/>
       <c r="AV457" s="2"/>
-    </row>
-    <row r="458" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW457" s="2"/>
+      <c r="AX457" s="2"/>
+      <c r="AY457" s="2"/>
+      <c r="AZ457" s="2"/>
+    </row>
+    <row r="458" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
       <c r="E458" s="2"/>
@@ -23737,8 +25662,12 @@
       <c r="AT458" s="2"/>
       <c r="AU458" s="2"/>
       <c r="AV458" s="2"/>
-    </row>
-    <row r="459" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW458" s="2"/>
+      <c r="AX458" s="2"/>
+      <c r="AY458" s="2"/>
+      <c r="AZ458" s="2"/>
+    </row>
+    <row r="459" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
       <c r="E459" s="2"/>
@@ -23785,8 +25714,12 @@
       <c r="AT459" s="2"/>
       <c r="AU459" s="2"/>
       <c r="AV459" s="2"/>
-    </row>
-    <row r="460" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW459" s="2"/>
+      <c r="AX459" s="2"/>
+      <c r="AY459" s="2"/>
+      <c r="AZ459" s="2"/>
+    </row>
+    <row r="460" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
       <c r="E460" s="2"/>
@@ -23833,8 +25766,12 @@
       <c r="AT460" s="2"/>
       <c r="AU460" s="2"/>
       <c r="AV460" s="2"/>
-    </row>
-    <row r="461" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW460" s="2"/>
+      <c r="AX460" s="2"/>
+      <c r="AY460" s="2"/>
+      <c r="AZ460" s="2"/>
+    </row>
+    <row r="461" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
       <c r="E461" s="2"/>
@@ -23881,8 +25818,12 @@
       <c r="AT461" s="2"/>
       <c r="AU461" s="2"/>
       <c r="AV461" s="2"/>
-    </row>
-    <row r="462" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW461" s="2"/>
+      <c r="AX461" s="2"/>
+      <c r="AY461" s="2"/>
+      <c r="AZ461" s="2"/>
+    </row>
+    <row r="462" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
       <c r="E462" s="2"/>
@@ -23929,8 +25870,12 @@
       <c r="AT462" s="2"/>
       <c r="AU462" s="2"/>
       <c r="AV462" s="2"/>
-    </row>
-    <row r="463" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW462" s="2"/>
+      <c r="AX462" s="2"/>
+      <c r="AY462" s="2"/>
+      <c r="AZ462" s="2"/>
+    </row>
+    <row r="463" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
       <c r="E463" s="2"/>
@@ -23977,8 +25922,12 @@
       <c r="AT463" s="2"/>
       <c r="AU463" s="2"/>
       <c r="AV463" s="2"/>
-    </row>
-    <row r="464" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW463" s="2"/>
+      <c r="AX463" s="2"/>
+      <c r="AY463" s="2"/>
+      <c r="AZ463" s="2"/>
+    </row>
+    <row r="464" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
       <c r="E464" s="2"/>
@@ -24025,8 +25974,12 @@
       <c r="AT464" s="2"/>
       <c r="AU464" s="2"/>
       <c r="AV464" s="2"/>
-    </row>
-    <row r="465" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW464" s="2"/>
+      <c r="AX464" s="2"/>
+      <c r="AY464" s="2"/>
+      <c r="AZ464" s="2"/>
+    </row>
+    <row r="465" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
       <c r="E465" s="2"/>
@@ -24073,8 +26026,12 @@
       <c r="AT465" s="2"/>
       <c r="AU465" s="2"/>
       <c r="AV465" s="2"/>
-    </row>
-    <row r="466" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW465" s="2"/>
+      <c r="AX465" s="2"/>
+      <c r="AY465" s="2"/>
+      <c r="AZ465" s="2"/>
+    </row>
+    <row r="466" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
       <c r="E466" s="2"/>
@@ -24121,8 +26078,12 @@
       <c r="AT466" s="2"/>
       <c r="AU466" s="2"/>
       <c r="AV466" s="2"/>
-    </row>
-    <row r="467" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW466" s="2"/>
+      <c r="AX466" s="2"/>
+      <c r="AY466" s="2"/>
+      <c r="AZ466" s="2"/>
+    </row>
+    <row r="467" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
       <c r="E467" s="2"/>
@@ -24169,8 +26130,12 @@
       <c r="AT467" s="2"/>
       <c r="AU467" s="2"/>
       <c r="AV467" s="2"/>
-    </row>
-    <row r="468" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW467" s="2"/>
+      <c r="AX467" s="2"/>
+      <c r="AY467" s="2"/>
+      <c r="AZ467" s="2"/>
+    </row>
+    <row r="468" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
       <c r="E468" s="2"/>
@@ -24217,8 +26182,12 @@
       <c r="AT468" s="2"/>
       <c r="AU468" s="2"/>
       <c r="AV468" s="2"/>
-    </row>
-    <row r="469" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW468" s="2"/>
+      <c r="AX468" s="2"/>
+      <c r="AY468" s="2"/>
+      <c r="AZ468" s="2"/>
+    </row>
+    <row r="469" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
       <c r="E469" s="2"/>
@@ -24265,8 +26234,12 @@
       <c r="AT469" s="2"/>
       <c r="AU469" s="2"/>
       <c r="AV469" s="2"/>
-    </row>
-    <row r="470" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW469" s="2"/>
+      <c r="AX469" s="2"/>
+      <c r="AY469" s="2"/>
+      <c r="AZ469" s="2"/>
+    </row>
+    <row r="470" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
       <c r="E470" s="2"/>
@@ -24313,8 +26286,12 @@
       <c r="AT470" s="2"/>
       <c r="AU470" s="2"/>
       <c r="AV470" s="2"/>
-    </row>
-    <row r="471" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW470" s="2"/>
+      <c r="AX470" s="2"/>
+      <c r="AY470" s="2"/>
+      <c r="AZ470" s="2"/>
+    </row>
+    <row r="471" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
       <c r="E471" s="2"/>
@@ -24361,8 +26338,12 @@
       <c r="AT471" s="2"/>
       <c r="AU471" s="2"/>
       <c r="AV471" s="2"/>
-    </row>
-    <row r="472" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW471" s="2"/>
+      <c r="AX471" s="2"/>
+      <c r="AY471" s="2"/>
+      <c r="AZ471" s="2"/>
+    </row>
+    <row r="472" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
       <c r="E472" s="2"/>
@@ -24409,8 +26390,12 @@
       <c r="AT472" s="2"/>
       <c r="AU472" s="2"/>
       <c r="AV472" s="2"/>
-    </row>
-    <row r="473" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW472" s="2"/>
+      <c r="AX472" s="2"/>
+      <c r="AY472" s="2"/>
+      <c r="AZ472" s="2"/>
+    </row>
+    <row r="473" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
       <c r="E473" s="2"/>
@@ -24457,8 +26442,12 @@
       <c r="AT473" s="2"/>
       <c r="AU473" s="2"/>
       <c r="AV473" s="2"/>
-    </row>
-    <row r="474" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW473" s="2"/>
+      <c r="AX473" s="2"/>
+      <c r="AY473" s="2"/>
+      <c r="AZ473" s="2"/>
+    </row>
+    <row r="474" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
       <c r="E474" s="2"/>
@@ -24505,8 +26494,12 @@
       <c r="AT474" s="2"/>
       <c r="AU474" s="2"/>
       <c r="AV474" s="2"/>
-    </row>
-    <row r="475" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW474" s="2"/>
+      <c r="AX474" s="2"/>
+      <c r="AY474" s="2"/>
+      <c r="AZ474" s="2"/>
+    </row>
+    <row r="475" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
       <c r="E475" s="2"/>
@@ -24553,8 +26546,12 @@
       <c r="AT475" s="2"/>
       <c r="AU475" s="2"/>
       <c r="AV475" s="2"/>
-    </row>
-    <row r="476" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW475" s="2"/>
+      <c r="AX475" s="2"/>
+      <c r="AY475" s="2"/>
+      <c r="AZ475" s="2"/>
+    </row>
+    <row r="476" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
       <c r="E476" s="2"/>
@@ -24601,8 +26598,12 @@
       <c r="AT476" s="2"/>
       <c r="AU476" s="2"/>
       <c r="AV476" s="2"/>
-    </row>
-    <row r="477" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW476" s="2"/>
+      <c r="AX476" s="2"/>
+      <c r="AY476" s="2"/>
+      <c r="AZ476" s="2"/>
+    </row>
+    <row r="477" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
       <c r="E477" s="2"/>
@@ -24649,8 +26650,12 @@
       <c r="AT477" s="2"/>
       <c r="AU477" s="2"/>
       <c r="AV477" s="2"/>
-    </row>
-    <row r="478" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW477" s="2"/>
+      <c r="AX477" s="2"/>
+      <c r="AY477" s="2"/>
+      <c r="AZ477" s="2"/>
+    </row>
+    <row r="478" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
       <c r="E478" s="2"/>
@@ -24697,8 +26702,12 @@
       <c r="AT478" s="2"/>
       <c r="AU478" s="2"/>
       <c r="AV478" s="2"/>
-    </row>
-    <row r="479" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW478" s="2"/>
+      <c r="AX478" s="2"/>
+      <c r="AY478" s="2"/>
+      <c r="AZ478" s="2"/>
+    </row>
+    <row r="479" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
       <c r="E479" s="2"/>
@@ -24745,8 +26754,12 @@
       <c r="AT479" s="2"/>
       <c r="AU479" s="2"/>
       <c r="AV479" s="2"/>
-    </row>
-    <row r="480" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW479" s="2"/>
+      <c r="AX479" s="2"/>
+      <c r="AY479" s="2"/>
+      <c r="AZ479" s="2"/>
+    </row>
+    <row r="480" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
       <c r="E480" s="2"/>
@@ -24793,8 +26806,12 @@
       <c r="AT480" s="2"/>
       <c r="AU480" s="2"/>
       <c r="AV480" s="2"/>
-    </row>
-    <row r="481" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW480" s="2"/>
+      <c r="AX480" s="2"/>
+      <c r="AY480" s="2"/>
+      <c r="AZ480" s="2"/>
+    </row>
+    <row r="481" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
       <c r="E481" s="2"/>
@@ -24841,8 +26858,12 @@
       <c r="AT481" s="2"/>
       <c r="AU481" s="2"/>
       <c r="AV481" s="2"/>
-    </row>
-    <row r="482" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW481" s="2"/>
+      <c r="AX481" s="2"/>
+      <c r="AY481" s="2"/>
+      <c r="AZ481" s="2"/>
+    </row>
+    <row r="482" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
       <c r="E482" s="2"/>
@@ -24889,8 +26910,12 @@
       <c r="AT482" s="2"/>
       <c r="AU482" s="2"/>
       <c r="AV482" s="2"/>
-    </row>
-    <row r="483" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW482" s="2"/>
+      <c r="AX482" s="2"/>
+      <c r="AY482" s="2"/>
+      <c r="AZ482" s="2"/>
+    </row>
+    <row r="483" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
       <c r="E483" s="2"/>
@@ -24937,8 +26962,12 @@
       <c r="AT483" s="2"/>
       <c r="AU483" s="2"/>
       <c r="AV483" s="2"/>
-    </row>
-    <row r="484" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW483" s="2"/>
+      <c r="AX483" s="2"/>
+      <c r="AY483" s="2"/>
+      <c r="AZ483" s="2"/>
+    </row>
+    <row r="484" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
       <c r="E484" s="2"/>
@@ -24985,8 +27014,12 @@
       <c r="AT484" s="2"/>
       <c r="AU484" s="2"/>
       <c r="AV484" s="2"/>
-    </row>
-    <row r="485" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW484" s="2"/>
+      <c r="AX484" s="2"/>
+      <c r="AY484" s="2"/>
+      <c r="AZ484" s="2"/>
+    </row>
+    <row r="485" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
       <c r="E485" s="2"/>
@@ -25033,8 +27066,12 @@
       <c r="AT485" s="2"/>
       <c r="AU485" s="2"/>
       <c r="AV485" s="2"/>
-    </row>
-    <row r="486" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW485" s="2"/>
+      <c r="AX485" s="2"/>
+      <c r="AY485" s="2"/>
+      <c r="AZ485" s="2"/>
+    </row>
+    <row r="486" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
       <c r="E486" s="2"/>
@@ -25081,8 +27118,12 @@
       <c r="AT486" s="2"/>
       <c r="AU486" s="2"/>
       <c r="AV486" s="2"/>
-    </row>
-    <row r="487" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW486" s="2"/>
+      <c r="AX486" s="2"/>
+      <c r="AY486" s="2"/>
+      <c r="AZ486" s="2"/>
+    </row>
+    <row r="487" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
       <c r="E487" s="2"/>
@@ -25129,8 +27170,12 @@
       <c r="AT487" s="2"/>
       <c r="AU487" s="2"/>
       <c r="AV487" s="2"/>
-    </row>
-    <row r="488" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW487" s="2"/>
+      <c r="AX487" s="2"/>
+      <c r="AY487" s="2"/>
+      <c r="AZ487" s="2"/>
+    </row>
+    <row r="488" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
       <c r="E488" s="2"/>
@@ -25177,8 +27222,12 @@
       <c r="AT488" s="2"/>
       <c r="AU488" s="2"/>
       <c r="AV488" s="2"/>
-    </row>
-    <row r="489" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW488" s="2"/>
+      <c r="AX488" s="2"/>
+      <c r="AY488" s="2"/>
+      <c r="AZ488" s="2"/>
+    </row>
+    <row r="489" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
       <c r="E489" s="2"/>
@@ -25225,8 +27274,12 @@
       <c r="AT489" s="2"/>
       <c r="AU489" s="2"/>
       <c r="AV489" s="2"/>
-    </row>
-    <row r="490" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW489" s="2"/>
+      <c r="AX489" s="2"/>
+      <c r="AY489" s="2"/>
+      <c r="AZ489" s="2"/>
+    </row>
+    <row r="490" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
       <c r="E490" s="2"/>
@@ -25273,8 +27326,12 @@
       <c r="AT490" s="2"/>
       <c r="AU490" s="2"/>
       <c r="AV490" s="2"/>
-    </row>
-    <row r="491" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW490" s="2"/>
+      <c r="AX490" s="2"/>
+      <c r="AY490" s="2"/>
+      <c r="AZ490" s="2"/>
+    </row>
+    <row r="491" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
       <c r="E491" s="2"/>
@@ -25321,8 +27378,12 @@
       <c r="AT491" s="2"/>
       <c r="AU491" s="2"/>
       <c r="AV491" s="2"/>
-    </row>
-    <row r="492" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW491" s="2"/>
+      <c r="AX491" s="2"/>
+      <c r="AY491" s="2"/>
+      <c r="AZ491" s="2"/>
+    </row>
+    <row r="492" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
       <c r="E492" s="2"/>
@@ -25369,8 +27430,12 @@
       <c r="AT492" s="2"/>
       <c r="AU492" s="2"/>
       <c r="AV492" s="2"/>
-    </row>
-    <row r="493" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW492" s="2"/>
+      <c r="AX492" s="2"/>
+      <c r="AY492" s="2"/>
+      <c r="AZ492" s="2"/>
+    </row>
+    <row r="493" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
       <c r="E493" s="2"/>
@@ -25417,8 +27482,12 @@
       <c r="AT493" s="2"/>
       <c r="AU493" s="2"/>
       <c r="AV493" s="2"/>
-    </row>
-    <row r="494" spans="3:48" x14ac:dyDescent="0.25">
+      <c r="AW493" s="2"/>
+      <c r="AX493" s="2"/>
+      <c r="AY493" s="2"/>
+      <c r="AZ493" s="2"/>
+    </row>
+    <row r="494" spans="3:52" x14ac:dyDescent="0.25">
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
       <c r="E494" s="2"/>
@@ -25465,6 +27534,10 @@
       <c r="AT494" s="2"/>
       <c r="AU494" s="2"/>
       <c r="AV494" s="2"/>
+      <c r="AW494" s="2"/>
+      <c r="AX494" s="2"/>
+      <c r="AY494" s="2"/>
+      <c r="AZ494" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
